--- a/xlMATRIX.xlsx
+++ b/xlMATRIX.xlsx
@@ -5,19 +5,19 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlMATRIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3ABD940-0C9B-41F8-9102-45836D36D482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF4634A-EC8D-4EDD-9441-C74A1E44A1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{3E111190-26EA-484A-ABB9-DC63F2384BD9}"/>
+    <workbookView xWindow="26400" yWindow="-315" windowWidth="29040" windowHeight="15840" xr2:uid="{3E111190-26EA-484A-ABB9-DC63F2384BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Examples" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="REVERSECOLS" comment="Reverse the columns of a matrix">_xlfn.LAMBDA(_xlpm.matrix,_xlfn.LET(_xlpm.matrix2,TRANSPOSE(_xlpm.matrix),TRANSPOSE(_xlfn.SORTBY(_xlpm.matrix2,_xlfn.SEQUENCE(ROWS(_xlpm.matrix2),1),-1))))</definedName>
-    <definedName name="REVERSELINES" comment="Reverse the lines of a matrix">_xlfn.LAMBDA(_xlpm.matrix, _xlfn.SORTBY(_xlpm.matrix, _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1),-1) )</definedName>
+    <definedName name="REVERSEROWS" comment="Reverse the lines of a matrix">_xlfn.LAMBDA(_xlpm.matrix, _xlfn.SORTBY(_xlpm.matrix, _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1),-1) )</definedName>
     <definedName name="SHELVE" comment="Shelve matrices">_xlfn.LAMBDA(_xlpm.matrixA,_xlpm.matrixB, _xlfn.LET( _xlpm.DataC, _xlpm.matrixA, _xlpm.DataD, _xlpm.matrixB, _xlpm.ColsC, COLUMNS(_xlpm.DataC), _xlpm.ColsD, COLUMNS(_xlpm.DataD), _xlpm.NumRows, ROWS(_xlpm.DataC), _xlpm.SeqCol, _xlfn.SEQUENCE( _xlpm.NumRows ), _xlpm.SeqRow, _xlfn.SEQUENCE(1, _xlpm.ColsC + _xlpm.ColsD), IF( _xlpm.SeqRow &lt;= _xlpm.ColsC, INDEX( _xlpm.DataC, _xlpm.SeqCol,_xlpm.SeqRow), INDEX( _xlpm.DataD, _xlpm.SeqCol, _xlpm.SeqRow-_xlpm.ColsC ) ) ) )</definedName>
     <definedName name="SLICE" comment="Slice a matrix">_xlfn.LAMBDA(_xlpm.vector,_xlop.lin_start,_xlop.lin_end,_xlop.col_start,_xlop.col_end, INDEX( _xlpm.vector, _xlfn.SEQUENCE( IF( OR( _xlfn.ISOMITTED( _xlpm.lin_end), _xlpm.lin_end = 0), ROWS(_xlpm.vector), IF( _xlpm.lin_end &gt; 0, _xlpm.lin_end, ROWS(_xlpm.vector) + _xlpm.lin_end + 1)  ) - IF( OR( _xlfn.ISOMITTED(_xlpm.lin_start), _xlpm.lin_start=0), 1, IF( _xlpm.lin_start &gt; 0, _xlpm.lin_start, ROWS(_xlpm.vector) + _xlpm.lin_start + 1) ) + 1, 1, IF( OR( _xlfn.ISOMITTED(_xlpm.lin_start), _xlpm.lin_start=0 ), 1, IF( _xlpm.lin_start &gt; 0, _xlpm.lin_start, ROWS(_xlpm.vector) + _xlpm.lin_start + 1) )  ), _xlfn.SEQUENCE( 1,  IF( OR( _xlfn.ISOMITTED( _xlpm.col_end), _xlpm.col_end = 0), COLUMNS(_xlpm.vector), IF( _xlpm.col_end &gt; 0, _xlpm.col_end, COLUMNS(_xlpm.vector) + _xlpm.col_end + 1)  ) - IF( OR(_xlfn.ISOMITTED(_xlpm.col_start), _xlpm.col_start=0 ), 1, IF( _xlpm.col_start &gt; 0, _xlpm.col_start, COLUMNS(_xlpm.vector) + _xlpm.col_start + 1) ) + 1, IF( OR( _xlfn.ISOMITTED(_xlpm.col_start), _xlpm.col_start=0 ), 1, IF( _xlpm.col_start &gt; 0, _xlpm.col_start, COLUMNS(_xlpm.vector) + _xlpm.col_start + 1) ) )) )</definedName>
     <definedName name="STACK" comment="Stack up matrices">_xlfn.LAMBDA(_xlpm.matrixA,_xlpm.matrixB, _xlfn.LET( _xlpm.DataA, _xlpm.matrixA, _xlpm.DataB, _xlpm.matrixB, _xlpm.NumCols, COLUMNS(_xlpm.DataA), _xlpm.RowsA, ROWS(_xlpm.DataA), _xlpm.RowsB, ROWS(_xlpm.DataB), _xlpm.SeqCol, _xlfn.SEQUENCE( _xlpm.RowsA + _xlpm.RowsB ), _xlpm.SeqRow, _xlfn.SEQUENCE( 1, _xlpm.NumCols), IF( _xlpm.SeqCol &lt;= _xlpm.RowsA, INDEX( _xlpm.DataA, _xlpm.SeqCol, _xlpm.SeqRow ), INDEX( _xlpm.DataB, _xlpm.SeqCol - _xlpm.RowsA, _xlpm.SeqRow ) )) )</definedName>
@@ -81,9 +81,6 @@
     <t>Data</t>
   </si>
   <si>
-    <t>REVERSELINES</t>
-  </si>
-  <si>
     <t>REVERSECOLS</t>
   </si>
   <si>
@@ -127,6 +124,9 @@
   </si>
   <si>
     <t>xlMATRIX v. 0.1</t>
+  </si>
+  <si>
+    <t>REVERSEROWS</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -573,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="21" x14ac:dyDescent="0.35">
@@ -583,33 +585,33 @@
     </row>
     <row r="3" spans="1:23" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="9" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:23" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E10" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -635,33 +637,33 @@
         <v>4</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -704,11 +706,11 @@
         <v>1</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S12" s="8"/>
       <c r="U12" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -1245,7 +1247,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1282,7 +1284,7 @@
         <v>200</v>
       </c>
       <c r="K26" cm="1">
-        <f t="array" ref="K26:L37">REVERSELINES(A13:B24)</f>
+        <f t="array" ref="K26:L37">REVERSEROWS(A13:B24)</f>
         <v>12</v>
       </c>
       <c r="L26">

--- a/xlMATRIX.xlsx
+++ b/xlMATRIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo\Google Drive\Meus Projetos\xlMATRIX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCEA967-5DF5-4FB6-A479-F0C5D5D8B19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3136022F-F34D-4BEC-A0EE-8128BDD39398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="26760" windowHeight="14520" xr2:uid="{3E111190-26EA-484A-ABB9-DC63F2384BD9}"/>
   </bookViews>
@@ -43,7 +43,7 @@
   </sheets>
   <definedNames>
     <definedName name="ADDCONST">_xlfn.LAMBDA(_xlpm.matrix,_xlop.position, _xlfn.LET(_xlpm.position, IF( _xlfn.ISOMITTED(_xlpm.position), 1, _xlpm.position), IF( OR( _xlpm.position&lt;1, _xlpm.position&gt;COLUMNS(_xlpm.matrix)+1), "#position exceeds matrix columns", IF(_xlpm.position=1, HORZCAT( ONES(ROWS(_xlpm.matrix),1), SLICE(_xlpm.matrix,0,0,1,-1) ), IF(_xlpm.position=COLUMNS(_xlpm.matrix)+1, HORZCAT(_xlpm.matrix, ONES(ROWS(_xlpm.matrix),1) ), HORZCAT( HORZCAT( SLICE(_xlpm.matrix,0,0,1,_xlpm.position-1), ONES(ROWS(_xlpm.matrix),1) ), SLICE(_xlpm.matrix,0,0,_xlpm.position,-1) ) ) ) ) ) )</definedName>
-    <definedName name="ADDTREND">_xlfn.LAMBDA(_xlpm.matrix,_xlop.position, _xlfn.LET(_xlpm.position, IF( _xlfn.ISOMITTED(_xlpm.position), 1, _xlpm.position), IF( OR( _xlpm.position&lt;1, _xlpm.position&gt;COLUMNS(_xlpm.matrix)+1), "#position exceeds matrix columns", IF(_xlpm.position=1, HORZCAT( _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1), SLICE(_xlpm.matrix,0,0,1,-1) ), IF(_xlpm.position=COLUMNS(_xlpm.matrix)+1, HORZCAT(_xlpm.matrix, _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1) ), HORZCAT( HORZCAT( SLICE(_xlpm.matrix,0,0,1,_xlpm.position-1), _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1) ), SLICE(_xlpm.matrix,0,0,_xlpm.position,-1) ) ) ) ) ) )</definedName>
+    <definedName name="ADDTREND">_xlfn.LAMBDA(_xlpm.matrix,_xlop.position,_xlop.nPower, _xlfn.LET( _xlpm.position, IF( _xlfn.ISOMITTED(_xlpm.position), 1, _xlpm.position), _xlpm.power, IF( _xlfn.ISOMITTED(_xlpm.nPower), 1, _xlpm.nPower), IF( OR( _xlpm.position&lt;1, _xlpm.position&gt;COLUMNS(_xlpm.matrix)+1), "#position exceeds matrix columns", IF(_xlpm.position=1, HORZCAT( _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1)^_xlpm.nPower, SLICE(_xlpm.matrix,0,0,1,-1) ), IF(_xlpm.position=COLUMNS(_xlpm.matrix)+1, HORZCAT(_xlpm.matrix, _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1)^_xlpm.nPower ), HORZCAT( HORZCAT( SLICE(_xlpm.matrix,0,0,1,_xlpm.position-1), _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1)^_xlpm.nPower ), SLICE(_xlpm.matrix,0,0,_xlpm.position,-1) ) ) ) ) ) )</definedName>
     <definedName name="ALL">_xlfn.LAMBDA(_xlpm.matrix,_xlop.dim, _xlfn.LET( _xlpm.dim, IF( _xlfn.ISOMITTED(_xlpm.dim),"all", _xlpm.dim), IF(_xlpm.dim="all", IF( ( COUNTIF(_xlpm.matrix,FALSE) + COUNTIF(_xlpm.matrix,0)  ) = 0, TRUE, FALSE ), IF(_xlpm.dim=1, _xlfn.BYCOL(_xlpm.matrix, _xlfn.LAMBDA(_xlpm.col, IF( ( COUNTIF(_xlpm.col,FALSE) + COUNTIF(_xlpm.col,0)  ) = 0, TRUE, FALSE ) )), IF(_xlpm.dim=2, _xlfn.BYROW(_xlpm.matrix, _xlfn.LAMBDA(_xlpm.row, IF( ( COUNTIF(_xlpm.row,FALSE) + COUNTIF(_xlpm.row,0)  ) = 0, TRUE, FALSE ) )), #VALUE!) ) ) ))</definedName>
     <definedName name="ANY">_xlfn.LAMBDA(_xlpm.matrix,_xlop.dim, _xlfn.LET( _xlpm.dim, IF( _xlfn.ISOMITTED(_xlpm.dim),"all", _xlpm.dim), IF(_xlpm.dim="all", IF( ( COUNTIF(_xlpm.matrix,FALSE) + COUNTIF(_xlpm.matrix,0)  ) &lt;&gt; ROWS(_xlpm.matrix)*COLUMNS(_xlpm.matrix), TRUE, FALSE ), IF(_xlpm.dim=1, _xlfn.BYCOL(_xlpm.matrix, _xlfn.LAMBDA(_xlpm.col, IF( ( COUNTIF(_xlpm.col,FALSE) + COUNTIF(_xlpm.col,0)  ) &lt;&gt; ROWS(_xlpm.col), TRUE, FALSE ) )), IF(_xlpm.dim=2, _xlfn.BYROW(_xlpm.matrix, _xlfn.LAMBDA(_xlpm.row, IF( ( COUNTIF(_xlpm.row,FALSE) + COUNTIF(_xlpm.row,0)  ) &lt;&gt; COLUMNS(_xlpm.row), TRUE, FALSE ) )), #VALUE!) ) ) ))</definedName>
     <definedName name="BLKDIAG">_xlfn.LAMBDA(_xlpm.matrixA,_xlpm.matrixB,  _xlfn.LET(  _xlpm.nn,ROWS(_xlpm.matrixA) + ROWS(_xlpm.matrixB),  _xlpm.mm,COLUMNS(_xlpm.matrixA) + COLUMNS(_xlpm.matrixB),  _xlpm.nseq, IF(MOD(_xlfn.SEQUENCE(_xlpm.nn,1),ROWS(_xlpm.matrixA))=0, ROWS(_xlpm.matrixA), MOD(_xlfn.SEQUENCE(_xlpm.nn,1),ROWS(_xlpm.matrixA))),  _xlpm.mseq, IF(MOD(_xlfn.SEQUENCE(1,_xlpm.mm),COLUMNS(_xlpm.matrixA))=0, COLUMNS(_xlpm.matrixA), MOD(_xlfn.SEQUENCE(1,_xlpm.mm),COLUMNS(_xlpm.matrixA))),  _xlfn.MAKEARRAY(_xlpm.nn,_xlpm.mm,_xlfn.LAMBDA(_xlpm.row,_xlpm.col,  IF( OR( AND(_xlpm.row &lt;= ROWS(_xlpm.matrixA), _xlpm.col &gt; COLUMNS(_xlpm.matrixA) ), AND(_xlpm.row &gt; ROWS(_xlpm.matrixA), _xlpm.col &lt;= COLUMNS(_xlpm.matrixA) )  ), 0,  IF( _xlpm.row &lt;= ROWS(_xlpm.matrixA), INDEX(_xlpm.matrixA,INDEX(_xlpm.nseq,_xlpm.row),INDEX(_xlpm.mseq,1,_xlpm.col)), INDEX(_xlpm.matrixB,INDEX(_xlpm.nseq,_xlpm.row),INDEX(_xlpm.mseq,1,_xlpm.col)) )  ) ))  ))</definedName>
@@ -115,7 +115,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="5">
+  <futureMetadata name="XLRICHVALUE" count="7">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -151,13 +151,27 @@
         </ext>
       </extLst>
     </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
   </futureMetadata>
   <cellMetadata count="1">
     <bk>
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="5">
+  <valueMetadata count="7">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -173,12 +187,18 @@
     <bk>
       <rc t="2" v="4"/>
     </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+    <bk>
+      <rc t="2" v="6"/>
+    </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="206">
   <si>
     <t>Lambda functions for matrix calculation</t>
   </si>
@@ -734,9 +754,6 @@
     <t>index of the excluded categorical value. If TRUE, excludes the first alphabetically ordered category.</t>
   </si>
   <si>
-    <t>xlMATRIX v. 0.3</t>
-  </si>
-  <si>
     <t>xlFunction has an additional parameter for excluding a specific column</t>
   </si>
   <si>
@@ -798,6 +815,24 @@
   </si>
   <si>
     <t>Date: March 30th, 2022</t>
+  </si>
+  <si>
+    <t>power of the deterministic trend; if omitted equals 1</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>[nPower]</t>
+  </si>
+  <si>
+    <t>v. 0.3.1</t>
+  </si>
+  <si>
+    <t>Added parameter nPower to function ADDTREND.</t>
+  </si>
+  <si>
+    <t>xlMATRIX v. 0.3.1</t>
   </si>
 </sst>
 </file>
@@ -1165,6 +1200,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="13" fillId="5" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1178,16 +1223,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5089,37 +5124,52 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
   <rv s="0">
     <v>2</v>
     <v>2</v>
     <v>19</v>
   </rv>
   <rv s="0">
+    <v>5</v>
     <v>2</v>
-    <v>5</v>
     <v>19</v>
   </rv>
-  <rv s="0">
+  <rv s="1">
     <v>2</v>
     <v>4</v>
     <v>19</v>
   </rv>
   <rv s="0">
+    <v>3</v>
     <v>2</v>
-    <v>3</v>
     <v>19</v>
   </rv>
   <rv s="0">
+    <v>1</v>
     <v>2</v>
-    <v>1</v>
+    <v>19</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>2</v>
+    <v>19</v>
+  </rv>
+  <rv s="1">
+    <v>2</v>
+    <v>3</v>
     <v>19</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <s t="_error">
+    <k n="argument" t="s"/>
+    <k n="errorType" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
   <s t="_error">
     <k n="errorType" t="i"/>
     <k n="argument" t="s"/>
@@ -5445,7 +5495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791E1965-C276-4C4D-805E-36C4D53F123D}">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5462,7 +5512,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
@@ -5477,7 +5527,7 @@
     </row>
     <row r="4" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -5486,28 +5536,28 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="59" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:13" s="9" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="46.5" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
@@ -5812,7 +5862,7 @@
       <c r="H30" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="I30" t="e" cm="1" vm="3">
+      <c r="I30" t="e" cm="1" vm="6">
         <f t="array" ref="I30">RESHAPE()</f>
         <v>#VALUE!</v>
       </c>
@@ -5955,7 +6005,7 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F39" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="F39" ca="1">INDIRECT(B39&amp;"!A2")</f>
@@ -5970,7 +6020,7 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F40" s="32" t="str" cm="1">
         <f t="array" aca="1" ref="F40" ca="1">INDIRECT(B40&amp;"!A2")</f>
@@ -5978,7 +6028,7 @@
       </c>
       <c r="G40" s="35"/>
       <c r="H40" s="33"/>
-      <c r="I40" t="e" cm="1" vm="1">
+      <c r="I40" t="e" cm="1" vm="7">
         <f t="array" ref="I40">ADDTREND()</f>
         <v>#VALUE!</v>
       </c>
@@ -5995,7 +6045,7 @@
         <v>172</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I41" t="e" cm="1" vm="1">
         <f t="array" ref="I41">DUMMYVAR()</f>
@@ -6033,7 +6083,7 @@
         <v>101</v>
       </c>
       <c r="H46" s="33"/>
-      <c r="I46" t="e" cm="1" vm="3">
+      <c r="I46" t="e" cm="1" vm="6">
         <f t="array" ref="I46">_xludf.SPLIT()</f>
         <v>#VALUE!</v>
       </c>
@@ -6174,12 +6224,22 @@
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -9242,15 +9302,15 @@
 #VALUE!)),
 IF(_xlpm.dim=1,_xlpm.matrixSample,TRANSPOSE(_xlpm.matrixSample))
 ))(A6:C17,5,)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y6">
         <f ca="1"/>
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Z6">
         <f ca="1"/>
-        <v>9000</v>
+        <v>10000</v>
       </c>
       <c r="AB6" cm="1">
         <f t="array" aca="1" ref="AB6:AC17" ca="1">_xlfn.LAMBDA(_xlpm.matrix,_xlpm.n,_xlop.dim,_xlop.replacement,
@@ -9263,11 +9323,11 @@
 #VALUE!)),
 IF(_xlpm.dim=1,_xlpm.matrixSample,TRANSPOSE(_xlpm.matrixSample))
 ))($A$6:$C$17,2,2,TRUE)</f>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AC6">
         <f ca="1"/>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="str" cm="1">
         <f t="array" ref="AF6:AH6">_xlfn.LAMBDA(_xlpm.txt,_xlpm.delim,_xlop.n,_xlop.list, _xlfn.LET(_xlpm.p,IFERROR(FIND(_xlpm.delim,_xlpm.txt),0), _xlpm.list,IF(_xlfn.ISOMITTED(_xlpm.list), {""}, _xlpm.list), IF(_xlpm.p,_xludf.SPLIT(MID(_xlpm.txt,_xlpm.p+1,99),_xlpm.delim,_xlpm.n+1, IF(_xlfn.SEQUENCE(1,_xlpm.n+1)&lt;_xlpm.n+1,_xlpm.list,LEFT(_xlpm.txt,_xlpm.p-1))),IF(_xlpm.n=0,_xlpm.txt,IF(_xlfn.SEQUENCE(1,_xlpm.n+1)&lt;_xlpm.n+1,_xlpm.list,_xlpm.txt)) )))("A-B-C","-")</f>
@@ -9335,23 +9395,23 @@
       </c>
       <c r="X7">
         <f ca="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y7">
         <f ca="1"/>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="Z7">
         <f ca="1"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="AB7">
         <f ca="1"/>
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="AC7">
         <f ca="1"/>
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="AJ7" t="str">
         <v>B</v>
@@ -9408,23 +9468,23 @@
       </c>
       <c r="X8">
         <f ca="1"/>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Y8">
         <f ca="1"/>
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="Z8">
         <f ca="1"/>
-        <v>2000</v>
+        <v>12000</v>
       </c>
       <c r="AB8">
         <f ca="1"/>
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="AC8">
         <f ca="1"/>
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="AJ8" t="str">
         <v>C</v>
@@ -9469,23 +9529,23 @@
       </c>
       <c r="X9">
         <f ca="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Y9">
         <f ca="1"/>
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="Z9">
         <f ca="1"/>
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="AB9">
         <f ca="1"/>
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="AC9">
         <f ca="1"/>
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="AJ9" t="str">
         <v>D</v>
@@ -9530,23 +9590,23 @@
       </c>
       <c r="X10">
         <f ca="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Y10">
         <f ca="1"/>
-        <v>400</v>
+        <v>1100</v>
       </c>
       <c r="Z10">
         <f ca="1"/>
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="AB10">
         <f ca="1"/>
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="AC10">
         <f ca="1"/>
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="AJ10" t="str">
         <v>E</v>
@@ -9591,11 +9651,11 @@
       </c>
       <c r="AB11">
         <f ca="1"/>
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="AC11">
         <f ca="1"/>
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="AJ11" t="str">
         <v>F</v>
@@ -9625,11 +9685,11 @@
       </c>
       <c r="AB12">
         <f ca="1"/>
-        <v>7</v>
+        <v>700</v>
       </c>
       <c r="AC12">
         <f ca="1"/>
-        <v>700</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
@@ -9656,11 +9716,11 @@
       </c>
       <c r="AB13">
         <f ca="1"/>
-        <v>8</v>
+        <v>800</v>
       </c>
       <c r="AC13">
         <f ca="1"/>
-        <v>800</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
@@ -9687,11 +9747,11 @@
       </c>
       <c r="AB14">
         <f ca="1"/>
-        <v>9</v>
+        <v>900</v>
       </c>
       <c r="AC14">
         <f ca="1"/>
-        <v>900</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
@@ -9718,11 +9778,11 @@
       </c>
       <c r="AB15">
         <f ca="1"/>
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AC15">
         <f ca="1"/>
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
@@ -9749,11 +9809,11 @@
       </c>
       <c r="AB16">
         <f ca="1"/>
-        <v>11</v>
+        <v>1100</v>
       </c>
       <c r="AC16">
         <f ca="1"/>
-        <v>1100</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
@@ -9768,11 +9828,11 @@
       </c>
       <c r="AB17">
         <f ca="1"/>
-        <v>12</v>
+        <v>1200</v>
       </c>
       <c r="AC17">
         <f ca="1"/>
-        <v>1200</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
@@ -9876,7 +9936,7 @@
       </c>
       <c r="AC21">
         <f ca="1"/>
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="AF21" t="str" cm="1">
         <f t="array" ref="AF21:AH21">_xludf.SPLIT("A-B-C","-")</f>
@@ -9935,15 +9995,15 @@
       </c>
       <c r="X22">
         <f ca="1"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y22">
         <f ca="1"/>
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="Z22">
         <f ca="1"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="AB22">
         <f ca="1"/>
@@ -9951,7 +10011,7 @@
       </c>
       <c r="AC22">
         <f ca="1"/>
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="AJ22" t="str">
         <v>B</v>
@@ -9999,15 +10059,15 @@
       </c>
       <c r="X23">
         <f ca="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y23">
         <f ca="1"/>
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="Z23">
         <f ca="1"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="AB23">
         <f ca="1"/>
@@ -10015,7 +10075,7 @@
       </c>
       <c r="AC23">
         <f ca="1"/>
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="AJ23" t="str">
         <v>C</v>
@@ -10067,7 +10127,7 @@
       </c>
       <c r="AC24">
         <f ca="1"/>
-        <v>4</v>
+        <v>400</v>
       </c>
       <c r="AJ24" t="str">
         <v>D</v>
@@ -10103,15 +10163,15 @@
       </c>
       <c r="X25">
         <f ca="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Y25">
         <f ca="1"/>
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="Z25">
         <f ca="1"/>
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="AB25">
         <f ca="1"/>
@@ -10119,7 +10179,7 @@
       </c>
       <c r="AC25">
         <f ca="1"/>
-        <v>5</v>
+        <v>500</v>
       </c>
       <c r="AJ25" t="str">
         <v>E</v>
@@ -10159,7 +10219,7 @@
       </c>
       <c r="AC26">
         <f ca="1"/>
-        <v>6</v>
+        <v>600</v>
       </c>
       <c r="AJ26" t="str">
         <v>F</v>
@@ -10184,7 +10244,7 @@
       </c>
       <c r="AC27">
         <f ca="1"/>
-        <v>7</v>
+        <v>700</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
@@ -10206,7 +10266,7 @@
       </c>
       <c r="AC28">
         <f ca="1"/>
-        <v>8</v>
+        <v>800</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
@@ -10228,7 +10288,7 @@
       </c>
       <c r="AC29">
         <f ca="1"/>
-        <v>9</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
@@ -10250,7 +10310,7 @@
       </c>
       <c r="AC30">
         <f ca="1"/>
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
@@ -10272,7 +10332,7 @@
       </c>
       <c r="AC31">
         <f ca="1"/>
-        <v>11</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
@@ -10282,7 +10342,7 @@
       </c>
       <c r="AC32">
         <f ca="1"/>
-        <v>12</v>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -13689,7 +13749,7 @@
       </c>
       <c r="E4" s="12">
         <f ca="1">10+B4+2*C4+3*D4 + RAND()</f>
-        <v>241.23761889897611</v>
+        <v>241.79943765573549</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>3</v>
@@ -13719,23 +13779,23 @@
       </c>
       <c r="E5" s="12">
         <f t="shared" ref="E5:E15" ca="1" si="0">10+B5+2*C5+3*D5 + RAND()</f>
-        <v>475.54122221978042</v>
+        <v>475.88684936729356</v>
       </c>
       <c r="G5" s="42" cm="1">
         <f t="array" aca="1" ref="G5:K9" ca="1">LINEST($E$4:$E$15,$A$4:$D$15,FALSE,TRUE)</f>
-        <v>3.0001478886188844</v>
+        <v>2.9968695107398302</v>
       </c>
       <c r="H5" s="42">
         <f ca="1"/>
-        <v>1.9998355262682583</v>
+        <v>2.000056395751201</v>
       </c>
       <c r="I5" s="42">
         <f ca="1"/>
-        <v>1.002269956068047</v>
+        <v>0.99753203640720334</v>
       </c>
       <c r="J5" s="42">
         <f ca="1"/>
-        <v>10.458528758280455</v>
+        <v>10.645060678042006</v>
       </c>
       <c r="K5" s="42">
         <f ca="1"/>
@@ -13757,23 +13817,23 @@
       </c>
       <c r="E6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>685.55203919872929</v>
+        <v>685.07252925238697</v>
       </c>
       <c r="G6" s="45">
         <f ca="1"/>
-        <v>2.4845276528714815E-3</v>
+        <v>3.6159247890349788E-3</v>
       </c>
       <c r="H6" s="45">
         <f ca="1"/>
-        <v>2.7891705813999493E-4</v>
+        <v>4.0592951479026578E-4</v>
       </c>
       <c r="I6" s="45">
         <f ca="1"/>
-        <v>2.5532603086815533E-3</v>
+        <v>3.7159567261609789E-3</v>
       </c>
       <c r="J6" s="45">
         <f ca="1"/>
-        <v>0.21455383617128174</v>
+        <v>0.31225675186092128</v>
       </c>
       <c r="K6" s="45" t="e">
         <f ca="1"/>
@@ -13795,15 +13855,15 @@
       </c>
       <c r="E7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1090.3951123082711</v>
+        <v>1090.0000405705923</v>
       </c>
       <c r="G7" s="43">
         <f ca="1"/>
-        <v>0.99999998056845063</v>
+        <v>0.99999995884345338</v>
       </c>
       <c r="H7" s="43">
         <f ca="1"/>
-        <v>0.27885361934797026</v>
+        <v>0.40583718742155911</v>
       </c>
       <c r="I7" s="43" t="e">
         <f ca="1"/>
@@ -13833,11 +13893,11 @@
       </c>
       <c r="E8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1312.8207505444645</v>
+        <v>1312.2016513971557</v>
       </c>
       <c r="G8" s="43">
         <f ca="1"/>
-        <v>102925398.39949846</v>
+        <v>48594940.044692703</v>
       </c>
       <c r="H8" s="43">
         <f ca="1"/>
@@ -13871,15 +13931,15 @@
       </c>
       <c r="E9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1519.0897960140467</v>
+        <v>1519.6552625196705</v>
       </c>
       <c r="G9" s="43">
         <f ca="1"/>
-        <v>32013644.616489444</v>
+        <v>32015089.555833489</v>
       </c>
       <c r="H9" s="43">
         <f ca="1"/>
-        <v>0.62207472818770149</v>
+        <v>1.3176305815539335</v>
       </c>
       <c r="I9" s="43" t="e">
         <f ca="1"/>
@@ -13909,7 +13969,7 @@
       </c>
       <c r="E10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1646.2446586058768</v>
+        <v>1646.3983385465278</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -13927,7 +13987,7 @@
       </c>
       <c r="E11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1768.2460736235075</v>
+        <v>1768.8768797049195</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -13945,7 +14005,7 @@
       </c>
       <c r="E12" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>1900.4212719551242</v>
+        <v>1900.9056964586823</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>157</v>
@@ -13978,27 +14038,27 @@
       </c>
       <c r="E13" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2200.9166151974277</v>
+        <v>2200.0079511541285</v>
       </c>
       <c r="G13" s="41" cm="1">
         <f t="array" aca="1" ref="G13:J13" ca="1">TRANSPOSE( OLS_COEFF( E4:E15, SLICE(A4:E15,,,MATCH(G12:J12,A3:E3)) ) )</f>
-        <v>10.45852875827768</v>
+        <v>10.645060678038135</v>
       </c>
       <c r="H13" s="41">
         <f ca="1"/>
-        <v>1.0022699560680657</v>
+        <v>0.99753203640721821</v>
       </c>
       <c r="I13" s="41">
         <f ca="1"/>
-        <v>1.9998355262682586</v>
+        <v>2.0000563957512028</v>
       </c>
       <c r="J13" s="41">
         <f ca="1"/>
-        <v>3.0001478886189048</v>
+        <v>2.9968695107398631</v>
       </c>
       <c r="L13" s="40" cm="1">
         <f t="array" aca="1" ref="L13:L16" ca="1">_xlfn.LAMBDA(_xlpm.y,_xlpm.X,MMULT(MINVERSE(MMULT(TRANSPOSE(_xlpm.X),_xlpm.X)),MMULT(TRANSPOSE(_xlpm.X),_xlpm.y)))(E4:E15,A4:D15)</f>
-        <v>10.45852875827768</v>
+        <v>10.645060678038135</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -14016,11 +14076,11 @@
       </c>
       <c r="E14" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2251.3451308453141</v>
+        <v>2251.1729863672044</v>
       </c>
       <c r="L14" s="40">
         <f ca="1"/>
-        <v>1.0022699560680657</v>
+        <v>0.99753203640721821</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -14038,17 +14098,17 @@
       </c>
       <c r="E15" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>2584.2270519338153</v>
+        <v>2584.7041786549057</v>
       </c>
       <c r="L15" s="40">
         <f ca="1"/>
-        <v>1.9998355262682586</v>
+        <v>2.0000563957512028</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L16" s="40">
         <f ca="1"/>
-        <v>3.0001478886189048</v>
+        <v>2.9968695107398631</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -14078,377 +14138,377 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="38" cm="1">
         <f t="array" aca="1" ref="A19:A30" ca="1">_xlfn.LAMBDA(_xlpm.y,_xlpm.X,_xlop.coeff,_xlfn.LET(_xlpm.bbeta, IF(_xlfn.ISOMITTED(_xlpm.coeff), OLS_COEFF(_xlpm.y,_xlpm.X), _xlpm.coeff), MMULT(_xlpm.X,_xlpm.bbeta)))($E$4:$E$15,$A$4:$D$15)</f>
-        <v>241.44583022736066</v>
+        <v>241.61692739696429</v>
       </c>
       <c r="B19" cm="1">
         <f t="array" aca="1" ref="B19:B30" ca="1">OLS_FITTED($E$4:$E$15,$A$4:$D$15)</f>
-        <v>241.44583022736066</v>
+        <v>241.61692739696429</v>
       </c>
       <c r="D19" s="38" cm="1">
         <f t="array" aca="1" ref="D19:D30" ca="1">_xlfn.LAMBDA(_xlpm.y,_xlpm.X,_xlop.coeff,_xlfn.LET(_xlpm.bbeta, IF(_xlfn.ISOMITTED(_xlpm.coeff), OLS_COEFF(_xlpm.y,_xlpm.X), _xlpm.coeff), _xlpm.y - MMULT(_xlpm.X,_xlpm.bbeta)))($E$4:$E$15,$A$4:$D$15)</f>
-        <v>-0.20821132838455014</v>
+        <v>0.18251025877120242</v>
       </c>
       <c r="E19" cm="1">
         <f t="array" aca="1" ref="E19:E30" ca="1">OLS_RESIDUALS($E$4:$E$15,$A$4:$D$15)</f>
-        <v>-0.20821132838455014</v>
+        <v>0.18251025877120242</v>
       </c>
       <c r="G19" s="38" cm="1">
         <f t="array" aca="1" ref="G19:J22" ca="1">_xlfn.LAMBDA(_xlpm.y,_xlpm.X,_xlop.coeff,_xlfn.LET(_xlpm.bbeta, IF(_xlfn.ISOMITTED(_xlpm.coeff), OLS_COEFF(_xlpm.y,_xlpm.X), _xlpm.coeff),_xlpm.XX,MINVERSE(MMULT(TRANSPOSE(_xlpm.X),_xlpm.X)), ( SUM(OLS_RESIDUALS(_xlpm.y,_xlpm.X,_xlpm.bbeta)^2) / (ROWS(_xlpm.X) - COLUMNS(_xlpm.X) ) ) *_xlpm.XX))($E$4:$E$15,$A$4:$D$15)</f>
-        <v>4.6033348615849762E-2</v>
+        <v>9.7504279082727838E-2</v>
       </c>
       <c r="H19" s="38">
         <f ca="1"/>
-        <v>9.1932697831296502E-6</v>
+        <v>1.9472473099826763E-5</v>
       </c>
       <c r="I19" s="38">
         <f ca="1"/>
-        <v>-3.9702106376583866E-5</v>
+        <v>-8.4093931393505272E-5</v>
       </c>
       <c r="J19" s="38">
         <f ca="1"/>
-        <v>-3.0987495444434677E-4</v>
+        <v>-6.5635316455092988E-4</v>
       </c>
       <c r="K19" s="31" cm="1">
         <f t="array" aca="1" ref="K19:N22" ca="1">OLS_VARCOV(E4:E15,A4:D15)</f>
-        <v>4.6033348615849762E-2</v>
+        <v>9.7504279082727838E-2</v>
       </c>
       <c r="L19" s="31">
         <f ca="1"/>
-        <v>9.1932697831296502E-6</v>
+        <v>1.9472473099826763E-5</v>
       </c>
       <c r="M19" s="31">
         <f ca="1"/>
-        <v>-3.9702106376583866E-5</v>
+        <v>-8.4093931393505272E-5</v>
       </c>
       <c r="N19" s="31">
         <f ca="1"/>
-        <v>-3.0987495444434677E-4</v>
+        <v>-6.5635316455092988E-4</v>
       </c>
       <c r="P19" s="39" cm="1">
         <f t="array" aca="1" ref="P19:P22" ca="1">_xlfn.LAMBDA(_xlpm.y,_xlpm.X,_xlop.coeff,_xlfn.LET(_xlpm.bbeta, IF(_xlfn.ISOMITTED(_xlpm.coeff), OLS_COEFF(_xlpm.y,_xlpm.X), _xlpm.coeff), DIAG(SQRT(OLS_VARCOV(_xlpm.y,_xlpm.X,_xlpm.coeff))) ))($E$4:$E$15,$A$4:$D$15)</f>
-        <v>0.21455383617136695</v>
+        <v>0.31225675186091306</v>
       </c>
       <c r="Q19" s="46" cm="1">
         <f t="array" aca="1" ref="Q19:Q22" ca="1">OLS_COEFF_STDEV($E$4:$E$15,$A$4:$D$15)</f>
-        <v>0.21455383617136695</v>
+        <v>0.31225675186091306</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="38">
         <f ca="1"/>
-        <v>475.47325146257424</v>
+        <v>475.56002321752101</v>
       </c>
       <c r="B20">
         <f ca="1"/>
-        <v>475.47325146257424</v>
+        <v>475.56002321752101</v>
       </c>
       <c r="D20" s="38">
         <f ca="1"/>
-        <v>6.7970757206182952E-2</v>
+        <v>0.32682614977255753</v>
       </c>
       <c r="E20">
         <f ca="1"/>
-        <v>6.7970757206182952E-2</v>
+        <v>0.32682614977255753</v>
       </c>
       <c r="G20" s="38">
         <f ca="1"/>
-        <v>9.1932697831296518E-6</v>
+        <v>1.947247309982677E-5</v>
       </c>
       <c r="H20" s="38">
         <f ca="1"/>
-        <v>6.5191382038938016E-6</v>
+        <v>1.3808334390700299E-5</v>
       </c>
       <c r="I20" s="38">
         <f ca="1"/>
-        <v>-3.8331540987542829E-7</v>
+        <v>-8.1190905778111053E-7</v>
       </c>
       <c r="J20" s="38">
         <f ca="1"/>
-        <v>1.4037288622976007E-6</v>
+        <v>2.9732699197733282E-6</v>
       </c>
       <c r="K20" s="31">
         <f ca="1"/>
-        <v>9.1932697831296518E-6</v>
+        <v>1.947247309982677E-5</v>
       </c>
       <c r="L20" s="31">
         <f ca="1"/>
-        <v>6.5191382038938016E-6</v>
+        <v>1.3808334390700299E-5</v>
       </c>
       <c r="M20" s="31">
         <f ca="1"/>
-        <v>-3.8331540987542829E-7</v>
+        <v>-8.1190905778111053E-7</v>
       </c>
       <c r="N20" s="31">
         <f ca="1"/>
-        <v>1.4037288622976007E-6</v>
+        <v>2.9732699197733282E-6</v>
       </c>
       <c r="P20" s="39">
         <f ca="1"/>
-        <v>2.5532603086825677E-3</v>
+        <v>3.7159567261608817E-3</v>
       </c>
       <c r="Q20" s="46">
         <f ca="1"/>
-        <v>2.5532603086825677E-3</v>
+        <v>3.7159567261608817E-3</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="38">
         <f ca="1"/>
-        <v>685.41954583381312</v>
+        <v>685.57944377037734</v>
       </c>
       <c r="B21">
         <f ca="1"/>
-        <v>685.41954583381312</v>
+        <v>685.57944377037734</v>
       </c>
       <c r="D21" s="38">
         <f ca="1"/>
-        <v>0.13249336491617214</v>
+        <v>-0.50691451799036713</v>
       </c>
       <c r="E21">
         <f ca="1"/>
-        <v>0.13249336491617214</v>
+        <v>-0.50691451799036713</v>
       </c>
       <c r="G21" s="38">
         <f ca="1"/>
-        <v>-3.9702106376583845E-5</v>
+        <v>-8.4093931393505245E-5</v>
       </c>
       <c r="H21" s="38">
         <f ca="1"/>
-        <v>-3.8331540987542829E-7</v>
+        <v>-8.1190905778111053E-7</v>
       </c>
       <c r="I21" s="38">
         <f ca="1"/>
-        <v>7.779472532153115E-8</v>
+        <v>1.6477877097785195E-7</v>
       </c>
       <c r="J21" s="38">
         <f ca="1"/>
-        <v>-1.0693861216646563E-8</v>
+        <v>-2.26509098271607E-8</v>
       </c>
       <c r="K21" s="31">
         <f ca="1"/>
-        <v>-3.9702106376583845E-5</v>
+        <v>-8.4093931393505245E-5</v>
       </c>
       <c r="L21" s="31">
         <f ca="1"/>
-        <v>-3.8331540987542829E-7</v>
+        <v>-8.1190905778111053E-7</v>
       </c>
       <c r="M21" s="31">
         <f ca="1"/>
-        <v>7.779472532153115E-8</v>
+        <v>1.6477877097785195E-7</v>
       </c>
       <c r="N21" s="31">
         <f ca="1"/>
-        <v>-1.0693861216646563E-8</v>
+        <v>-2.26509098271607E-8</v>
       </c>
       <c r="P21" s="39">
         <f ca="1"/>
-        <v>2.7891705814010579E-4</v>
+        <v>4.059295147902551E-4</v>
       </c>
       <c r="Q21" s="46">
         <f ca="1"/>
-        <v>2.7891705814010579E-4</v>
+        <v>4.059295147902551E-4</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f ca="1"/>
-        <v>1090.4953685978162</v>
+        <v>1090.3184612939972</v>
       </c>
       <c r="B22">
         <f ca="1"/>
-        <v>1090.4953685978162</v>
+        <v>1090.3184612939972</v>
       </c>
       <c r="D22" s="38">
         <f ca="1"/>
-        <v>-0.10025628954508647</v>
+        <v>-0.31842072340486993</v>
       </c>
       <c r="E22">
         <f ca="1"/>
-        <v>-0.10025628954508647</v>
+        <v>-0.31842072340486993</v>
       </c>
       <c r="G22" s="38">
         <f ca="1"/>
-        <v>-3.0987495444434671E-4</v>
+        <v>-6.5635316455092978E-4</v>
       </c>
       <c r="H22" s="38">
         <f ca="1"/>
-        <v>1.4037288622976E-6</v>
+        <v>2.9732699197733269E-6</v>
       </c>
       <c r="I22" s="38">
         <f ca="1"/>
-        <v>-1.0693861216646428E-8</v>
+        <v>-2.2650909827160412E-8</v>
       </c>
       <c r="J22" s="38">
         <f ca="1"/>
-        <v>6.1728776578879772E-6</v>
+        <v>1.3074912079956973E-5</v>
       </c>
       <c r="K22" s="31">
         <f ca="1"/>
-        <v>-3.0987495444434671E-4</v>
+        <v>-6.5635316455092978E-4</v>
       </c>
       <c r="L22" s="31">
         <f ca="1"/>
-        <v>1.4037288622976E-6</v>
+        <v>2.9732699197733269E-6</v>
       </c>
       <c r="M22" s="31">
         <f ca="1"/>
-        <v>-1.0693861216646428E-8</v>
+        <v>-2.2650909827160412E-8</v>
       </c>
       <c r="N22" s="31">
         <f ca="1"/>
-        <v>6.1728776578879772E-6</v>
+        <v>1.3074912079956973E-5</v>
       </c>
       <c r="P22" s="39">
         <f ca="1"/>
-        <v>2.4845276528724686E-3</v>
+        <v>3.6159247890348843E-3</v>
       </c>
       <c r="Q22" s="46">
         <f ca="1"/>
-        <v>2.4845276528724686E-3</v>
+        <v>3.6159247890348843E-3</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <f ca="1"/>
-        <v>1312.4022826460189</v>
+        <v>1312.3510002989219</v>
       </c>
       <c r="B23">
         <f ca="1"/>
-        <v>1312.4022826460189</v>
+        <v>1312.3510002989219</v>
       </c>
       <c r="D23" s="38">
         <f ca="1"/>
-        <v>0.41846789844566956</v>
+        <v>-0.14934890176618865</v>
       </c>
       <c r="E23">
         <f ca="1"/>
-        <v>0.41846789844566956</v>
+        <v>-0.14934890176618865</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="38">
         <f ca="1"/>
-        <v>1519.3884010061506</v>
+        <v>1519.3479109319292</v>
       </c>
       <c r="B24">
         <f ca="1"/>
-        <v>1519.3884010061506</v>
+        <v>1519.3479109319292</v>
       </c>
       <c r="D24" s="38">
         <f ca="1"/>
-        <v>-0.29860499210394664</v>
+        <v>0.30735158774132287</v>
       </c>
       <c r="E24">
         <f ca="1"/>
-        <v>-0.29860499210394664</v>
+        <v>0.30735158774132287</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="38">
         <f ca="1"/>
-        <v>1646.3594723704693</v>
+        <v>1646.4354236144038</v>
       </c>
       <c r="B25">
         <f ca="1"/>
-        <v>1646.3594723704693</v>
+        <v>1646.4354236144038</v>
       </c>
       <c r="D25" s="38">
         <f ca="1"/>
-        <v>-0.11481376459255443</v>
+        <v>-3.7085067875977984E-2</v>
       </c>
       <c r="E25">
         <f ca="1"/>
-        <v>-0.11481376459255443</v>
+        <v>-3.7085067875977984E-2</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="38">
         <f ca="1"/>
-        <v>1768.3525038523742</v>
+        <v>1768.5139091072513</v>
       </c>
       <c r="B26">
         <f ca="1"/>
-        <v>1768.3525038523742</v>
+        <v>1768.5139091072513</v>
       </c>
       <c r="D26" s="38">
         <f ca="1"/>
-        <v>-0.10643022886665676</v>
+        <v>0.36297059766820894</v>
       </c>
       <c r="E26">
         <f ca="1"/>
-        <v>-0.10643022886665676</v>
+        <v>0.36297059766820894</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="38">
         <f ca="1"/>
-        <v>1900.3349249970336</v>
+        <v>1900.589081971762</v>
       </c>
       <c r="B27">
         <f ca="1"/>
-        <v>1900.3349249970336</v>
+        <v>1900.589081971762</v>
       </c>
       <c r="D27" s="38">
         <f ca="1"/>
-        <v>8.6346958090643966E-2</v>
+        <v>0.31661448692034355</v>
       </c>
       <c r="E27">
         <f ca="1"/>
-        <v>8.6346958090643966E-2</v>
+        <v>0.31661448692034355</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="38">
         <f ca="1"/>
-        <v>2200.5254872919099</v>
+        <v>2200.3607453921586</v>
       </c>
       <c r="B28">
         <f ca="1"/>
-        <v>2200.5254872919099</v>
+        <v>2200.3607453921586</v>
       </c>
       <c r="D28" s="38">
         <f ca="1"/>
-        <v>0.39112790551780563</v>
+        <v>-0.35279423803012833</v>
       </c>
       <c r="E28">
         <f ca="1"/>
-        <v>0.39112790551780563</v>
+        <v>-0.35279423803012833</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="38">
         <f ca="1"/>
-        <v>2251.3040560562995</v>
+        <v>2251.6486435122392</v>
       </c>
       <c r="B29">
         <f ca="1"/>
-        <v>2251.3040560562995</v>
+        <v>2251.6486435122392</v>
       </c>
       <c r="D29" s="38">
         <f ca="1"/>
-        <v>4.1074789014601265E-2</v>
+        <v>-0.47565714503480194</v>
       </c>
       <c r="E29">
         <f ca="1"/>
-        <v>4.1074789014601265E-2</v>
+        <v>-0.47565714503480194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <f ca="1"/>
-        <v>2584.5362170034964</v>
+        <v>2584.3602311416653</v>
       </c>
       <c r="B30">
         <f ca="1"/>
-        <v>2584.5362170034964</v>
+        <v>2584.3602311416653</v>
       </c>
       <c r="D30" s="38">
         <f ca="1"/>
-        <v>-0.3091650696810575</v>
+        <v>0.34394751324043682</v>
       </c>
       <c r="E30">
         <f ca="1"/>
-        <v>-0.3091650696810575</v>
+        <v>0.34394751324043682</v>
       </c>
     </row>
   </sheetData>
@@ -14499,7 +14559,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K2" s="15"/>
       <c r="L2" s="15"/>
@@ -14527,15 +14587,15 @@
         <v>171</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
@@ -14546,10 +14606,10 @@
         <v>171</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I7" s="14" t="s">
         <v>169</v>
@@ -14557,7 +14617,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F8" s="54">
         <v>37257</v>
@@ -14574,12 +14634,12 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" s="48">
         <v>37288</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="57">
         <f>LN(H9/H8)*100</f>
         <v>-3.8005981625192522</v>
       </c>
@@ -14589,12 +14649,12 @@
       <c r="I9" s="49">
         <v>80.2</v>
       </c>
-      <c r="K9" s="63" cm="1">
+      <c r="K9" s="58" cm="1">
         <f t="array" ref="K9:K247">_xlfn.LAMBDA(_xlpm.dates,_xlpm.values, _xlfn.LET(_xlpm.dummies, DUMMYVAR( MONTH(_xlpm.dates), FALSE),  AVERAGE(_xlpm.values) + OLS_RESIDUALS(_xlpm.values, _xlpm.dummies  ) ) )($F$9:$F$247,$G$9:$G$247)</f>
         <v>-0.71753883388702944</v>
       </c>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63" cm="1">
+      <c r="L9" s="58"/>
+      <c r="M9" s="58" cm="1">
         <f t="array" ref="M9:M247">SEASADJ($F$9:$F$247,$G$9:$G$247)</f>
         <v>-0.71753883388702944</v>
       </c>
@@ -14606,7 +14666,7 @@
       <c r="F10" s="48">
         <v>37316</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="57">
         <f t="shared" ref="G10:G73" si="0">LN(H10/H9)*100</f>
         <v>10.478646282920332</v>
       </c>
@@ -14616,20 +14676,20 @@
       <c r="I10" s="49">
         <v>79.8</v>
       </c>
-      <c r="K10" s="63">
+      <c r="K10" s="58">
         <v>0.22460287827182232</v>
       </c>
-      <c r="L10" s="63"/>
-      <c r="M10" s="63">
+      <c r="L10" s="58"/>
+      <c r="M10" s="58">
         <v>0.22460287827182232</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="57"/>
+      <c r="D11" s="61"/>
       <c r="F11" s="48">
         <v>37347</v>
       </c>
-      <c r="G11" s="62">
+      <c r="G11" s="57">
         <f t="shared" si="0"/>
         <v>2.8027312254655659</v>
       </c>
@@ -14639,20 +14699,20 @@
       <c r="I11" s="49">
         <v>79.599999999999994</v>
       </c>
-      <c r="K11" s="63">
+      <c r="K11" s="58">
         <v>6.8688421574020353</v>
       </c>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63">
+      <c r="L11" s="58"/>
+      <c r="M11" s="58">
         <v>6.8688421574020353</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D12" s="57"/>
+      <c r="D12" s="61"/>
       <c r="F12" s="48">
         <v>37377</v>
       </c>
-      <c r="G12" s="62">
+      <c r="G12" s="57">
         <f t="shared" si="0"/>
         <v>1.0000083334583398</v>
       </c>
@@ -14662,11 +14722,11 @@
       <c r="I12" s="49">
         <v>79.099999999999994</v>
       </c>
-      <c r="K12" s="63">
+      <c r="K12" s="58">
         <v>-5.5188277653232447</v>
       </c>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63">
+      <c r="L12" s="58"/>
+      <c r="M12" s="58">
         <v>-5.5188277653232447</v>
       </c>
     </row>
@@ -14675,7 +14735,7 @@
       <c r="F13" s="48">
         <v>37408</v>
       </c>
-      <c r="G13" s="62">
+      <c r="G13" s="57">
         <f t="shared" si="0"/>
         <v>-3.6736239825619466</v>
       </c>
@@ -14685,11 +14745,11 @@
       <c r="I13" s="49">
         <v>79.400000000000006</v>
       </c>
-      <c r="K13" s="63">
+      <c r="K13" s="58">
         <v>-2.4312302589565311</v>
       </c>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63">
+      <c r="L13" s="58"/>
+      <c r="M13" s="58">
         <v>-2.4312302589565311</v>
       </c>
     </row>
@@ -14697,7 +14757,7 @@
       <c r="F14" s="48">
         <v>37438</v>
       </c>
-      <c r="G14" s="62">
+      <c r="G14" s="57">
         <f t="shared" si="0"/>
         <v>7.2170612813495589</v>
       </c>
@@ -14707,11 +14767,11 @@
       <c r="I14" s="49">
         <v>79.7</v>
       </c>
-      <c r="K14" s="63">
+      <c r="K14" s="58">
         <v>1.9869393011204659</v>
       </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63">
+      <c r="L14" s="58"/>
+      <c r="M14" s="58">
         <v>1.9869393011204659</v>
       </c>
     </row>
@@ -14719,7 +14779,7 @@
       <c r="F15" s="48">
         <v>37469</v>
       </c>
-      <c r="G15" s="62">
+      <c r="G15" s="57">
         <f t="shared" si="0"/>
         <v>0.3594970917858793</v>
       </c>
@@ -14729,11 +14789,11 @@
       <c r="I15" s="49">
         <v>78.599999999999994</v>
       </c>
-      <c r="K15" s="63">
+      <c r="K15" s="58">
         <v>-2.4443016238566138</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63">
+      <c r="L15" s="58"/>
+      <c r="M15" s="58">
         <v>-2.4443016238566138</v>
       </c>
     </row>
@@ -14741,7 +14801,7 @@
       <c r="F16" s="48">
         <v>37500</v>
       </c>
-      <c r="G16" s="62">
+      <c r="G16" s="57">
         <f t="shared" si="0"/>
         <v>-1.8105503632273354</v>
       </c>
@@ -14751,11 +14811,11 @@
       <c r="I16" s="49">
         <v>79.7</v>
       </c>
-      <c r="K16" s="63">
+      <c r="K16" s="58">
         <v>1.0146606755559135</v>
       </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63">
+      <c r="L16" s="58"/>
+      <c r="M16" s="58">
         <v>1.0146606755559135</v>
       </c>
     </row>
@@ -14763,7 +14823,7 @@
       <c r="F17" s="48">
         <v>37530</v>
       </c>
-      <c r="G17" s="62">
+      <c r="G17" s="57">
         <f t="shared" si="0"/>
         <v>8.2943023127581306</v>
       </c>
@@ -14773,11 +14833,11 @@
       <c r="I17" s="49">
         <v>80.2</v>
       </c>
-      <c r="K17" s="63">
+      <c r="K17" s="58">
         <v>4.7225693217673861</v>
       </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63">
+      <c r="L17" s="58"/>
+      <c r="M17" s="58">
         <v>4.7225693217673861</v>
       </c>
     </row>
@@ -14785,7 +14845,7 @@
       <c r="F18" s="48">
         <v>37561</v>
       </c>
-      <c r="G18" s="62">
+      <c r="G18" s="57">
         <f t="shared" si="0"/>
         <v>-6.1255426112803208</v>
       </c>
@@ -14795,11 +14855,11 @@
       <c r="I18" s="49">
         <v>80.2</v>
       </c>
-      <c r="K18" s="63">
+      <c r="K18" s="58">
         <v>-0.58337465728584181</v>
       </c>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63">
+      <c r="L18" s="58"/>
+      <c r="M18" s="58">
         <v>-0.58337465728584181</v>
       </c>
     </row>
@@ -14807,7 +14867,7 @@
       <c r="F19" s="48">
         <v>37591</v>
       </c>
-      <c r="G19" s="62">
+      <c r="G19" s="57">
         <f t="shared" si="0"/>
         <v>-11.748510626344547</v>
       </c>
@@ -14817,11 +14877,11 @@
       <c r="I19" s="49">
         <v>79.599999999999994</v>
       </c>
-      <c r="K19" s="63">
+      <c r="K19" s="58">
         <v>-0.66122229185945081</v>
       </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63">
+      <c r="L19" s="58"/>
+      <c r="M19" s="58">
         <v>-0.66122229185945081</v>
       </c>
     </row>
@@ -14829,7 +14889,7 @@
       <c r="F20" s="48">
         <v>37622</v>
       </c>
-      <c r="G20" s="62">
+      <c r="G20" s="57">
         <f t="shared" si="0"/>
         <v>-0.80754140055453072</v>
       </c>
@@ -14839,11 +14899,11 @@
       <c r="I20" s="49">
         <v>79.7</v>
       </c>
-      <c r="K20" s="63">
+      <c r="K20" s="58">
         <v>-0.24722363333822142</v>
       </c>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63">
+      <c r="L20" s="58"/>
+      <c r="M20" s="58">
         <v>-0.24722363333822142</v>
       </c>
     </row>
@@ -14851,7 +14911,7 @@
       <c r="F21" s="48">
         <v>37653</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="57">
         <f t="shared" si="0"/>
         <v>-3.0180617149991287</v>
       </c>
@@ -14861,11 +14921,11 @@
       <c r="I21" s="49">
         <v>79.7</v>
       </c>
-      <c r="K21" s="63">
+      <c r="K21" s="58">
         <v>6.4997613633094059E-2</v>
       </c>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63">
+      <c r="L21" s="58"/>
+      <c r="M21" s="58">
         <v>6.4997613633094059E-2</v>
       </c>
     </row>
@@ -14873,7 +14933,7 @@
       <c r="F22" s="48">
         <v>37681</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="57">
         <f t="shared" si="0"/>
         <v>7.5102304541503075</v>
       </c>
@@ -14883,11 +14943,11 @@
       <c r="I22" s="49">
         <v>79.8</v>
       </c>
-      <c r="K22" s="63">
+      <c r="K22" s="58">
         <v>-2.7438129504982021</v>
       </c>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63">
+      <c r="L22" s="58"/>
+      <c r="M22" s="58">
         <v>-2.7438129504982021</v>
       </c>
     </row>
@@ -14895,7 +14955,7 @@
       <c r="F23" s="48">
         <v>37712</v>
       </c>
-      <c r="G23" s="62">
+      <c r="G23" s="57">
         <f t="shared" si="0"/>
         <v>-1.1696039763191299</v>
       </c>
@@ -14905,11 +14965,11 @@
       <c r="I23" s="49">
         <v>79.400000000000006</v>
       </c>
-      <c r="K23" s="63">
+      <c r="K23" s="58">
         <v>2.8965069556173395</v>
       </c>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63">
+      <c r="L23" s="58"/>
+      <c r="M23" s="58">
         <v>2.8965069556173395</v>
       </c>
     </row>
@@ -14917,7 +14977,7 @@
       <c r="F24" s="48">
         <v>37742</v>
       </c>
-      <c r="G24" s="62">
+      <c r="G24" s="57">
         <f t="shared" si="0"/>
         <v>4.0978844963679268</v>
       </c>
@@ -14927,11 +14987,11 @@
       <c r="I24" s="49">
         <v>77.8</v>
       </c>
-      <c r="K24" s="63">
+      <c r="K24" s="58">
         <v>-2.4209516024136573</v>
       </c>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63">
+      <c r="L24" s="58"/>
+      <c r="M24" s="58">
         <v>-2.4209516024136573</v>
       </c>
     </row>
@@ -14939,7 +14999,7 @@
       <c r="F25" s="48">
         <v>37773</v>
       </c>
-      <c r="G25" s="62">
+      <c r="G25" s="57">
         <f t="shared" si="0"/>
         <v>-4.3596647505758162</v>
       </c>
@@ -14949,11 +15009,11 @@
       <c r="I25" s="49">
         <v>78.2</v>
       </c>
-      <c r="K25" s="63">
+      <c r="K25" s="58">
         <v>-3.1172710269704007</v>
       </c>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63">
+      <c r="L25" s="58"/>
+      <c r="M25" s="58">
         <v>-3.1172710269704007</v>
       </c>
     </row>
@@ -14961,7 +15021,7 @@
       <c r="F26" s="48">
         <v>37803</v>
       </c>
-      <c r="G26" s="62">
+      <c r="G26" s="57">
         <f t="shared" si="0"/>
         <v>6.3473078263353662</v>
       </c>
@@ -14971,11 +15031,11 @@
       <c r="I26" s="49">
         <v>77.400000000000006</v>
       </c>
-      <c r="K26" s="63">
+      <c r="K26" s="58">
         <v>1.1171858461062731</v>
       </c>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63">
+      <c r="L26" s="58"/>
+      <c r="M26" s="58">
         <v>1.1171858461062731</v>
       </c>
     </row>
@@ -14983,7 +15043,7 @@
       <c r="F27" s="48">
         <v>37834</v>
       </c>
-      <c r="G27" s="62">
+      <c r="G27" s="57">
         <f t="shared" si="0"/>
         <v>0.36832454162963679</v>
       </c>
@@ -14993,11 +15053,11 @@
       <c r="I27" s="49">
         <v>78.5</v>
       </c>
-      <c r="K27" s="63">
+      <c r="K27" s="58">
         <v>-2.4354741740128558</v>
       </c>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63">
+      <c r="L27" s="58"/>
+      <c r="M27" s="58">
         <v>-2.4354741740128558</v>
       </c>
     </row>
@@ -15005,7 +15065,7 @@
       <c r="F28" s="48">
         <v>37865</v>
       </c>
-      <c r="G28" s="62">
+      <c r="G28" s="57">
         <f t="shared" si="0"/>
         <v>4.9023563633672822</v>
       </c>
@@ -15015,11 +15075,11 @@
       <c r="I28" s="49">
         <v>81.3</v>
       </c>
-      <c r="K28" s="63">
+      <c r="K28" s="58">
         <v>7.7275674021505312</v>
       </c>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63">
+      <c r="L28" s="58"/>
+      <c r="M28" s="58">
         <v>7.7275674021505312</v>
       </c>
     </row>
@@ -15027,7 +15087,7 @@
       <c r="F29" s="48">
         <v>37895</v>
       </c>
-      <c r="G29" s="62">
+      <c r="G29" s="57">
         <f t="shared" si="0"/>
         <v>4.8956844726530981</v>
       </c>
@@ -15037,11 +15097,11 @@
       <c r="I29" s="49">
         <v>81.599999999999994</v>
       </c>
-      <c r="K29" s="63">
+      <c r="K29" s="58">
         <v>1.3239514816623537</v>
       </c>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63">
+      <c r="L29" s="58"/>
+      <c r="M29" s="58">
         <v>1.3239514816623537</v>
       </c>
     </row>
@@ -15049,7 +15109,7 @@
       <c r="F30" s="48">
         <v>37926</v>
       </c>
-      <c r="G30" s="62">
+      <c r="G30" s="57">
         <f t="shared" si="0"/>
         <v>-6.1875403718087529</v>
       </c>
@@ -15059,11 +15119,11 @@
       <c r="I30" s="49">
         <v>82.6</v>
       </c>
-      <c r="K30" s="63">
+      <c r="K30" s="58">
         <v>-0.6453724178142739</v>
       </c>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63">
+      <c r="L30" s="58"/>
+      <c r="M30" s="58">
         <v>-0.6453724178142739</v>
       </c>
     </row>
@@ -15071,7 +15131,7 @@
       <c r="F31" s="48">
         <v>37956</v>
       </c>
-      <c r="G31" s="62">
+      <c r="G31" s="57">
         <f t="shared" si="0"/>
         <v>-8.2508313735474825</v>
       </c>
@@ -15081,11 +15141,11 @@
       <c r="I31" s="49">
         <v>81.2</v>
       </c>
-      <c r="K31" s="63">
+      <c r="K31" s="58">
         <v>2.836456960937614</v>
       </c>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63">
+      <c r="L31" s="58"/>
+      <c r="M31" s="58">
         <v>2.836456960937614</v>
       </c>
     </row>
@@ -15093,7 +15153,7 @@
       <c r="F32" s="48">
         <v>37987</v>
       </c>
-      <c r="G32" s="62">
+      <c r="G32" s="57">
         <f t="shared" si="0"/>
         <v>-1.4221312723076169</v>
       </c>
@@ -15103,11 +15163,11 @@
       <c r="I32" s="49">
         <v>82.7</v>
       </c>
-      <c r="K32" s="63">
+      <c r="K32" s="58">
         <v>-0.86181350509130761</v>
       </c>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63">
+      <c r="L32" s="58"/>
+      <c r="M32" s="58">
         <v>-0.86181350509130761</v>
       </c>
     </row>
@@ -15115,7 +15175,7 @@
       <c r="F33" s="48">
         <v>38018</v>
       </c>
-      <c r="G33" s="62">
+      <c r="G33" s="57">
         <f t="shared" si="0"/>
         <v>-3.7139546949456657</v>
       </c>
@@ -15125,11 +15185,11 @@
       <c r="I33" s="49">
         <v>84</v>
       </c>
-      <c r="K33" s="63">
+      <c r="K33" s="58">
         <v>-0.6308953663134429</v>
       </c>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63">
+      <c r="L33" s="58"/>
+      <c r="M33" s="58">
         <v>-0.6308953663134429</v>
       </c>
     </row>
@@ -15137,7 +15197,7 @@
       <c r="F34" s="48">
         <v>38047</v>
       </c>
-      <c r="G34" s="62">
+      <c r="G34" s="57">
         <f t="shared" si="0"/>
         <v>16.069293906717668</v>
       </c>
@@ -15147,11 +15207,11 @@
       <c r="I34" s="49">
         <v>84.5</v>
       </c>
-      <c r="K34" s="63">
+      <c r="K34" s="58">
         <v>5.8152505020691585</v>
       </c>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63">
+      <c r="L34" s="58"/>
+      <c r="M34" s="58">
         <v>5.8152505020691585</v>
       </c>
     </row>
@@ -15159,7 +15219,7 @@
       <c r="F35" s="48">
         <v>38078</v>
       </c>
-      <c r="G35" s="62">
+      <c r="G35" s="57">
         <f t="shared" si="0"/>
         <v>-5.5602730209212119</v>
       </c>
@@ -15169,11 +15229,11 @@
       <c r="I35" s="49">
         <v>85.1</v>
       </c>
-      <c r="K35" s="63">
+      <c r="K35" s="58">
         <v>-1.4941620889847425</v>
       </c>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63">
+      <c r="L35" s="58"/>
+      <c r="M35" s="58">
         <v>-1.4941620889847425</v>
       </c>
     </row>
@@ -15181,7 +15241,7 @@
       <c r="F36" s="48">
         <v>38108</v>
       </c>
-      <c r="G36" s="62">
+      <c r="G36" s="57">
         <f t="shared" si="0"/>
         <v>4.8674296027248021</v>
       </c>
@@ -15191,11 +15251,11 @@
       <c r="I36" s="49">
         <v>85.9</v>
       </c>
-      <c r="K36" s="63">
+      <c r="K36" s="58">
         <v>-1.651406496056782</v>
       </c>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63">
+      <c r="L36" s="58"/>
+      <c r="M36" s="58">
         <v>-1.651406496056782</v>
       </c>
     </row>
@@ -15203,7 +15263,7 @@
       <c r="F37" s="48">
         <v>38139</v>
       </c>
-      <c r="G37" s="62">
+      <c r="G37" s="57">
         <f t="shared" si="0"/>
         <v>-0.23201866556971981</v>
       </c>
@@ -15213,11 +15273,11 @@
       <c r="I37" s="49">
         <v>86.1</v>
       </c>
-      <c r="K37" s="63">
+      <c r="K37" s="58">
         <v>1.0103750580356954</v>
       </c>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63">
+      <c r="L37" s="58"/>
+      <c r="M37" s="58">
         <v>1.0103750580356954</v>
       </c>
     </row>
@@ -15225,7 +15285,7 @@
       <c r="F38" s="48">
         <v>38169</v>
       </c>
-      <c r="G38" s="62">
+      <c r="G38" s="57">
         <f t="shared" si="0"/>
         <v>4.5410753180607175</v>
       </c>
@@ -15235,11 +15295,11 @@
       <c r="I38" s="49">
         <v>86.7</v>
       </c>
-      <c r="K38" s="63">
+      <c r="K38" s="58">
         <v>-0.68904666216837551</v>
       </c>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63">
+      <c r="L38" s="58"/>
+      <c r="M38" s="58">
         <v>-0.68904666216837551</v>
       </c>
     </row>
@@ -15247,7 +15307,7 @@
       <c r="F39" s="48">
         <v>38200</v>
       </c>
-      <c r="G39" s="62">
+      <c r="G39" s="57">
         <f t="shared" si="0"/>
         <v>2.1954778646968967</v>
       </c>
@@ -15257,11 +15317,11 @@
       <c r="I39" s="49">
         <v>87.6</v>
       </c>
-      <c r="K39" s="63">
+      <c r="K39" s="58">
         <v>-0.60832085094559618</v>
       </c>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63">
+      <c r="L39" s="58"/>
+      <c r="M39" s="58">
         <v>-0.60832085094559618</v>
       </c>
     </row>
@@ -15269,7 +15329,7 @@
       <c r="F40" s="48">
         <v>38231</v>
       </c>
-      <c r="G40" s="62">
+      <c r="G40" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15279,11 +15339,11 @@
       <c r="I40" s="49">
         <v>88.2</v>
       </c>
-      <c r="K40" s="63">
+      <c r="K40" s="58">
         <v>2.825211038783249</v>
       </c>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63">
+      <c r="L40" s="58"/>
+      <c r="M40" s="58">
         <v>2.825211038783249</v>
       </c>
     </row>
@@ -15291,7 +15351,7 @@
       <c r="F41" s="48">
         <v>38261</v>
       </c>
-      <c r="G41" s="62">
+      <c r="G41" s="57">
         <f t="shared" si="0"/>
         <v>1.5086493033380162</v>
       </c>
@@ -15301,11 +15361,11 @@
       <c r="I41" s="49">
         <v>87.5</v>
       </c>
-      <c r="K41" s="63">
+      <c r="K41" s="58">
         <v>-2.0630836876527283</v>
       </c>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63">
+      <c r="L41" s="58"/>
+      <c r="M41" s="58">
         <v>-2.0630836876527283</v>
       </c>
     </row>
@@ -15313,7 +15373,7 @@
       <c r="F42" s="48">
         <v>38292</v>
       </c>
-      <c r="G42" s="62">
+      <c r="G42" s="57">
         <f t="shared" si="0"/>
         <v>-1.8349138668196541</v>
       </c>
@@ -15323,11 +15383,11 @@
       <c r="I42" s="49">
         <v>87.5</v>
       </c>
-      <c r="K42" s="63">
+      <c r="K42" s="58">
         <v>3.707254087174825</v>
       </c>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63">
+      <c r="L42" s="58"/>
+      <c r="M42" s="58">
         <v>3.707254087174825</v>
       </c>
     </row>
@@ -15335,7 +15395,7 @@
       <c r="F43" s="48">
         <v>38322</v>
       </c>
-      <c r="G43" s="62">
+      <c r="G43" s="57">
         <f t="shared" si="0"/>
         <v>-8.0496695968436054</v>
       </c>
@@ -15345,11 +15405,11 @@
       <c r="I43" s="49">
         <v>88.3</v>
       </c>
-      <c r="K43" s="63">
+      <c r="K43" s="58">
         <v>3.0376187376414912</v>
       </c>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63">
+      <c r="L43" s="58"/>
+      <c r="M43" s="58">
         <v>3.0376187376414912</v>
       </c>
     </row>
@@ -15357,7 +15417,7 @@
       <c r="F44" s="48">
         <v>38353</v>
       </c>
-      <c r="G44" s="62">
+      <c r="G44" s="57">
         <f t="shared" si="0"/>
         <v>-4.4666446985569994</v>
       </c>
@@ -15367,11 +15427,11 @@
       <c r="I44" s="49">
         <v>88.7</v>
       </c>
-      <c r="K44" s="63">
+      <c r="K44" s="58">
         <v>-3.9063269313406899</v>
       </c>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63">
+      <c r="L44" s="58"/>
+      <c r="M44" s="58">
         <v>-3.9063269313406899</v>
       </c>
     </row>
@@ -15379,7 +15439,7 @@
       <c r="F45" s="48">
         <v>38384</v>
       </c>
-      <c r="G45" s="62">
+      <c r="G45" s="57">
         <f t="shared" si="0"/>
         <v>-5.8466458499963849</v>
       </c>
@@ -15389,11 +15449,11 @@
       <c r="I45" s="49">
         <v>87.3</v>
       </c>
-      <c r="K45" s="63">
+      <c r="K45" s="58">
         <v>-2.7635865213641622</v>
       </c>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63">
+      <c r="L45" s="58"/>
+      <c r="M45" s="58">
         <v>-2.7635865213641622</v>
       </c>
     </row>
@@ -15401,7 +15461,7 @@
       <c r="F46" s="48">
         <v>38412</v>
       </c>
-      <c r="G46" s="62">
+      <c r="G46" s="57">
         <f t="shared" si="0"/>
         <v>14.135411830573155</v>
       </c>
@@ -15411,11 +15471,11 @@
       <c r="I46" s="49">
         <v>88.2</v>
       </c>
-      <c r="K46" s="63">
+      <c r="K46" s="58">
         <v>3.881368425924645</v>
       </c>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63">
+      <c r="L46" s="58"/>
+      <c r="M46" s="58">
         <v>3.881368425924645</v>
       </c>
     </row>
@@ -15423,7 +15483,7 @@
       <c r="F47" s="48">
         <v>38443</v>
       </c>
-      <c r="G47" s="62">
+      <c r="G47" s="57">
         <f t="shared" si="0"/>
         <v>-1.1428695823622743</v>
       </c>
@@ -15433,11 +15493,11 @@
       <c r="I47" s="49">
         <v>88.3</v>
       </c>
-      <c r="K47" s="63">
+      <c r="K47" s="58">
         <v>2.9232413495741953</v>
       </c>
-      <c r="L47" s="63"/>
-      <c r="M47" s="63">
+      <c r="L47" s="58"/>
+      <c r="M47" s="58">
         <v>2.9232413495741953</v>
       </c>
     </row>
@@ -15445,7 +15505,7 @@
       <c r="F48" s="48">
         <v>38473</v>
       </c>
-      <c r="G48" s="62">
+      <c r="G48" s="57">
         <f t="shared" si="0"/>
         <v>4.6049685611328837</v>
       </c>
@@ -15455,11 +15515,11 @@
       <c r="I48" s="49">
         <v>91.3</v>
       </c>
-      <c r="K48" s="63">
+      <c r="K48" s="58">
         <v>-1.9138675376487004</v>
       </c>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63">
+      <c r="L48" s="58"/>
+      <c r="M48" s="58">
         <v>-1.9138675376487004</v>
       </c>
     </row>
@@ -15467,7 +15527,7 @@
       <c r="F49" s="48">
         <v>38504</v>
       </c>
-      <c r="G49" s="62">
+      <c r="G49" s="57">
         <f t="shared" si="0"/>
         <v>0.32876741941917081</v>
       </c>
@@ -15477,11 +15537,11 @@
       <c r="I49" s="49">
         <v>89.5</v>
       </c>
-      <c r="K49" s="63">
+      <c r="K49" s="58">
         <v>1.571161143024586</v>
       </c>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63">
+      <c r="L49" s="58"/>
+      <c r="M49" s="58">
         <v>1.571161143024586</v>
       </c>
     </row>
@@ -15489,7 +15549,7 @@
       <c r="F50" s="48">
         <v>38534</v>
       </c>
-      <c r="G50" s="62">
+      <c r="G50" s="57">
         <f t="shared" si="0"/>
         <v>-0.98956277542239612</v>
       </c>
@@ -15499,11 +15559,11 @@
       <c r="I50" s="49">
         <v>88.9</v>
       </c>
-      <c r="K50" s="63">
+      <c r="K50" s="58">
         <v>-6.2196847556514889</v>
       </c>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63">
+      <c r="L50" s="58"/>
+      <c r="M50" s="58">
         <v>-6.2196847556514889</v>
       </c>
     </row>
@@ -15511,7 +15571,7 @@
       <c r="F51" s="48">
         <v>38565</v>
       </c>
-      <c r="G51" s="62">
+      <c r="G51" s="57">
         <f t="shared" si="0"/>
         <v>5.482296935147505</v>
       </c>
@@ -15521,11 +15581,11 @@
       <c r="I51" s="49">
         <v>89.1</v>
       </c>
-      <c r="K51" s="63">
+      <c r="K51" s="58">
         <v>2.6784982195050122</v>
       </c>
-      <c r="L51" s="63"/>
-      <c r="M51" s="63">
+      <c r="L51" s="58"/>
+      <c r="M51" s="58">
         <v>2.6784982195050122</v>
       </c>
     </row>
@@ -15533,7 +15593,7 @@
       <c r="F52" s="48">
         <v>38596</v>
       </c>
-      <c r="G52" s="62">
+      <c r="G52" s="57">
         <f t="shared" si="0"/>
         <v>-3.8384243008315222</v>
       </c>
@@ -15543,11 +15603,11 @@
       <c r="I52" s="49">
         <v>88.3</v>
       </c>
-      <c r="K52" s="63">
+      <c r="K52" s="58">
         <v>-1.0132132620482732</v>
       </c>
-      <c r="L52" s="63"/>
-      <c r="M52" s="63">
+      <c r="L52" s="58"/>
+      <c r="M52" s="58">
         <v>-1.0132132620482732</v>
       </c>
     </row>
@@ -15555,7 +15615,7 @@
       <c r="F53" s="48">
         <v>38626</v>
       </c>
-      <c r="G53" s="62">
+      <c r="G53" s="57">
         <f t="shared" si="0"/>
         <v>1.8309612195336253</v>
       </c>
@@ -15565,11 +15625,11 @@
       <c r="I53" s="49">
         <v>87.6</v>
       </c>
-      <c r="K53" s="63">
+      <c r="K53" s="58">
         <v>-1.7407717714571191</v>
       </c>
-      <c r="L53" s="63"/>
-      <c r="M53" s="63">
+      <c r="L53" s="58"/>
+      <c r="M53" s="58">
         <v>-1.7407717714571191</v>
       </c>
     </row>
@@ -15577,7 +15637,7 @@
       <c r="F54" s="48">
         <v>38657</v>
       </c>
-      <c r="G54" s="62">
+      <c r="G54" s="57">
         <f t="shared" si="0"/>
         <v>-1.3971210596737951</v>
       </c>
@@ -15587,11 +15647,11 @@
       <c r="I54" s="49">
         <v>88.6</v>
       </c>
-      <c r="K54" s="63">
+      <c r="K54" s="58">
         <v>4.145046894320684</v>
       </c>
-      <c r="L54" s="63"/>
-      <c r="M54" s="63">
+      <c r="L54" s="58"/>
+      <c r="M54" s="58">
         <v>4.145046894320684</v>
       </c>
     </row>
@@ -15599,7 +15659,7 @@
       <c r="F55" s="48">
         <v>38687</v>
       </c>
-      <c r="G55" s="62">
+      <c r="G55" s="57">
         <f t="shared" si="0"/>
         <v>-6.4827163079249166</v>
       </c>
@@ -15609,11 +15669,11 @@
       <c r="I55" s="49">
         <v>90.5</v>
       </c>
-      <c r="K55" s="63">
+      <c r="K55" s="58">
         <v>4.6045720265601799</v>
       </c>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63">
+      <c r="L55" s="58"/>
+      <c r="M55" s="58">
         <v>4.6045720265601799</v>
       </c>
     </row>
@@ -15621,7 +15681,7 @@
       <c r="F56" s="48">
         <v>38718</v>
       </c>
-      <c r="G56" s="62">
+      <c r="G56" s="57">
         <f t="shared" si="0"/>
         <v>-3.4060838072959752</v>
       </c>
@@ -15631,11 +15691,11 @@
       <c r="I56" s="49">
         <v>90.8</v>
       </c>
-      <c r="K56" s="63">
+      <c r="K56" s="58">
         <v>-2.845766040079666</v>
       </c>
-      <c r="L56" s="63"/>
-      <c r="M56" s="63">
+      <c r="L56" s="58"/>
+      <c r="M56" s="58">
         <v>-2.845766040079666</v>
       </c>
     </row>
@@ -15643,7 +15703,7 @@
       <c r="F57" s="48">
         <v>38749</v>
       </c>
-      <c r="G57" s="62">
+      <c r="G57" s="57">
         <f t="shared" si="0"/>
         <v>-4.2715462622960851</v>
       </c>
@@ -15653,11 +15713,11 @@
       <c r="I57" s="49">
         <v>91.4</v>
       </c>
-      <c r="K57" s="63">
+      <c r="K57" s="58">
         <v>-1.1884869336638624</v>
       </c>
-      <c r="L57" s="63"/>
-      <c r="M57" s="63">
+      <c r="L57" s="58"/>
+      <c r="M57" s="58">
         <v>-1.1884869336638624</v>
       </c>
     </row>
@@ -15665,7 +15725,7 @@
       <c r="F58" s="48">
         <v>38777</v>
       </c>
-      <c r="G58" s="62">
+      <c r="G58" s="57">
         <f t="shared" si="0"/>
         <v>14.160346377516964</v>
       </c>
@@ -15675,11 +15735,11 @@
       <c r="I58" s="49">
         <v>90.7</v>
       </c>
-      <c r="K58" s="63">
+      <c r="K58" s="58">
         <v>3.9063029728684544</v>
       </c>
-      <c r="L58" s="63"/>
-      <c r="M58" s="63">
+      <c r="L58" s="58"/>
+      <c r="M58" s="58">
         <v>3.9063029728684544</v>
       </c>
     </row>
@@ -15687,7 +15747,7 @@
       <c r="F59" s="48">
         <v>38808</v>
       </c>
-      <c r="G59" s="62">
+      <c r="G59" s="57">
         <f t="shared" si="0"/>
         <v>-7.5274153043904395</v>
       </c>
@@ -15697,11 +15757,11 @@
       <c r="I59" s="49">
         <v>91.4</v>
       </c>
-      <c r="K59" s="63">
+      <c r="K59" s="58">
         <v>-3.46130437245397</v>
       </c>
-      <c r="L59" s="63"/>
-      <c r="M59" s="63">
+      <c r="L59" s="58"/>
+      <c r="M59" s="58">
         <v>-3.46130437245397</v>
       </c>
     </row>
@@ -15709,7 +15769,7 @@
       <c r="F60" s="48">
         <v>38838</v>
       </c>
-      <c r="G60" s="62">
+      <c r="G60" s="57">
         <f t="shared" si="0"/>
         <v>10.722575285050679</v>
       </c>
@@ -15719,11 +15779,11 @@
       <c r="I60" s="49">
         <v>92.2</v>
       </c>
-      <c r="K60" s="63">
+      <c r="K60" s="58">
         <v>4.2037391862690949</v>
       </c>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63">
+      <c r="L60" s="58"/>
+      <c r="M60" s="58">
         <v>4.2037391862690949</v>
       </c>
     </row>
@@ -15731,7 +15791,7 @@
       <c r="F61" s="48">
         <v>38869</v>
       </c>
-      <c r="G61" s="62">
+      <c r="G61" s="57">
         <f t="shared" si="0"/>
         <v>-4.6120774188328273</v>
       </c>
@@ -15741,11 +15801,11 @@
       <c r="I61" s="49">
         <v>90.6</v>
       </c>
-      <c r="K61" s="63">
+      <c r="K61" s="58">
         <v>-3.3696836952274118</v>
       </c>
-      <c r="L61" s="63"/>
-      <c r="M61" s="63">
+      <c r="L61" s="58"/>
+      <c r="M61" s="58">
         <v>-3.3696836952274118</v>
       </c>
     </row>
@@ -15753,7 +15813,7 @@
       <c r="F62" s="48">
         <v>38899</v>
       </c>
-      <c r="G62" s="62">
+      <c r="G62" s="57">
         <f t="shared" si="0"/>
         <v>2.9207051746266317</v>
       </c>
@@ -15763,11 +15823,11 @@
       <c r="I62" s="49">
         <v>91.6</v>
       </c>
-      <c r="K62" s="63">
+      <c r="K62" s="58">
         <v>-2.3094168056024613</v>
       </c>
-      <c r="L62" s="63"/>
-      <c r="M62" s="63">
+      <c r="L62" s="58"/>
+      <c r="M62" s="58">
         <v>-2.3094168056024613</v>
       </c>
     </row>
@@ -15775,7 +15835,7 @@
       <c r="F63" s="48">
         <v>38930</v>
       </c>
-      <c r="G63" s="62">
+      <c r="G63" s="57">
         <f t="shared" si="0"/>
         <v>4.9906405596410703</v>
       </c>
@@ -15785,11 +15845,11 @@
       <c r="I63" s="49">
         <v>91.4</v>
       </c>
-      <c r="K63" s="63">
+      <c r="K63" s="58">
         <v>2.1868418439985775</v>
       </c>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63">
+      <c r="L63" s="58"/>
+      <c r="M63" s="58">
         <v>2.1868418439985775</v>
       </c>
     </row>
@@ -15797,7 +15857,7 @@
       <c r="F64" s="48">
         <v>38961</v>
       </c>
-      <c r="G64" s="62">
+      <c r="G64" s="57">
         <f t="shared" si="0"/>
         <v>-5.6323539917044103</v>
       </c>
@@ -15807,11 +15867,11 @@
       <c r="I64" s="49">
         <v>90.4</v>
       </c>
-      <c r="K64" s="63">
+      <c r="K64" s="58">
         <v>-2.8071429529211613</v>
       </c>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63">
+      <c r="L64" s="58"/>
+      <c r="M64" s="58">
         <v>-2.8071429529211613</v>
       </c>
     </row>
@@ -15819,7 +15879,7 @@
       <c r="F65" s="48">
         <v>38991</v>
       </c>
-      <c r="G65" s="62">
+      <c r="G65" s="57">
         <f t="shared" si="0"/>
         <v>4.5104656312255988</v>
       </c>
@@ -15829,11 +15889,11 @@
       <c r="I65" s="49">
         <v>90.8</v>
       </c>
-      <c r="K65" s="63">
+      <c r="K65" s="58">
         <v>0.93873264023485437</v>
       </c>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63">
+      <c r="L65" s="58"/>
+      <c r="M65" s="58">
         <v>0.93873264023485437</v>
       </c>
     </row>
@@ -15841,7 +15901,7 @@
       <c r="F66" s="48">
         <v>39022</v>
       </c>
-      <c r="G66" s="62">
+      <c r="G66" s="57">
         <f t="shared" si="0"/>
         <v>-1.6546396114408941</v>
       </c>
@@ -15851,11 +15911,11 @@
       <c r="I66" s="49">
         <v>92.1</v>
       </c>
-      <c r="K66" s="63">
+      <c r="K66" s="58">
         <v>3.8875283425535851</v>
       </c>
-      <c r="L66" s="63"/>
-      <c r="M66" s="63">
+      <c r="L66" s="58"/>
+      <c r="M66" s="58">
         <v>3.8875283425535851</v>
       </c>
     </row>
@@ -15863,7 +15923,7 @@
       <c r="F67" s="48">
         <v>39052</v>
       </c>
-      <c r="G67" s="62">
+      <c r="G67" s="57">
         <f t="shared" si="0"/>
         <v>-9.7397863234808941</v>
       </c>
@@ -15873,11 +15933,11 @@
       <c r="I67" s="49">
         <v>93.3</v>
       </c>
-      <c r="K67" s="63">
+      <c r="K67" s="58">
         <v>1.3475020110042024</v>
       </c>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63">
+      <c r="L67" s="58"/>
+      <c r="M67" s="58">
         <v>1.3475020110042024</v>
       </c>
     </row>
@@ -15885,7 +15945,7 @@
       <c r="F68" s="48">
         <v>39083</v>
       </c>
-      <c r="G68" s="62">
+      <c r="G68" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -15895,11 +15955,11 @@
       <c r="I68" s="49">
         <v>92.7</v>
       </c>
-      <c r="K68" s="63">
+      <c r="K68" s="58">
         <v>0.56031776721630933</v>
       </c>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63">
+      <c r="L68" s="58"/>
+      <c r="M68" s="58">
         <v>0.56031776721630933</v>
       </c>
     </row>
@@ -15907,7 +15967,7 @@
       <c r="F69" s="48">
         <v>39114</v>
       </c>
-      <c r="G69" s="62">
+      <c r="G69" s="57">
         <f t="shared" si="0"/>
         <v>-5.1898438127651367</v>
       </c>
@@ -15917,11 +15977,11 @@
       <c r="I69" s="49">
         <v>93.9</v>
       </c>
-      <c r="K69" s="63">
+      <c r="K69" s="58">
         <v>-2.106784484132914</v>
       </c>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63">
+      <c r="L69" s="58"/>
+      <c r="M69" s="58">
         <v>-2.106784484132914</v>
       </c>
     </row>
@@ -15929,7 +15989,7 @@
       <c r="F70" s="48">
         <v>39142</v>
       </c>
-      <c r="G70" s="62">
+      <c r="G70" s="57">
         <f t="shared" si="0"/>
         <v>15.449652108956771</v>
       </c>
@@ -15939,11 +15999,11 @@
       <c r="I70" s="49">
         <v>94.9</v>
       </c>
-      <c r="K70" s="63">
+      <c r="K70" s="58">
         <v>5.1956087043082615</v>
       </c>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63">
+      <c r="L70" s="58"/>
+      <c r="M70" s="58">
         <v>5.1956087043082615</v>
       </c>
     </row>
@@ -15951,7 +16011,7 @@
       <c r="F71" s="48">
         <v>39173</v>
       </c>
-      <c r="G71" s="62">
+      <c r="G71" s="57">
         <f t="shared" si="0"/>
         <v>-6.205198856756641</v>
       </c>
@@ -15961,11 +16021,11 @@
       <c r="I71" s="49">
         <v>96</v>
       </c>
-      <c r="K71" s="63">
+      <c r="K71" s="58">
         <v>-2.1390879248201715</v>
       </c>
-      <c r="L71" s="63"/>
-      <c r="M71" s="63">
+      <c r="L71" s="58"/>
+      <c r="M71" s="58">
         <v>-2.1390879248201715</v>
       </c>
     </row>
@@ -15973,7 +16033,7 @@
       <c r="F72" s="48">
         <v>39203</v>
       </c>
-      <c r="G72" s="62">
+      <c r="G72" s="57">
         <f t="shared" si="0"/>
         <v>9.7715472605574369</v>
       </c>
@@ -15983,11 +16043,11 @@
       <c r="I72" s="49">
         <v>96.3</v>
       </c>
-      <c r="K72" s="63">
+      <c r="K72" s="58">
         <v>3.2527111617758528</v>
       </c>
-      <c r="L72" s="63"/>
-      <c r="M72" s="63">
+      <c r="L72" s="58"/>
+      <c r="M72" s="58">
         <v>3.2527111617758528</v>
       </c>
     </row>
@@ -15995,7 +16055,7 @@
       <c r="F73" s="48">
         <v>39234</v>
       </c>
-      <c r="G73" s="62">
+      <c r="G73" s="57">
         <f t="shared" si="0"/>
         <v>-3.0490166757787276</v>
       </c>
@@ -16005,11 +16065,11 @@
       <c r="I73" s="49">
         <v>97</v>
       </c>
-      <c r="K73" s="63">
+      <c r="K73" s="58">
         <v>-1.8066229521733124</v>
       </c>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63">
+      <c r="L73" s="58"/>
+      <c r="M73" s="58">
         <v>-1.8066229521733124</v>
       </c>
     </row>
@@ -16017,7 +16077,7 @@
       <c r="F74" s="48">
         <v>39264</v>
       </c>
-      <c r="G74" s="62">
+      <c r="G74" s="57">
         <f t="shared" ref="G74:G137" si="1">LN(H74/H73)*100</f>
         <v>2.9488664420697721</v>
       </c>
@@ -16027,11 +16087,11 @@
       <c r="I74" s="49">
         <v>96.5</v>
       </c>
-      <c r="K74" s="63">
+      <c r="K74" s="58">
         <v>-2.2812555381593209</v>
       </c>
-      <c r="L74" s="63"/>
-      <c r="M74" s="63">
+      <c r="L74" s="58"/>
+      <c r="M74" s="58">
         <v>-2.2812555381593209</v>
       </c>
     </row>
@@ -16039,7 +16099,7 @@
       <c r="F75" s="48">
         <v>39295</v>
       </c>
-      <c r="G75" s="62">
+      <c r="G75" s="57">
         <f t="shared" si="1"/>
         <v>4.9839332084833199</v>
       </c>
@@ -16049,11 +16109,11 @@
       <c r="I75" s="49">
         <v>97.9</v>
       </c>
-      <c r="K75" s="63">
+      <c r="K75" s="58">
         <v>2.1801344928408271</v>
       </c>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63">
+      <c r="L75" s="58"/>
+      <c r="M75" s="58">
         <v>2.1801344928408271</v>
       </c>
     </row>
@@ -16061,7 +16121,7 @@
       <c r="F76" s="48">
         <v>39326</v>
       </c>
-      <c r="G76" s="62">
+      <c r="G76" s="57">
         <f t="shared" si="1"/>
         <v>-6.3966711344043752</v>
       </c>
@@ -16071,11 +16131,11 @@
       <c r="I76" s="49">
         <v>97.2</v>
       </c>
-      <c r="K76" s="63">
+      <c r="K76" s="58">
         <v>-3.5714600956211262</v>
       </c>
-      <c r="L76" s="63"/>
-      <c r="M76" s="63">
+      <c r="L76" s="58"/>
+      <c r="M76" s="58">
         <v>-3.5714600956211262</v>
       </c>
     </row>
@@ -16083,7 +16143,7 @@
       <c r="F77" s="48">
         <v>39356</v>
       </c>
-      <c r="G77" s="62">
+      <c r="G77" s="57">
         <f t="shared" si="1"/>
         <v>9.1236854416688988</v>
       </c>
@@ -16093,11 +16153,11 @@
       <c r="I77" s="49">
         <v>99.5</v>
       </c>
-      <c r="K77" s="63">
+      <c r="K77" s="58">
         <v>5.5519524506781543</v>
       </c>
-      <c r="L77" s="63"/>
-      <c r="M77" s="63">
+      <c r="L77" s="58"/>
+      <c r="M77" s="58">
         <v>5.5519524506781543</v>
       </c>
     </row>
@@ -16105,7 +16165,7 @@
       <c r="F78" s="48">
         <v>39387</v>
       </c>
-      <c r="G78" s="62">
+      <c r="G78" s="57">
         <f t="shared" si="1"/>
         <v>-5.1390945869489242</v>
       </c>
@@ -16115,11 +16175,11 @@
       <c r="I78" s="49">
         <v>98.5</v>
       </c>
-      <c r="K78" s="63">
+      <c r="K78" s="58">
         <v>0.40307336704555485</v>
       </c>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63">
+      <c r="L78" s="58"/>
+      <c r="M78" s="58">
         <v>0.40307336704555485</v>
       </c>
     </row>
@@ -16127,7 +16187,7 @@
       <c r="F79" s="48">
         <v>39417</v>
       </c>
-      <c r="G79" s="62">
+      <c r="G79" s="57">
         <f t="shared" si="1"/>
         <v>-10.059757095327383</v>
       </c>
@@ -16137,11 +16197,11 @@
       <c r="I79" s="49">
         <v>98.9</v>
       </c>
-      <c r="K79" s="63">
+      <c r="K79" s="58">
         <v>1.0275312391577138</v>
       </c>
-      <c r="L79" s="63"/>
-      <c r="M79" s="63">
+      <c r="L79" s="58"/>
+      <c r="M79" s="58">
         <v>1.0275312391577138</v>
       </c>
     </row>
@@ -16149,7 +16209,7 @@
       <c r="F80" s="48">
         <v>39448</v>
       </c>
-      <c r="G80" s="62">
+      <c r="G80" s="57">
         <f t="shared" si="1"/>
         <v>2.3480267608842449</v>
       </c>
@@ -16159,11 +16219,11 @@
       <c r="I80" s="49">
         <v>100.6</v>
       </c>
-      <c r="K80" s="63">
+      <c r="K80" s="58">
         <v>2.908344528100554</v>
       </c>
-      <c r="L80" s="63"/>
-      <c r="M80" s="63">
+      <c r="L80" s="58"/>
+      <c r="M80" s="58">
         <v>2.908344528100554</v>
       </c>
     </row>
@@ -16171,7 +16231,7 @@
       <c r="F81" s="48">
         <v>39479</v>
       </c>
-      <c r="G81" s="62">
+      <c r="G81" s="57">
         <f t="shared" si="1"/>
         <v>-3.9811604995063505</v>
       </c>
@@ -16181,11 +16241,11 @@
       <c r="I81" s="49">
         <v>100.2</v>
       </c>
-      <c r="K81" s="63">
+      <c r="K81" s="58">
         <v>-0.89810117087412777</v>
       </c>
-      <c r="L81" s="63"/>
-      <c r="M81" s="63">
+      <c r="L81" s="58"/>
+      <c r="M81" s="58">
         <v>-0.89810117087412777</v>
       </c>
     </row>
@@ -16193,7 +16253,7 @@
       <c r="F82" s="48">
         <v>39508</v>
       </c>
-      <c r="G82" s="62">
+      <c r="G82" s="57">
         <f t="shared" si="1"/>
         <v>6.9943754782824428</v>
       </c>
@@ -16203,11 +16263,11 @@
       <c r="I82" s="49">
         <v>100.5</v>
       </c>
-      <c r="K82" s="63">
+      <c r="K82" s="58">
         <v>-3.2596679263660668</v>
       </c>
-      <c r="L82" s="63"/>
-      <c r="M82" s="63">
+      <c r="L82" s="58"/>
+      <c r="M82" s="58">
         <v>-3.2596679263660668</v>
       </c>
     </row>
@@ -16215,7 +16275,7 @@
       <c r="F83" s="48">
         <v>39539</v>
       </c>
-      <c r="G83" s="62">
+      <c r="G83" s="57">
         <f t="shared" si="1"/>
         <v>1.5236455242089986</v>
       </c>
@@ -16225,11 +16285,11 @@
       <c r="I83" s="49">
         <v>100.4</v>
       </c>
-      <c r="K83" s="63">
+      <c r="K83" s="58">
         <v>5.5897564561454676</v>
       </c>
-      <c r="L83" s="63"/>
-      <c r="M83" s="63">
+      <c r="L83" s="58"/>
+      <c r="M83" s="58">
         <v>5.5897564561454676</v>
       </c>
     </row>
@@ -16237,7 +16297,7 @@
       <c r="F84" s="48">
         <v>39569</v>
       </c>
-      <c r="G84" s="62">
+      <c r="G84" s="57">
         <f t="shared" si="1"/>
         <v>3.2724784287635709</v>
       </c>
@@ -16247,11 +16307,11 @@
       <c r="I84" s="49">
         <v>101.1</v>
       </c>
-      <c r="K84" s="63">
+      <c r="K84" s="58">
         <v>-3.2463576700180132</v>
       </c>
-      <c r="L84" s="63"/>
-      <c r="M84" s="63">
+      <c r="L84" s="58"/>
+      <c r="M84" s="58">
         <v>-3.2463576700180132</v>
       </c>
     </row>
@@ -16259,7 +16319,7 @@
       <c r="F85" s="48">
         <v>39600</v>
       </c>
-      <c r="G85" s="62">
+      <c r="G85" s="57">
         <f t="shared" si="1"/>
         <v>0.77745775471300005</v>
       </c>
@@ -16269,11 +16329,11 @@
       <c r="I85" s="49">
         <v>102.9</v>
       </c>
-      <c r="K85" s="63">
+      <c r="K85" s="58">
         <v>2.0198514783184152</v>
       </c>
-      <c r="L85" s="63"/>
-      <c r="M85" s="63">
+      <c r="L85" s="58"/>
+      <c r="M85" s="58">
         <v>2.0198514783184152</v>
       </c>
     </row>
@@ -16281,7 +16341,7 @@
       <c r="F86" s="48">
         <v>39630</v>
       </c>
-      <c r="G86" s="62">
+      <c r="G86" s="57">
         <f t="shared" si="1"/>
         <v>4.9112796854921346</v>
       </c>
@@ -16291,11 +16351,11 @@
       <c r="I86" s="49">
         <v>103.2</v>
       </c>
-      <c r="K86" s="63">
+      <c r="K86" s="58">
         <v>-0.31884229473695846</v>
       </c>
-      <c r="L86" s="63"/>
-      <c r="M86" s="63">
+      <c r="L86" s="58"/>
+      <c r="M86" s="58">
         <v>-0.31884229473695846</v>
       </c>
     </row>
@@ -16303,7 +16363,7 @@
       <c r="F87" s="48">
         <v>39661</v>
       </c>
-      <c r="G87" s="62">
+      <c r="G87" s="57">
         <f t="shared" si="1"/>
         <v>-1.4856354949514659</v>
       </c>
@@ -16313,11 +16373,11 @@
       <c r="I87" s="49">
         <v>101.9</v>
       </c>
-      <c r="K87" s="63">
+      <c r="K87" s="58">
         <v>-4.2894342105939582</v>
       </c>
-      <c r="L87" s="63"/>
-      <c r="M87" s="63">
+      <c r="L87" s="58"/>
+      <c r="M87" s="58">
         <v>-4.2894342105939582</v>
       </c>
     </row>
@@ -16325,7 +16385,7 @@
       <c r="F88" s="48">
         <v>39692</v>
       </c>
-      <c r="G88" s="62">
+      <c r="G88" s="57">
         <f t="shared" si="1"/>
         <v>0.37348316056530828</v>
       </c>
@@ -16335,11 +16395,11 @@
       <c r="I88" s="49">
         <v>103.4</v>
       </c>
-      <c r="K88" s="63">
+      <c r="K88" s="58">
         <v>3.1986941993485574</v>
       </c>
-      <c r="L88" s="63"/>
-      <c r="M88" s="63">
+      <c r="L88" s="58"/>
+      <c r="M88" s="58">
         <v>3.1986941993485574</v>
       </c>
     </row>
@@ -16347,7 +16407,7 @@
       <c r="F89" s="48">
         <v>39722</v>
       </c>
-      <c r="G89" s="62">
+      <c r="G89" s="57">
         <f t="shared" si="1"/>
         <v>1.0199439368893048</v>
       </c>
@@ -16357,11 +16417,11 @@
       <c r="I89" s="49">
         <v>100.1</v>
       </c>
-      <c r="K89" s="63">
+      <c r="K89" s="58">
         <v>-2.5517890541014396</v>
       </c>
-      <c r="L89" s="63"/>
-      <c r="M89" s="63">
+      <c r="L89" s="58"/>
+      <c r="M89" s="58">
         <v>-2.5517890541014396</v>
       </c>
     </row>
@@ -16369,7 +16429,7 @@
       <c r="F90" s="48">
         <v>39753</v>
       </c>
-      <c r="G90" s="62">
+      <c r="G90" s="57">
         <f t="shared" si="1"/>
         <v>-11.939873133388506</v>
       </c>
@@ -16379,11 +16439,11 @@
       <c r="I90" s="49">
         <v>94.4</v>
       </c>
-      <c r="K90" s="63">
+      <c r="K90" s="58">
         <v>-6.3977051793940269</v>
       </c>
-      <c r="L90" s="63"/>
-      <c r="M90" s="63">
+      <c r="L90" s="58"/>
+      <c r="M90" s="58">
         <v>-6.3977051793940269</v>
       </c>
     </row>
@@ -16391,7 +16451,7 @@
       <c r="F91" s="48">
         <v>39783</v>
       </c>
-      <c r="G91" s="62">
+      <c r="G91" s="57">
         <f t="shared" si="1"/>
         <v>-19.571648289805267</v>
       </c>
@@ -16401,11 +16461,11 @@
       <c r="I91" s="49">
         <v>83.8</v>
       </c>
-      <c r="K91" s="63">
+      <c r="K91" s="58">
         <v>-8.484359955320171</v>
       </c>
-      <c r="L91" s="63"/>
-      <c r="M91" s="63">
+      <c r="L91" s="58"/>
+      <c r="M91" s="58">
         <v>-8.484359955320171</v>
       </c>
     </row>
@@ -16413,7 +16473,7 @@
       <c r="F92" s="48">
         <v>39814</v>
       </c>
-      <c r="G92" s="62">
+      <c r="G92" s="57">
         <f t="shared" si="1"/>
         <v>-0.50697193502505111</v>
       </c>
@@ -16423,11 +16483,11 @@
       <c r="I92" s="49">
         <v>85.6</v>
       </c>
-      <c r="K92" s="63">
+      <c r="K92" s="58">
         <v>5.3345832191258193E-2</v>
       </c>
-      <c r="L92" s="63"/>
-      <c r="M92" s="63">
+      <c r="L92" s="58"/>
+      <c r="M92" s="58">
         <v>5.3345832191258193E-2</v>
       </c>
     </row>
@@ -16435,7 +16495,7 @@
       <c r="F93" s="48">
         <v>39845</v>
       </c>
-      <c r="G93" s="62">
+      <c r="G93" s="57">
         <f t="shared" si="1"/>
         <v>-3.3594890555717507</v>
       </c>
@@ -16445,11 +16505,11 @@
       <c r="I93" s="49">
         <v>87.6</v>
       </c>
-      <c r="K93" s="63">
+      <c r="K93" s="58">
         <v>-0.27642972693952794</v>
       </c>
-      <c r="L93" s="63"/>
-      <c r="M93" s="63">
+      <c r="L93" s="58"/>
+      <c r="M93" s="58">
         <v>-0.27642972693952794</v>
       </c>
     </row>
@@ -16457,7 +16517,7 @@
       <c r="F94" s="48">
         <v>39873</v>
       </c>
-      <c r="G94" s="62">
+      <c r="G94" s="57">
         <f t="shared" si="1"/>
         <v>15.208359274339509</v>
       </c>
@@ -16467,11 +16527,11 @@
       <c r="I94" s="49">
         <v>88</v>
       </c>
-      <c r="K94" s="63">
+      <c r="K94" s="58">
         <v>4.9543158696909995</v>
       </c>
-      <c r="L94" s="63"/>
-      <c r="M94" s="63">
+      <c r="L94" s="58"/>
+      <c r="M94" s="58">
         <v>4.9543158696909995</v>
       </c>
     </row>
@@ -16479,7 +16539,7 @@
       <c r="F95" s="48">
         <v>39904</v>
       </c>
-      <c r="G95" s="62">
+      <c r="G95" s="57">
         <f t="shared" si="1"/>
         <v>-3.9130423775765082</v>
       </c>
@@ -16489,11 +16549,11 @@
       <c r="I95" s="49">
         <v>89</v>
       </c>
-      <c r="K95" s="63">
+      <c r="K95" s="58">
         <v>0.15306855435996122</v>
       </c>
-      <c r="L95" s="63"/>
-      <c r="M95" s="63">
+      <c r="L95" s="58"/>
+      <c r="M95" s="58">
         <v>0.15306855435996122</v>
       </c>
     </row>
@@ -16501,7 +16561,7 @@
       <c r="F96" s="48">
         <v>39934</v>
       </c>
-      <c r="G96" s="62">
+      <c r="G96" s="57">
         <f t="shared" si="1"/>
         <v>6.9149353765652606</v>
       </c>
@@ -16511,11 +16571,11 @@
       <c r="I96" s="49">
         <v>90.3</v>
       </c>
-      <c r="K96" s="63">
+      <c r="K96" s="58">
         <v>0.39609927778367648</v>
       </c>
-      <c r="L96" s="63"/>
-      <c r="M96" s="63">
+      <c r="L96" s="58"/>
+      <c r="M96" s="58">
         <v>0.39609927778367648</v>
       </c>
     </row>
@@ -16523,7 +16583,7 @@
       <c r="F97" s="48">
         <v>39965</v>
       </c>
-      <c r="G97" s="62">
+      <c r="G97" s="57">
         <f t="shared" si="1"/>
         <v>0.98093429616254413</v>
       </c>
@@ -16533,11 +16593,11 @@
       <c r="I97" s="49">
         <v>91.6</v>
       </c>
-      <c r="K97" s="63">
+      <c r="K97" s="58">
         <v>2.2233280197679592</v>
       </c>
-      <c r="L97" s="63"/>
-      <c r="M97" s="63">
+      <c r="L97" s="58"/>
+      <c r="M97" s="58">
         <v>2.2233280197679592</v>
       </c>
     </row>
@@ -16545,7 +16605,7 @@
       <c r="F98" s="48">
         <v>39995</v>
       </c>
-      <c r="G98" s="62">
+      <c r="G98" s="57">
         <f t="shared" si="1"/>
         <v>5.7941428486188959</v>
       </c>
@@ -16555,11 +16615,11 @@
       <c r="I98" s="49">
         <v>92.6</v>
       </c>
-      <c r="K98" s="63">
+      <c r="K98" s="58">
         <v>0.56402086838980292</v>
       </c>
-      <c r="L98" s="63"/>
-      <c r="M98" s="63">
+      <c r="L98" s="58"/>
+      <c r="M98" s="58">
         <v>0.56402086838980292</v>
       </c>
     </row>
@@ -16567,7 +16627,7 @@
       <c r="F99" s="48">
         <v>40026</v>
       </c>
-      <c r="G99" s="62">
+      <c r="G99" s="57">
         <f t="shared" si="1"/>
         <v>1.9260605541815436</v>
       </c>
@@ -16577,11 +16637,11 @@
       <c r="I99" s="49">
         <v>94</v>
       </c>
-      <c r="K99" s="63">
+      <c r="K99" s="58">
         <v>-0.87773816146094918</v>
       </c>
-      <c r="L99" s="63"/>
-      <c r="M99" s="63">
+      <c r="L99" s="58"/>
+      <c r="M99" s="58">
         <v>-0.87773816146094918</v>
       </c>
     </row>
@@ -16589,7 +16649,7 @@
       <c r="F100" s="48">
         <v>40057</v>
       </c>
-      <c r="G100" s="62">
+      <c r="G100" s="57">
         <f t="shared" si="1"/>
         <v>-0.20100509280241119</v>
       </c>
@@ -16599,11 +16659,11 @@
       <c r="I100" s="49">
         <v>95.6</v>
       </c>
-      <c r="K100" s="63">
+      <c r="K100" s="58">
         <v>2.6242059459808376</v>
       </c>
-      <c r="L100" s="63"/>
-      <c r="M100" s="63">
+      <c r="L100" s="58"/>
+      <c r="M100" s="58">
         <v>2.6242059459808376</v>
       </c>
     </row>
@@ -16611,7 +16671,7 @@
       <c r="F101" s="48">
         <v>40087</v>
       </c>
-      <c r="G101" s="62">
+      <c r="G101" s="57">
         <f t="shared" si="1"/>
         <v>6.0506257609632605</v>
       </c>
@@ -16621,11 +16681,11 @@
       <c r="I101" s="49">
         <v>97.3</v>
       </c>
-      <c r="K101" s="63">
+      <c r="K101" s="58">
         <v>2.4788927699725161</v>
       </c>
-      <c r="L101" s="63"/>
-      <c r="M101" s="63">
+      <c r="L101" s="58"/>
+      <c r="M101" s="58">
         <v>2.4788927699725161</v>
       </c>
     </row>
@@ -16633,7 +16693,7 @@
       <c r="F102" s="48">
         <v>40118</v>
       </c>
-      <c r="G102" s="62">
+      <c r="G102" s="57">
         <f t="shared" si="1"/>
         <v>-4.0585280115078213</v>
       </c>
@@ -16643,11 +16703,11 @@
       <c r="I102" s="49">
         <v>98.9</v>
       </c>
-      <c r="K102" s="63">
+      <c r="K102" s="58">
         <v>1.4836399424866578</v>
       </c>
-      <c r="L102" s="63"/>
-      <c r="M102" s="63">
+      <c r="L102" s="58"/>
+      <c r="M102" s="58">
         <v>1.4836399424866578</v>
       </c>
     </row>
@@ -16655,7 +16715,7 @@
       <c r="F103" s="48">
         <v>40148</v>
       </c>
-      <c r="G103" s="62">
+      <c r="G103" s="57">
         <f t="shared" si="1"/>
         <v>-7.4715044565749</v>
       </c>
@@ -16665,11 +16725,11 @@
       <c r="I103" s="49">
         <v>99.1</v>
       </c>
-      <c r="K103" s="63">
+      <c r="K103" s="58">
         <v>3.6157838779101965</v>
       </c>
-      <c r="L103" s="63"/>
-      <c r="M103" s="63">
+      <c r="L103" s="58"/>
+      <c r="M103" s="58">
         <v>3.6157838779101965</v>
       </c>
     </row>
@@ -16677,7 +16737,7 @@
       <c r="F104" s="48">
         <v>40179</v>
       </c>
-      <c r="G104" s="62">
+      <c r="G104" s="57">
         <f t="shared" si="1"/>
         <v>-3.1303149511048107</v>
       </c>
@@ -16687,11 +16747,11 @@
       <c r="I104" s="49">
         <v>100.7</v>
       </c>
-      <c r="K104" s="63">
+      <c r="K104" s="58">
         <v>-2.5699971838885016</v>
       </c>
-      <c r="L104" s="63"/>
-      <c r="M104" s="63">
+      <c r="L104" s="58"/>
+      <c r="M104" s="58">
         <v>-2.5699971838885016</v>
       </c>
     </row>
@@ -16699,7 +16759,7 @@
       <c r="F105" s="48">
         <v>40210</v>
       </c>
-      <c r="G105" s="62">
+      <c r="G105" s="57">
         <f t="shared" si="1"/>
         <v>-2.4418527348145886</v>
       </c>
@@ -16709,11 +16769,11 @@
       <c r="I105" s="49">
         <v>100.5</v>
       </c>
-      <c r="K105" s="63">
+      <c r="K105" s="58">
         <v>0.64120659381763412</v>
       </c>
-      <c r="L105" s="63"/>
-      <c r="M105" s="63">
+      <c r="L105" s="58"/>
+      <c r="M105" s="58">
         <v>0.64120659381763412</v>
       </c>
     </row>
@@ -16721,7 +16781,7 @@
       <c r="F106" s="48">
         <v>40238</v>
       </c>
-      <c r="G106" s="62">
+      <c r="G106" s="57">
         <f t="shared" si="1"/>
         <v>16.627590815076555</v>
       </c>
@@ -16731,11 +16791,11 @@
       <c r="I106" s="49">
         <v>103</v>
       </c>
-      <c r="K106" s="63">
+      <c r="K106" s="58">
         <v>6.3735474104280456</v>
       </c>
-      <c r="L106" s="63"/>
-      <c r="M106" s="63">
+      <c r="L106" s="58"/>
+      <c r="M106" s="58">
         <v>6.3735474104280456</v>
       </c>
     </row>
@@ -16743,7 +16803,7 @@
       <c r="F107" s="48">
         <v>40269</v>
       </c>
-      <c r="G107" s="62">
+      <c r="G107" s="57">
         <f t="shared" si="1"/>
         <v>-5.6766706831778553</v>
       </c>
@@ -16753,11 +16813,11 @@
       <c r="I107" s="49">
         <v>103.2</v>
       </c>
-      <c r="K107" s="63">
+      <c r="K107" s="58">
         <v>-1.6105597512413858</v>
       </c>
-      <c r="L107" s="63"/>
-      <c r="M107" s="63">
+      <c r="L107" s="58"/>
+      <c r="M107" s="58">
         <v>-1.6105597512413858</v>
       </c>
     </row>
@@ -16765,7 +16825,7 @@
       <c r="F108" s="48">
         <v>40299</v>
       </c>
-      <c r="G108" s="62">
+      <c r="G108" s="57">
         <f t="shared" si="1"/>
         <v>4.9125790955599946</v>
       </c>
@@ -16775,11 +16835,11 @@
       <c r="I108" s="49">
         <v>103</v>
       </c>
-      <c r="K108" s="63">
+      <c r="K108" s="58">
         <v>-1.6062570032215895</v>
       </c>
-      <c r="L108" s="63"/>
-      <c r="M108" s="63">
+      <c r="L108" s="58"/>
+      <c r="M108" s="58">
         <v>-1.6062570032215895</v>
       </c>
     </row>
@@ -16787,7 +16847,7 @@
       <c r="F109" s="48">
         <v>40330</v>
       </c>
-      <c r="G109" s="62">
+      <c r="G109" s="57">
         <f t="shared" si="1"/>
         <v>-1.7408563428263819</v>
       </c>
@@ -16797,11 +16857,11 @@
       <c r="I109" s="49">
         <v>102.3</v>
       </c>
-      <c r="K109" s="63">
+      <c r="K109" s="58">
         <v>-0.49846261922096669</v>
       </c>
-      <c r="L109" s="63"/>
-      <c r="M109" s="63">
+      <c r="L109" s="58"/>
+      <c r="M109" s="58">
         <v>-0.49846261922096669</v>
       </c>
     </row>
@@ -16809,7 +16869,7 @@
       <c r="F110" s="48">
         <v>40360</v>
       </c>
-      <c r="G110" s="62">
+      <c r="G110" s="57">
         <f t="shared" si="1"/>
         <v>4.2031019452536711</v>
       </c>
@@ -16819,11 +16879,11 @@
       <c r="I110" s="49">
         <v>101.8</v>
       </c>
-      <c r="K110" s="63">
+      <c r="K110" s="58">
         <v>-1.0270200349754219</v>
       </c>
-      <c r="L110" s="63"/>
-      <c r="M110" s="63">
+      <c r="L110" s="58"/>
+      <c r="M110" s="58">
         <v>-1.0270200349754219</v>
       </c>
     </row>
@@ -16831,7 +16891,7 @@
       <c r="F111" s="48">
         <v>40391</v>
       </c>
-      <c r="G111" s="62">
+      <c r="G111" s="57">
         <f t="shared" si="1"/>
         <v>1.1162906614163006</v>
       </c>
@@ -16841,11 +16901,11 @@
       <c r="I111" s="49">
         <v>101.4</v>
       </c>
-      <c r="K111" s="63">
+      <c r="K111" s="58">
         <v>-1.6875080542261922</v>
       </c>
-      <c r="L111" s="63"/>
-      <c r="M111" s="63">
+      <c r="L111" s="58"/>
+      <c r="M111" s="58">
         <v>-1.6875080542261922</v>
       </c>
     </row>
@@ -16853,7 +16913,7 @@
       <c r="F112" s="48">
         <v>40422</v>
       </c>
-      <c r="G112" s="62">
+      <c r="G112" s="57">
         <f t="shared" si="1"/>
         <v>-2.1506205220963506</v>
       </c>
@@ -16863,11 +16923,11 @@
       <c r="I112" s="49">
         <v>101.6</v>
       </c>
-      <c r="K112" s="63">
+      <c r="K112" s="58">
         <v>0.6745905166868984</v>
       </c>
-      <c r="L112" s="63"/>
-      <c r="M112" s="63">
+      <c r="L112" s="58"/>
+      <c r="M112" s="58">
         <v>0.6745905166868984</v>
       </c>
     </row>
@@ -16875,7 +16935,7 @@
       <c r="F113" s="48">
         <v>40452</v>
       </c>
-      <c r="G113" s="62">
+      <c r="G113" s="57">
         <f t="shared" si="1"/>
         <v>1.779906473814393</v>
       </c>
@@ -16885,11 +16945,11 @@
       <c r="I113" s="49">
         <v>101.3</v>
       </c>
-      <c r="K113" s="63">
+      <c r="K113" s="58">
         <v>-1.7918265171763514</v>
       </c>
-      <c r="L113" s="63"/>
-      <c r="M113" s="63">
+      <c r="L113" s="58"/>
+      <c r="M113" s="58">
         <v>-1.7918265171763514</v>
       </c>
     </row>
@@ -16897,7 +16957,7 @@
       <c r="F114" s="48">
         <v>40483</v>
       </c>
-      <c r="G114" s="62">
+      <c r="G114" s="57">
         <f t="shared" si="1"/>
         <v>-0.83916576362485129</v>
       </c>
@@ -16907,11 +16967,11 @@
       <c r="I114" s="49">
         <v>102.2</v>
       </c>
-      <c r="K114" s="63">
+      <c r="K114" s="58">
         <v>4.7030021903696273</v>
       </c>
-      <c r="L114" s="63"/>
-      <c r="M114" s="63">
+      <c r="L114" s="58"/>
+      <c r="M114" s="58">
         <v>4.7030021903696273</v>
       </c>
     </row>
@@ -16919,7 +16979,7 @@
       <c r="F115" s="48">
         <v>40513</v>
       </c>
-      <c r="G115" s="62">
+      <c r="G115" s="57">
         <f t="shared" si="1"/>
         <v>-10.037918530762216</v>
       </c>
@@ -16929,11 +16989,11 @@
       <c r="I115" s="49">
         <v>102.6</v>
       </c>
-      <c r="K115" s="63">
+      <c r="K115" s="58">
         <v>1.0493698037228807</v>
       </c>
-      <c r="L115" s="63"/>
-      <c r="M115" s="63">
+      <c r="L115" s="58"/>
+      <c r="M115" s="58">
         <v>1.0493698037228807</v>
       </c>
     </row>
@@ -16941,7 +17001,7 @@
       <c r="F116" s="48">
         <v>40544</v>
       </c>
-      <c r="G116" s="62">
+      <c r="G116" s="57">
         <f t="shared" si="1"/>
         <v>-3.5831019526926728</v>
       </c>
@@ -16951,11 +17011,11 @@
       <c r="I116" s="49">
         <v>102.8</v>
       </c>
-      <c r="K116" s="63">
+      <c r="K116" s="58">
         <v>-3.0227841854763637</v>
       </c>
-      <c r="L116" s="63"/>
-      <c r="M116" s="63">
+      <c r="L116" s="58"/>
+      <c r="M116" s="58">
         <v>-3.0227841854763637</v>
       </c>
     </row>
@@ -16963,7 +17023,7 @@
       <c r="F117" s="48">
         <v>40575</v>
       </c>
-      <c r="G117" s="62">
+      <c r="G117" s="57">
         <f t="shared" si="1"/>
         <v>2.3330856762695267</v>
       </c>
@@ -16973,11 +17033,11 @@
       <c r="I117" s="49">
         <v>104.2</v>
       </c>
-      <c r="K117" s="63">
+      <c r="K117" s="58">
         <v>5.4161450049017494</v>
       </c>
-      <c r="L117" s="63"/>
-      <c r="M117" s="63">
+      <c r="L117" s="58"/>
+      <c r="M117" s="58">
         <v>5.4161450049017494</v>
       </c>
     </row>
@@ -16985,7 +17045,7 @@
       <c r="F118" s="48">
         <v>40603</v>
       </c>
-      <c r="G118" s="62">
+      <c r="G118" s="57">
         <f t="shared" si="1"/>
         <v>9.0151096994297486</v>
       </c>
@@ -16995,11 +17055,11 @@
       <c r="I118" s="49">
         <v>104.8</v>
       </c>
-      <c r="K118" s="63">
+      <c r="K118" s="58">
         <v>-1.238933705218761</v>
       </c>
-      <c r="L118" s="63"/>
-      <c r="M118" s="63">
+      <c r="L118" s="58"/>
+      <c r="M118" s="58">
         <v>-1.238933705218761</v>
       </c>
     </row>
@@ -17007,7 +17067,7 @@
       <c r="F119" s="48">
         <v>40634</v>
       </c>
-      <c r="G119" s="62">
+      <c r="G119" s="57">
         <f t="shared" si="1"/>
         <v>-6.8377297444736849</v>
       </c>
@@ -17017,11 +17077,11 @@
       <c r="I119" s="49">
         <v>102.1</v>
       </c>
-      <c r="K119" s="63">
+      <c r="K119" s="58">
         <v>-2.7716188125372154</v>
       </c>
-      <c r="L119" s="63"/>
-      <c r="M119" s="63">
+      <c r="L119" s="58"/>
+      <c r="M119" s="58">
         <v>-2.7716188125372154</v>
       </c>
     </row>
@@ -17029,7 +17089,7 @@
       <c r="F120" s="48">
         <v>40664</v>
       </c>
-      <c r="G120" s="62">
+      <c r="G120" s="57">
         <f t="shared" si="1"/>
         <v>9.3910599449901522</v>
       </c>
@@ -17039,11 +17099,11 @@
       <c r="I120" s="49">
         <v>105.2</v>
       </c>
-      <c r="K120" s="63">
+      <c r="K120" s="58">
         <v>2.8722238462085681</v>
       </c>
-      <c r="L120" s="63"/>
-      <c r="M120" s="63">
+      <c r="L120" s="58"/>
+      <c r="M120" s="58">
         <v>2.8722238462085681</v>
       </c>
     </row>
@@ -17051,7 +17111,7 @@
       <c r="F121" s="48">
         <v>40695</v>
       </c>
-      <c r="G121" s="62">
+      <c r="G121" s="57">
         <f t="shared" si="1"/>
         <v>-4.0977624432638322</v>
       </c>
@@ -17061,11 +17121,11 @@
       <c r="I121" s="49">
         <v>102.7</v>
       </c>
-      <c r="K121" s="63">
+      <c r="K121" s="58">
         <v>-2.8553687196584168</v>
       </c>
-      <c r="L121" s="63"/>
-      <c r="M121" s="63">
+      <c r="L121" s="58"/>
+      <c r="M121" s="58">
         <v>-2.8553687196584168</v>
       </c>
     </row>
@@ -17073,7 +17133,7 @@
       <c r="F122" s="48">
         <v>40725</v>
       </c>
-      <c r="G122" s="62">
+      <c r="G122" s="57">
         <f t="shared" si="1"/>
         <v>3.1596692598872607</v>
       </c>
@@ -17083,11 +17143,11 @@
       <c r="I122" s="49">
         <v>103.1</v>
       </c>
-      <c r="K122" s="63">
+      <c r="K122" s="58">
         <v>-2.0704527203418324</v>
       </c>
-      <c r="L122" s="63"/>
-      <c r="M122" s="63">
+      <c r="L122" s="58"/>
+      <c r="M122" s="58">
         <v>-2.0704527203418324</v>
       </c>
     </row>
@@ -17095,7 +17155,7 @@
       <c r="F123" s="48">
         <v>40756</v>
       </c>
-      <c r="G123" s="62">
+      <c r="G123" s="57">
         <f t="shared" si="1"/>
         <v>4.3344728693245962</v>
       </c>
@@ -17105,11 +17165,11 @@
       <c r="I123" s="49">
         <v>102.1</v>
       </c>
-      <c r="K123" s="63">
+      <c r="K123" s="58">
         <v>1.5306741536821034</v>
       </c>
-      <c r="L123" s="63"/>
-      <c r="M123" s="63">
+      <c r="L123" s="58"/>
+      <c r="M123" s="58">
         <v>1.5306741536821034</v>
       </c>
     </row>
@@ -17117,7 +17177,7 @@
       <c r="F124" s="48">
         <v>40787</v>
       </c>
-      <c r="G124" s="62">
+      <c r="G124" s="57">
         <f t="shared" si="1"/>
         <v>-5.5673002426241638</v>
       </c>
@@ -17127,11 +17187,11 @@
       <c r="I124" s="49">
         <v>100.2</v>
       </c>
-      <c r="K124" s="63">
+      <c r="K124" s="58">
         <v>-2.7420892038409148</v>
       </c>
-      <c r="L124" s="63"/>
-      <c r="M124" s="63">
+      <c r="L124" s="58"/>
+      <c r="M124" s="58">
         <v>-2.7420892038409148</v>
       </c>
     </row>
@@ -17139,7 +17199,7 @@
       <c r="F125" s="48">
         <v>40817</v>
       </c>
-      <c r="G125" s="62">
+      <c r="G125" s="57">
         <f t="shared" si="1"/>
         <v>1.4211513460960548</v>
       </c>
@@ -17149,11 +17209,11 @@
       <c r="I125" s="49">
         <v>99.2</v>
       </c>
-      <c r="K125" s="63">
+      <c r="K125" s="58">
         <v>-2.1505816448946895</v>
       </c>
-      <c r="L125" s="63"/>
-      <c r="M125" s="63">
+      <c r="L125" s="58"/>
+      <c r="M125" s="58">
         <v>-2.1505816448946895</v>
       </c>
     </row>
@@ -17161,7 +17221,7 @@
       <c r="F126" s="48">
         <v>40848</v>
       </c>
-      <c r="G126" s="62">
+      <c r="G126" s="57">
         <f t="shared" si="1"/>
         <v>-1.9953156028635677</v>
       </c>
@@ -17171,11 +17231,11 @@
       <c r="I126" s="49">
         <v>99.9</v>
       </c>
-      <c r="K126" s="63">
+      <c r="K126" s="58">
         <v>3.5468523511309114</v>
       </c>
-      <c r="L126" s="63"/>
-      <c r="M126" s="63">
+      <c r="L126" s="58"/>
+      <c r="M126" s="58">
         <v>3.5468523511309114</v>
       </c>
     </row>
@@ -17183,7 +17243,7 @@
       <c r="F127" s="48">
         <v>40878</v>
       </c>
-      <c r="G127" s="62">
+      <c r="G127" s="57">
         <f t="shared" si="1"/>
         <v>-8.5093830860358022</v>
       </c>
@@ -17193,11 +17253,11 @@
       <c r="I127" s="49">
         <v>102.5</v>
       </c>
-      <c r="K127" s="63">
+      <c r="K127" s="58">
         <v>2.5779052484492944</v>
       </c>
-      <c r="L127" s="63"/>
-      <c r="M127" s="63">
+      <c r="L127" s="58"/>
+      <c r="M127" s="58">
         <v>2.5779052484492944</v>
       </c>
     </row>
@@ -17205,7 +17265,7 @@
       <c r="F128" s="48">
         <v>40909</v>
       </c>
-      <c r="G128" s="62">
+      <c r="G128" s="57">
         <f t="shared" si="1"/>
         <v>-7.5958409143374785</v>
       </c>
@@ -17215,11 +17275,11 @@
       <c r="I128" s="49">
         <v>98</v>
       </c>
-      <c r="K128" s="63">
+      <c r="K128" s="58">
         <v>-7.035523147121169</v>
       </c>
-      <c r="L128" s="63"/>
-      <c r="M128" s="63">
+      <c r="L128" s="58"/>
+      <c r="M128" s="58">
         <v>-7.035523147121169</v>
       </c>
     </row>
@@ -17227,7 +17287,7 @@
       <c r="F129" s="48">
         <v>40940</v>
       </c>
-      <c r="G129" s="62">
+      <c r="G129" s="57">
         <f t="shared" si="1"/>
         <v>1.2325085992620033</v>
       </c>
@@ -17237,11 +17297,11 @@
       <c r="I129" s="49">
         <v>99</v>
       </c>
-      <c r="K129" s="63">
+      <c r="K129" s="58">
         <v>4.3155679278942261</v>
       </c>
-      <c r="L129" s="63"/>
-      <c r="M129" s="63">
+      <c r="L129" s="58"/>
+      <c r="M129" s="58">
         <v>4.3155679278942261</v>
       </c>
     </row>
@@ -17249,7 +17309,7 @@
       <c r="F130" s="48">
         <v>40969</v>
       </c>
-      <c r="G130" s="62">
+      <c r="G130" s="57">
         <f t="shared" si="1"/>
         <v>10.458070165963877</v>
       </c>
@@ -17259,11 +17319,11 @@
       <c r="I130" s="49">
         <v>98.3</v>
       </c>
-      <c r="K130" s="63">
+      <c r="K130" s="58">
         <v>0.20402676131536698</v>
       </c>
-      <c r="L130" s="63"/>
-      <c r="M130" s="63">
+      <c r="L130" s="58"/>
+      <c r="M130" s="58">
         <v>0.20402676131536698</v>
       </c>
     </row>
@@ -17271,7 +17331,7 @@
       <c r="F131" s="48">
         <v>41000</v>
       </c>
-      <c r="G131" s="62">
+      <c r="G131" s="57">
         <f t="shared" si="1"/>
         <v>-7.1719037175637768</v>
       </c>
@@ -17281,11 +17341,11 @@
       <c r="I131" s="49">
         <v>98.5</v>
       </c>
-      <c r="K131" s="63">
+      <c r="K131" s="58">
         <v>-3.1057927856273073</v>
       </c>
-      <c r="L131" s="63"/>
-      <c r="M131" s="63">
+      <c r="L131" s="58"/>
+      <c r="M131" s="58">
         <v>-3.1057927856273073</v>
       </c>
     </row>
@@ -17293,7 +17353,7 @@
       <c r="F132" s="48">
         <v>41030</v>
       </c>
-      <c r="G132" s="62">
+      <c r="G132" s="57">
         <f t="shared" si="1"/>
         <v>9.9416158786307989</v>
       </c>
@@ -17303,11 +17363,11 @@
       <c r="I132" s="49">
         <v>98.9</v>
       </c>
-      <c r="K132" s="63">
+      <c r="K132" s="58">
         <v>3.4227797798492148</v>
       </c>
-      <c r="L132" s="63"/>
-      <c r="M132" s="63">
+      <c r="L132" s="58"/>
+      <c r="M132" s="58">
         <v>3.4227797798492148</v>
       </c>
     </row>
@@ -17315,7 +17375,7 @@
       <c r="F133" s="48">
         <v>41061</v>
       </c>
-      <c r="G133" s="62">
+      <c r="G133" s="57">
         <f t="shared" si="1"/>
         <v>-4.1838771425342038</v>
       </c>
@@ -17325,11 +17385,11 @@
       <c r="I133" s="49">
         <v>99</v>
       </c>
-      <c r="K133" s="63">
+      <c r="K133" s="58">
         <v>-2.9414834189287884</v>
       </c>
-      <c r="L133" s="63"/>
-      <c r="M133" s="63">
+      <c r="L133" s="58"/>
+      <c r="M133" s="58">
         <v>-2.9414834189287884</v>
       </c>
     </row>
@@ -17337,7 +17397,7 @@
       <c r="F134" s="48">
         <v>41091</v>
       </c>
-      <c r="G134" s="62">
+      <c r="G134" s="57">
         <f t="shared" si="1"/>
         <v>6.1163044251744862</v>
       </c>
@@ -17347,11 +17407,11 @@
       <c r="I134" s="49">
         <v>100.5</v>
       </c>
-      <c r="K134" s="63">
+      <c r="K134" s="58">
         <v>0.88618244494539322</v>
       </c>
-      <c r="L134" s="63"/>
-      <c r="M134" s="63">
+      <c r="L134" s="58"/>
+      <c r="M134" s="58">
         <v>0.88618244494539322</v>
       </c>
     </row>
@@ -17359,7 +17419,7 @@
       <c r="F135" s="48">
         <v>41122</v>
       </c>
-      <c r="G135" s="62">
+      <c r="G135" s="57">
         <f t="shared" si="1"/>
         <v>6.4837519495307667</v>
       </c>
@@ -17369,11 +17429,11 @@
       <c r="I135" s="49">
         <v>102.5</v>
       </c>
-      <c r="K135" s="63">
+      <c r="K135" s="58">
         <v>3.6799532338882739</v>
       </c>
-      <c r="L135" s="63"/>
-      <c r="M135" s="63">
+      <c r="L135" s="58"/>
+      <c r="M135" s="58">
         <v>3.6799532338882739</v>
       </c>
     </row>
@@ -17381,7 +17441,7 @@
       <c r="F136" s="48">
         <v>41153</v>
       </c>
-      <c r="G136" s="62">
+      <c r="G136" s="57">
         <f t="shared" si="1"/>
         <v>-7.5419628825844658</v>
       </c>
@@ -17391,11 +17451,11 @@
       <c r="I136" s="49">
         <v>100.6</v>
       </c>
-      <c r="K136" s="63">
+      <c r="K136" s="58">
         <v>-4.7167518438012168</v>
       </c>
-      <c r="L136" s="63"/>
-      <c r="M136" s="63">
+      <c r="L136" s="58"/>
+      <c r="M136" s="58">
         <v>-4.7167518438012168</v>
       </c>
     </row>
@@ -17403,7 +17463,7 @@
       <c r="F137" s="48">
         <v>41183</v>
       </c>
-      <c r="G137" s="62">
+      <c r="G137" s="57">
         <f t="shared" si="1"/>
         <v>7.8106598646669854</v>
       </c>
@@ -17413,11 +17473,11 @@
       <c r="I137" s="49">
         <v>102.1</v>
       </c>
-      <c r="K137" s="63">
+      <c r="K137" s="58">
         <v>4.2389268736762409</v>
       </c>
-      <c r="L137" s="63"/>
-      <c r="M137" s="63">
+      <c r="L137" s="58"/>
+      <c r="M137" s="58">
         <v>4.2389268736762409</v>
       </c>
     </row>
@@ -17425,7 +17485,7 @@
       <c r="F138" s="48">
         <v>41214</v>
       </c>
-      <c r="G138" s="62">
+      <c r="G138" s="57">
         <f t="shared" ref="G138:G201" si="2">LN(H138/H137)*100</f>
         <v>-6.4657788834056955</v>
       </c>
@@ -17435,11 +17495,11 @@
       <c r="I138" s="49">
         <v>100.6</v>
       </c>
-      <c r="K138" s="63">
+      <c r="K138" s="58">
         <v>-0.92361092941121647</v>
       </c>
-      <c r="L138" s="63"/>
-      <c r="M138" s="63">
+      <c r="L138" s="58"/>
+      <c r="M138" s="58">
         <v>-0.92361092941121647</v>
       </c>
     </row>
@@ -17447,7 +17507,7 @@
       <c r="F139" s="48">
         <v>41244</v>
       </c>
-      <c r="G139" s="62">
+      <c r="G139" s="57">
         <f t="shared" si="2"/>
         <v>-12.809364132439352</v>
       </c>
@@ -17457,11 +17517,11 @@
       <c r="I139" s="49">
         <v>101.3</v>
       </c>
-      <c r="K139" s="63">
+      <c r="K139" s="58">
         <v>-1.7220757979542558</v>
       </c>
-      <c r="L139" s="63"/>
-      <c r="M139" s="63">
+      <c r="L139" s="58"/>
+      <c r="M139" s="58">
         <v>-1.7220757979542558</v>
       </c>
     </row>
@@ -17469,7 +17529,7 @@
       <c r="F140" s="48">
         <v>41275</v>
       </c>
-      <c r="G140" s="62">
+      <c r="G140" s="57">
         <f t="shared" si="2"/>
         <v>2.4639703937148925</v>
       </c>
@@ -17479,11 +17539,11 @@
       <c r="I140" s="49">
         <v>102.1</v>
       </c>
-      <c r="K140" s="63">
+      <c r="K140" s="58">
         <v>3.024288160931202</v>
       </c>
-      <c r="L140" s="63"/>
-      <c r="M140" s="63">
+      <c r="L140" s="58"/>
+      <c r="M140" s="58">
         <v>3.024288160931202</v>
       </c>
     </row>
@@ -17491,7 +17551,7 @@
       <c r="F141" s="48">
         <v>41306</v>
       </c>
-      <c r="G141" s="62">
+      <c r="G141" s="57">
         <f t="shared" si="2"/>
         <v>-7.0127301557563264</v>
       </c>
@@ -17501,11 +17561,11 @@
       <c r="I141" s="49">
         <v>99.7</v>
       </c>
-      <c r="K141" s="63">
+      <c r="K141" s="58">
         <v>-3.9296708271241036</v>
       </c>
-      <c r="L141" s="63"/>
-      <c r="M141" s="63">
+      <c r="L141" s="58"/>
+      <c r="M141" s="58">
         <v>-3.9296708271241036</v>
       </c>
     </row>
@@ -17513,7 +17573,7 @@
       <c r="F142" s="48">
         <v>41334</v>
       </c>
-      <c r="G142" s="62">
+      <c r="G142" s="57">
         <f t="shared" si="2"/>
         <v>10.342902610660323</v>
       </c>
@@ -17523,11 +17583,11 @@
       <c r="I142" s="49">
         <v>101.2</v>
       </c>
-      <c r="K142" s="63">
+      <c r="K142" s="58">
         <v>8.8859206011813158E-2</v>
       </c>
-      <c r="L142" s="63"/>
-      <c r="M142" s="63">
+      <c r="L142" s="58"/>
+      <c r="M142" s="58">
         <v>8.8859206011813158E-2</v>
       </c>
     </row>
@@ -17535,7 +17595,7 @@
       <c r="F143" s="48">
         <v>41365</v>
       </c>
-      <c r="G143" s="62">
+      <c r="G143" s="57">
         <f t="shared" si="2"/>
         <v>4.1108545067685318</v>
       </c>
@@ -17545,11 +17605,11 @@
       <c r="I143" s="49">
         <v>103</v>
       </c>
-      <c r="K143" s="63">
+      <c r="K143" s="58">
         <v>8.1769654387050004</v>
       </c>
-      <c r="L143" s="63"/>
-      <c r="M143" s="63">
+      <c r="L143" s="58"/>
+      <c r="M143" s="58">
         <v>8.1769654387050004</v>
       </c>
     </row>
@@ -17557,7 +17617,7 @@
       <c r="F144" s="48">
         <v>41395</v>
       </c>
-      <c r="G144" s="62">
+      <c r="G144" s="57">
         <f t="shared" si="2"/>
         <v>3.0950246041101059</v>
       </c>
@@ -17567,11 +17627,11 @@
       <c r="I144" s="49">
         <v>102.5</v>
       </c>
-      <c r="K144" s="63">
+      <c r="K144" s="58">
         <v>-3.4238114946714782</v>
       </c>
-      <c r="L144" s="63"/>
-      <c r="M144" s="63">
+      <c r="L144" s="58"/>
+      <c r="M144" s="58">
         <v>-3.4238114946714782</v>
       </c>
     </row>
@@ -17579,7 +17639,7 @@
       <c r="F145" s="48">
         <v>41426</v>
       </c>
-      <c r="G145" s="62">
+      <c r="G145" s="57">
         <f t="shared" si="2"/>
         <v>-3.1933047103009029</v>
       </c>
@@ -17589,11 +17649,11 @@
       <c r="I145" s="49">
         <v>103.2</v>
       </c>
-      <c r="K145" s="63">
+      <c r="K145" s="58">
         <v>-1.9509109866954877</v>
       </c>
-      <c r="L145" s="63"/>
-      <c r="M145" s="63">
+      <c r="L145" s="58"/>
+      <c r="M145" s="58">
         <v>-1.9509109866954877</v>
       </c>
     </row>
@@ -17601,7 +17661,7 @@
       <c r="F146" s="48">
         <v>41456</v>
       </c>
-      <c r="G146" s="62">
+      <c r="G146" s="57">
         <f t="shared" si="2"/>
         <v>6.0103924069705306</v>
       </c>
@@ -17611,11 +17671,11 @@
       <c r="I146" s="49">
         <v>102.4</v>
       </c>
-      <c r="K146" s="63">
+      <c r="K146" s="58">
         <v>0.78027042674143754</v>
       </c>
-      <c r="L146" s="63"/>
-      <c r="M146" s="63">
+      <c r="L146" s="58"/>
+      <c r="M146" s="58">
         <v>0.78027042674143754</v>
       </c>
     </row>
@@ -17623,7 +17683,7 @@
       <c r="F147" s="48">
         <v>41487</v>
       </c>
-      <c r="G147" s="62">
+      <c r="G147" s="57">
         <f t="shared" si="2"/>
         <v>3.6367644170874791</v>
       </c>
@@ -17633,11 +17693,11 @@
       <c r="I147" s="49">
         <v>102.9</v>
       </c>
-      <c r="K147" s="63">
+      <c r="K147" s="58">
         <v>0.83296570144498627</v>
       </c>
-      <c r="L147" s="63"/>
-      <c r="M147" s="63">
+      <c r="L147" s="58"/>
+      <c r="M147" s="58">
         <v>0.83296570144498627</v>
       </c>
     </row>
@@ -17645,7 +17705,7 @@
       <c r="F148" s="48">
         <v>41518</v>
       </c>
-      <c r="G148" s="62">
+      <c r="G148" s="57">
         <f t="shared" si="2"/>
         <v>-4.2870221658441832</v>
       </c>
@@ -17655,11 +17715,11 @@
       <c r="I148" s="49">
         <v>103.5</v>
       </c>
-      <c r="K148" s="63">
+      <c r="K148" s="58">
         <v>-1.4618111270609342</v>
       </c>
-      <c r="L148" s="63"/>
-      <c r="M148" s="63">
+      <c r="L148" s="58"/>
+      <c r="M148" s="58">
         <v>-1.4618111270609342</v>
       </c>
     </row>
@@ -17667,7 +17727,7 @@
       <c r="F149" s="48">
         <v>41548</v>
       </c>
-      <c r="G149" s="62">
+      <c r="G149" s="57">
         <f t="shared" si="2"/>
         <v>4.8213066068937094</v>
       </c>
@@ -17677,11 +17737,11 @@
       <c r="I149" s="49">
         <v>102.4</v>
       </c>
-      <c r="K149" s="63">
+      <c r="K149" s="58">
         <v>1.2495736159029649</v>
       </c>
-      <c r="L149" s="63"/>
-      <c r="M149" s="63">
+      <c r="L149" s="58"/>
+      <c r="M149" s="58">
         <v>1.2495736159029649</v>
       </c>
     </row>
@@ -17689,7 +17749,7 @@
       <c r="F150" s="48">
         <v>41579</v>
       </c>
-      <c r="G150" s="62">
+      <c r="G150" s="57">
         <f t="shared" si="2"/>
         <v>-5.9459670085652512</v>
       </c>
@@ -17699,11 +17759,11 @@
       <c r="I150" s="49">
         <v>103</v>
       </c>
-      <c r="K150" s="63">
+      <c r="K150" s="58">
         <v>-0.40379905457077214</v>
       </c>
-      <c r="L150" s="63"/>
-      <c r="M150" s="63">
+      <c r="L150" s="58"/>
+      <c r="M150" s="58">
         <v>-0.40379905457077214</v>
       </c>
     </row>
@@ -17711,7 +17771,7 @@
       <c r="F151" s="48">
         <v>41609</v>
       </c>
-      <c r="G151" s="62">
+      <c r="G151" s="57">
         <f t="shared" si="2"/>
         <v>-16.346188100564525</v>
       </c>
@@ -17721,11 +17781,11 @@
       <c r="I151" s="49">
         <v>99</v>
       </c>
-      <c r="K151" s="63">
+      <c r="K151" s="58">
         <v>-5.2588997660794288</v>
       </c>
-      <c r="L151" s="63"/>
-      <c r="M151" s="63">
+      <c r="L151" s="58"/>
+      <c r="M151" s="58">
         <v>-5.2588997660794288</v>
       </c>
     </row>
@@ -17733,7 +17793,7 @@
       <c r="F152" s="48">
         <v>41640</v>
       </c>
-      <c r="G152" s="62">
+      <c r="G152" s="57">
         <f t="shared" si="2"/>
         <v>2.7368977037841566</v>
       </c>
@@ -17743,11 +17803,11 @@
       <c r="I152" s="49">
         <v>100.6</v>
       </c>
-      <c r="K152" s="63">
+      <c r="K152" s="58">
         <v>3.2972154710004657</v>
       </c>
-      <c r="L152" s="63"/>
-      <c r="M152" s="63">
+      <c r="L152" s="58"/>
+      <c r="M152" s="58">
         <v>3.2972154710004657</v>
       </c>
     </row>
@@ -17755,7 +17815,7 @@
       <c r="F153" s="48">
         <v>41671</v>
       </c>
-      <c r="G153" s="62">
+      <c r="G153" s="57">
         <f t="shared" si="2"/>
         <v>-0.32450001433271897</v>
       </c>
@@ -17765,11 +17825,11 @@
       <c r="I153" s="49">
         <v>101.2</v>
       </c>
-      <c r="K153" s="63">
+      <c r="K153" s="58">
         <v>2.7585593142995037</v>
       </c>
-      <c r="L153" s="63"/>
-      <c r="M153" s="63">
+      <c r="L153" s="58"/>
+      <c r="M153" s="58">
         <v>2.7585593142995037</v>
       </c>
     </row>
@@ -17777,7 +17837,7 @@
       <c r="F154" s="48">
         <v>41699</v>
       </c>
-      <c r="G154" s="62">
+      <c r="G154" s="57">
         <f t="shared" si="2"/>
         <v>5.2754847683152821</v>
       </c>
@@ -17787,11 +17847,11 @@
       <c r="I154" s="49">
         <v>101</v>
       </c>
-      <c r="K154" s="63">
+      <c r="K154" s="58">
         <v>-4.9785586363332275</v>
       </c>
-      <c r="L154" s="63"/>
-      <c r="M154" s="63">
+      <c r="L154" s="58"/>
+      <c r="M154" s="58">
         <v>-4.9785586363332275</v>
       </c>
     </row>
@@ -17799,7 +17859,7 @@
       <c r="F155" s="48">
         <v>41730</v>
       </c>
-      <c r="G155" s="62">
+      <c r="G155" s="57">
         <f t="shared" si="2"/>
         <v>-1.3450797724123105</v>
       </c>
@@ -17809,11 +17869,11 @@
       <c r="I155" s="49">
         <v>100.2</v>
       </c>
-      <c r="K155" s="63">
+      <c r="K155" s="58">
         <v>2.7210311595241592</v>
       </c>
-      <c r="L155" s="63"/>
-      <c r="M155" s="63">
+      <c r="L155" s="58"/>
+      <c r="M155" s="58">
         <v>2.7210311595241592</v>
       </c>
     </row>
@@ -17821,7 +17881,7 @@
       <c r="F156" s="48">
         <v>41760</v>
       </c>
-      <c r="G156" s="62">
+      <c r="G156" s="57">
         <f t="shared" si="2"/>
         <v>5.7679111586677987</v>
       </c>
@@ -17831,11 +17891,11 @@
       <c r="I156" s="49">
         <v>98.8</v>
       </c>
-      <c r="K156" s="63">
+      <c r="K156" s="58">
         <v>-0.75092494011378541</v>
       </c>
-      <c r="L156" s="63"/>
-      <c r="M156" s="63">
+      <c r="L156" s="58"/>
+      <c r="M156" s="58">
         <v>-0.75092494011378541</v>
       </c>
     </row>
@@ -17843,7 +17903,7 @@
       <c r="F157" s="48">
         <v>41791</v>
       </c>
-      <c r="G157" s="62">
+      <c r="G157" s="57">
         <f t="shared" si="2"/>
         <v>-6.920359743863207</v>
       </c>
@@ -17853,11 +17913,11 @@
       <c r="I157" s="49">
         <v>96.1</v>
       </c>
-      <c r="K157" s="63">
+      <c r="K157" s="58">
         <v>-5.6779660202577915</v>
       </c>
-      <c r="L157" s="63"/>
-      <c r="M157" s="63">
+      <c r="L157" s="58"/>
+      <c r="M157" s="58">
         <v>-5.6779660202577915</v>
       </c>
     </row>
@@ -17865,7 +17925,7 @@
       <c r="F158" s="48">
         <v>41821</v>
       </c>
-      <c r="G158" s="62">
+      <c r="G158" s="57">
         <f t="shared" si="2"/>
         <v>9.5405969832656066</v>
       </c>
@@ -17875,11 +17935,11 @@
       <c r="I158" s="49">
         <v>98.3</v>
       </c>
-      <c r="K158" s="63">
+      <c r="K158" s="58">
         <v>4.3104750030365135</v>
       </c>
-      <c r="L158" s="63"/>
-      <c r="M158" s="63">
+      <c r="L158" s="58"/>
+      <c r="M158" s="58">
         <v>4.3104750030365135</v>
       </c>
     </row>
@@ -17887,7 +17947,7 @@
       <c r="F159" s="48">
         <v>41852</v>
       </c>
-      <c r="G159" s="62">
+      <c r="G159" s="57">
         <f t="shared" si="2"/>
         <v>1.8035609899363723</v>
       </c>
@@ -17897,11 +17957,11 @@
       <c r="I159" s="49">
         <v>99.2</v>
       </c>
-      <c r="K159" s="63">
+      <c r="K159" s="58">
         <v>-1.0002377257061206</v>
       </c>
-      <c r="L159" s="63"/>
-      <c r="M159" s="63">
+      <c r="L159" s="58"/>
+      <c r="M159" s="58">
         <v>-1.0002377257061206</v>
       </c>
     </row>
@@ -17909,7 +17969,7 @@
       <c r="F160" s="48">
         <v>41883</v>
       </c>
-      <c r="G160" s="62">
+      <c r="G160" s="57">
         <f t="shared" si="2"/>
         <v>-0.66069140757411748</v>
       </c>
@@ -17919,11 +17979,11 @@
       <c r="I160" s="49">
         <v>99.4</v>
       </c>
-      <c r="K160" s="63">
+      <c r="K160" s="58">
         <v>2.1645196312091315</v>
       </c>
-      <c r="L160" s="63"/>
-      <c r="M160" s="63">
+      <c r="L160" s="58"/>
+      <c r="M160" s="58">
         <v>2.1645196312091315</v>
       </c>
     </row>
@@ -17931,7 +17991,7 @@
       <c r="F161" s="48">
         <v>41913</v>
       </c>
-      <c r="G161" s="62">
+      <c r="G161" s="57">
         <f t="shared" si="2"/>
         <v>3.4438023910331883</v>
       </c>
@@ -17941,11 +18001,11 @@
       <c r="I161" s="49">
         <v>99.6</v>
       </c>
-      <c r="K161" s="63">
+      <c r="K161" s="58">
         <v>-0.12793059995755621</v>
       </c>
-      <c r="L161" s="63"/>
-      <c r="M161" s="63">
+      <c r="L161" s="58"/>
+      <c r="M161" s="58">
         <v>-0.12793059995755621</v>
       </c>
     </row>
@@ -17953,7 +18013,7 @@
       <c r="F162" s="48">
         <v>41944</v>
       </c>
-      <c r="G162" s="62">
+      <c r="G162" s="57">
         <f t="shared" si="2"/>
         <v>-9.0928211865074626</v>
       </c>
@@ -17963,11 +18023,11 @@
       <c r="I162" s="49">
         <v>98.6</v>
       </c>
-      <c r="K162" s="63">
+      <c r="K162" s="58">
         <v>-3.5506532325129836</v>
       </c>
-      <c r="L162" s="63"/>
-      <c r="M162" s="63">
+      <c r="L162" s="58"/>
+      <c r="M162" s="58">
         <v>-3.5506532325129836</v>
       </c>
     </row>
@@ -17975,7 +18035,7 @@
       <c r="F163" s="48">
         <v>41974</v>
       </c>
-      <c r="G163" s="62">
+      <c r="G163" s="57">
         <f t="shared" si="2"/>
         <v>-12.924628393928089</v>
       </c>
@@ -17985,11 +18045,11 @@
       <c r="I163" s="49">
         <v>95.4</v>
       </c>
-      <c r="K163" s="63">
+      <c r="K163" s="58">
         <v>-1.8373400594429921</v>
       </c>
-      <c r="L163" s="63"/>
-      <c r="M163" s="63">
+      <c r="L163" s="58"/>
+      <c r="M163" s="58">
         <v>-1.8373400594429921</v>
       </c>
     </row>
@@ -17997,7 +18057,7 @@
       <c r="F164" s="48">
         <v>42005</v>
       </c>
-      <c r="G164" s="62">
+      <c r="G164" s="57">
         <f t="shared" si="2"/>
         <v>0.45506335639962892</v>
       </c>
@@ -18007,11 +18067,11 @@
       <c r="I164" s="49">
         <v>96</v>
       </c>
-      <c r="K164" s="63">
+      <c r="K164" s="58">
         <v>1.0153811236159382</v>
       </c>
-      <c r="L164" s="63"/>
-      <c r="M164" s="63">
+      <c r="L164" s="58"/>
+      <c r="M164" s="58">
         <v>1.0153811236159382</v>
       </c>
     </row>
@@ -18019,7 +18079,7 @@
       <c r="F165" s="48">
         <v>42036</v>
       </c>
-      <c r="G165" s="62">
+      <c r="G165" s="57">
         <f t="shared" si="2"/>
         <v>-5.1233555446704067</v>
       </c>
@@ -18029,11 +18089,11 @@
       <c r="I165" s="49">
         <v>95.4</v>
       </c>
-      <c r="K165" s="63">
+      <c r="K165" s="58">
         <v>-2.0402962160381839</v>
       </c>
-      <c r="L165" s="63"/>
-      <c r="M165" s="63">
+      <c r="L165" s="58"/>
+      <c r="M165" s="58">
         <v>-2.0402962160381839</v>
       </c>
     </row>
@@ -18041,7 +18101,7 @@
       <c r="F166" s="48">
         <v>42064</v>
       </c>
-      <c r="G166" s="62">
+      <c r="G166" s="57">
         <f t="shared" si="2"/>
         <v>11.924221214398219</v>
       </c>
@@ -18051,11 +18111,11 @@
       <c r="I166" s="49">
         <v>95</v>
       </c>
-      <c r="K166" s="63">
+      <c r="K166" s="58">
         <v>1.6701778097497098</v>
       </c>
-      <c r="L166" s="63"/>
-      <c r="M166" s="63">
+      <c r="L166" s="58"/>
+      <c r="M166" s="58">
         <v>1.6701778097497098</v>
       </c>
     </row>
@@ -18063,7 +18123,7 @@
       <c r="F167" s="48">
         <v>42095</v>
       </c>
-      <c r="G167" s="62">
+      <c r="G167" s="57">
         <f t="shared" si="2"/>
         <v>-6.0094539641287446</v>
       </c>
@@ -18073,11 +18133,11 @@
       <c r="I167" s="49">
         <v>93</v>
       </c>
-      <c r="K167" s="63">
+      <c r="K167" s="58">
         <v>-1.9433430321922751</v>
       </c>
-      <c r="L167" s="63"/>
-      <c r="M167" s="63">
+      <c r="L167" s="58"/>
+      <c r="M167" s="58">
         <v>-1.9433430321922751</v>
       </c>
     </row>
@@ -18085,7 +18145,7 @@
       <c r="F168" s="48">
         <v>42125</v>
       </c>
-      <c r="G168" s="62">
+      <c r="G168" s="57">
         <f t="shared" si="2"/>
         <v>4.7287534284896902</v>
       </c>
@@ -18095,11 +18155,11 @@
       <c r="I168" s="49">
         <v>92.2</v>
       </c>
-      <c r="K168" s="63">
+      <c r="K168" s="58">
         <v>-1.7900826702918939</v>
       </c>
-      <c r="L168" s="63"/>
-      <c r="M168" s="63">
+      <c r="L168" s="58"/>
+      <c r="M168" s="58">
         <v>-1.7900826702918939</v>
       </c>
     </row>
@@ -18107,7 +18167,7 @@
       <c r="F169" s="48">
         <v>42156</v>
       </c>
-      <c r="G169" s="62">
+      <c r="G169" s="57">
         <f t="shared" si="2"/>
         <v>-0.646553976464186</v>
       </c>
@@ -18117,11 +18177,11 @@
       <c r="I169" s="49">
         <v>91.3</v>
       </c>
-      <c r="K169" s="63">
+      <c r="K169" s="58">
         <v>0.59583974714122923</v>
       </c>
-      <c r="L169" s="63"/>
-      <c r="M169" s="63">
+      <c r="L169" s="58"/>
+      <c r="M169" s="58">
         <v>0.59583974714122923</v>
       </c>
     </row>
@@ -18129,7 +18189,7 @@
       <c r="F170" s="48">
         <v>42186</v>
       </c>
-      <c r="G170" s="62">
+      <c r="G170" s="57">
         <f t="shared" si="2"/>
         <v>3.1917602968304948</v>
       </c>
@@ -18139,11 +18199,11 @@
       <c r="I170" s="49">
         <v>89.5</v>
       </c>
-      <c r="K170" s="63">
+      <c r="K170" s="58">
         <v>-2.0383616833985982</v>
       </c>
-      <c r="L170" s="63"/>
-      <c r="M170" s="63">
+      <c r="L170" s="58"/>
+      <c r="M170" s="58">
         <v>-2.0383616833985982</v>
       </c>
     </row>
@@ -18151,7 +18211,7 @@
       <c r="F171" s="48">
         <v>42217</v>
       </c>
-      <c r="G171" s="62">
+      <c r="G171" s="57">
         <f t="shared" si="2"/>
         <v>2.175124593236212</v>
       </c>
@@ -18161,11 +18221,11 @@
       <c r="I171" s="49">
         <v>90.3</v>
       </c>
-      <c r="K171" s="63">
+      <c r="K171" s="58">
         <v>-0.62867412240628084</v>
       </c>
-      <c r="L171" s="63"/>
-      <c r="M171" s="63">
+      <c r="L171" s="58"/>
+      <c r="M171" s="58">
         <v>-0.62867412240628084</v>
       </c>
     </row>
@@ -18173,7 +18233,7 @@
       <c r="F172" s="48">
         <v>42248</v>
       </c>
-      <c r="G172" s="62">
+      <c r="G172" s="57">
         <f t="shared" si="2"/>
         <v>-3.439630377963502</v>
       </c>
@@ -18183,11 +18243,11 @@
       <c r="I172" s="49">
         <v>88.2</v>
       </c>
-      <c r="K172" s="63">
+      <c r="K172" s="58">
         <v>-0.61441933918025304</v>
       </c>
-      <c r="L172" s="63"/>
-      <c r="M172" s="63">
+      <c r="L172" s="58"/>
+      <c r="M172" s="58">
         <v>-0.61441933918025304</v>
       </c>
     </row>
@@ -18195,7 +18255,7 @@
       <c r="F173" s="48">
         <v>42278</v>
       </c>
-      <c r="G173" s="62">
+      <c r="G173" s="57">
         <f t="shared" si="2"/>
         <v>3.0289521826981729</v>
       </c>
@@ -18205,11 +18265,11 @@
       <c r="I173" s="49">
         <v>88.1</v>
       </c>
-      <c r="K173" s="63">
+      <c r="K173" s="58">
         <v>-0.54278080829257158</v>
       </c>
-      <c r="L173" s="63"/>
-      <c r="M173" s="63">
+      <c r="L173" s="58"/>
+      <c r="M173" s="58">
         <v>-0.54278080829257158</v>
       </c>
     </row>
@@ -18217,7 +18277,7 @@
       <c r="F174" s="48">
         <v>42309</v>
       </c>
-      <c r="G174" s="62">
+      <c r="G174" s="57">
         <f t="shared" si="2"/>
         <v>-10.398971352404775</v>
       </c>
@@ -18227,11 +18287,11 @@
       <c r="I174" s="49">
         <v>86.4</v>
       </c>
-      <c r="K174" s="63">
+      <c r="K174" s="58">
         <v>-4.8568033984102961</v>
       </c>
-      <c r="L174" s="63"/>
-      <c r="M174" s="63">
+      <c r="L174" s="58"/>
+      <c r="M174" s="58">
         <v>-4.8568033984102961</v>
       </c>
     </row>
@@ -18239,7 +18299,7 @@
       <c r="F175" s="48">
         <v>42339</v>
       </c>
-      <c r="G175" s="62">
+      <c r="G175" s="57">
         <f t="shared" si="2"/>
         <v>-12.638154091161514</v>
       </c>
@@ -18249,11 +18309,11 @@
       <c r="I175" s="49">
         <v>84.8</v>
       </c>
-      <c r="K175" s="63">
+      <c r="K175" s="58">
         <v>-1.5508657566764175</v>
       </c>
-      <c r="L175" s="63"/>
-      <c r="M175" s="63">
+      <c r="L175" s="58"/>
+      <c r="M175" s="58">
         <v>-1.5508657566764175</v>
       </c>
     </row>
@@ -18261,7 +18321,7 @@
       <c r="F176" s="48">
         <v>42370</v>
       </c>
-      <c r="G176" s="62">
+      <c r="G176" s="57">
         <f t="shared" si="2"/>
         <v>-1.1726518740319207</v>
       </c>
@@ -18271,11 +18331,11 @@
       <c r="I176" s="49">
         <v>86.1</v>
       </c>
-      <c r="K176" s="63">
+      <c r="K176" s="58">
         <v>-0.6123341068156114</v>
       </c>
-      <c r="L176" s="63"/>
-      <c r="M176" s="63">
+      <c r="L176" s="58"/>
+      <c r="M176" s="58">
         <v>-0.6123341068156114</v>
       </c>
     </row>
@@ -18283,7 +18343,7 @@
       <c r="F177" s="48">
         <v>42401</v>
       </c>
-      <c r="G177" s="62">
+      <c r="G177" s="57">
         <f t="shared" si="2"/>
         <v>-0.65746456420853572</v>
       </c>
@@ -18293,11 +18353,11 @@
       <c r="I177" s="49">
         <v>84.8</v>
       </c>
-      <c r="K177" s="63">
+      <c r="K177" s="58">
         <v>2.4255947644236873</v>
       </c>
-      <c r="L177" s="63"/>
-      <c r="M177" s="63">
+      <c r="L177" s="58"/>
+      <c r="M177" s="58">
         <v>2.4255947644236873</v>
       </c>
     </row>
@@ -18305,7 +18365,7 @@
       <c r="F178" s="48">
         <v>42430</v>
       </c>
-      <c r="G178" s="62">
+      <c r="G178" s="57">
         <f t="shared" si="2"/>
         <v>9.9140684847103628</v>
       </c>
@@ -18315,11 +18375,11 @@
       <c r="I178" s="49">
         <v>85.6</v>
       </c>
-      <c r="K178" s="63">
+      <c r="K178" s="58">
         <v>-0.33997491993814677</v>
       </c>
-      <c r="L178" s="63"/>
-      <c r="M178" s="63">
+      <c r="L178" s="58"/>
+      <c r="M178" s="58">
         <v>-0.33997491993814677</v>
       </c>
     </row>
@@ -18327,7 +18387,7 @@
       <c r="F179" s="48">
         <v>42461</v>
       </c>
-      <c r="G179" s="62">
+      <c r="G179" s="57">
         <f t="shared" si="2"/>
         <v>-0.8398369698831718</v>
       </c>
@@ -18337,11 +18397,11 @@
       <c r="I179" s="49">
         <v>85.4</v>
       </c>
-      <c r="K179" s="63">
+      <c r="K179" s="58">
         <v>3.2262739620532974</v>
       </c>
-      <c r="L179" s="63"/>
-      <c r="M179" s="63">
+      <c r="L179" s="58"/>
+      <c r="M179" s="58">
         <v>3.2262739620532974</v>
       </c>
     </row>
@@ -18349,7 +18409,7 @@
       <c r="F180" s="48">
         <v>42491</v>
       </c>
-      <c r="G180" s="62">
+      <c r="G180" s="57">
         <f t="shared" si="2"/>
         <v>3.8988990292784345</v>
       </c>
@@ -18359,11 +18419,11 @@
       <c r="I180" s="49">
         <v>85.8</v>
       </c>
-      <c r="K180" s="63">
+      <c r="K180" s="58">
         <v>-2.6199370695031496</v>
       </c>
-      <c r="L180" s="63"/>
-      <c r="M180" s="63">
+      <c r="L180" s="58"/>
+      <c r="M180" s="58">
         <v>-2.6199370695031496</v>
       </c>
     </row>
@@ -18371,7 +18431,7 @@
       <c r="F181" s="48">
         <v>42522</v>
       </c>
-      <c r="G181" s="62">
+      <c r="G181" s="57">
         <f t="shared" si="2"/>
         <v>1.6092301288755131</v>
       </c>
@@ -18381,11 +18441,11 @@
       <c r="I181" s="49">
         <v>84.8</v>
       </c>
-      <c r="K181" s="63">
+      <c r="K181" s="58">
         <v>2.8516238524809285</v>
       </c>
-      <c r="L181" s="63"/>
-      <c r="M181" s="63">
+      <c r="L181" s="58"/>
+      <c r="M181" s="58">
         <v>2.8516238524809285</v>
       </c>
     </row>
@@ -18393,7 +18453,7 @@
       <c r="F182" s="48">
         <v>42552</v>
       </c>
-      <c r="G182" s="62">
+      <c r="G182" s="57">
         <f t="shared" si="2"/>
         <v>2.1433420602747244</v>
       </c>
@@ -18403,11 +18463,11 @@
       <c r="I182" s="49">
         <v>85.5</v>
       </c>
-      <c r="K182" s="63">
+      <c r="K182" s="58">
         <v>-3.0867799199543686</v>
       </c>
-      <c r="L182" s="63"/>
-      <c r="M182" s="63">
+      <c r="L182" s="58"/>
+      <c r="M182" s="58">
         <v>-3.0867799199543686</v>
       </c>
     </row>
@@ -18415,7 +18475,7 @@
       <c r="F183" s="48">
         <v>42583</v>
       </c>
-      <c r="G183" s="62">
+      <c r="G183" s="57">
         <f t="shared" si="2"/>
         <v>3.7244173172371178</v>
       </c>
@@ -18425,11 +18485,11 @@
       <c r="I183" s="49">
         <v>83.5</v>
       </c>
-      <c r="K183" s="63">
+      <c r="K183" s="58">
         <v>0.92061860159462494</v>
       </c>
-      <c r="L183" s="63"/>
-      <c r="M183" s="63">
+      <c r="L183" s="58"/>
+      <c r="M183" s="58">
         <v>0.92061860159462494</v>
       </c>
     </row>
@@ -18437,7 +18497,7 @@
       <c r="F184" s="48">
         <v>42614</v>
       </c>
-      <c r="G184" s="62">
+      <c r="G184" s="57">
         <f t="shared" si="2"/>
         <v>-2.504213603216495</v>
       </c>
@@ -18447,11 +18507,11 @@
       <c r="I184" s="49">
         <v>84.4</v>
       </c>
-      <c r="K184" s="63">
+      <c r="K184" s="58">
         <v>0.32099743556675397</v>
       </c>
-      <c r="L184" s="63"/>
-      <c r="M184" s="63">
+      <c r="L184" s="58"/>
+      <c r="M184" s="58">
         <v>0.32099743556675397</v>
       </c>
     </row>
@@ -18459,7 +18519,7 @@
       <c r="F185" s="48">
         <v>42644</v>
       </c>
-      <c r="G185" s="62">
+      <c r="G185" s="57">
         <f t="shared" si="2"/>
         <v>-0.55279300525129427</v>
       </c>
@@ -18469,11 +18529,11 @@
       <c r="I185" s="49">
         <v>83.3</v>
       </c>
-      <c r="K185" s="63">
+      <c r="K185" s="58">
         <v>-4.1245259962420384</v>
       </c>
-      <c r="L185" s="63"/>
-      <c r="M185" s="63">
+      <c r="L185" s="58"/>
+      <c r="M185" s="58">
         <v>-4.1245259962420384</v>
       </c>
     </row>
@@ -18481,7 +18541,7 @@
       <c r="F186" s="48">
         <v>42675</v>
       </c>
-      <c r="G186" s="62">
+      <c r="G186" s="57">
         <f t="shared" si="2"/>
         <v>-4.1885013130744326</v>
       </c>
@@ -18491,11 +18551,11 @@
       <c r="I186" s="49">
         <v>84</v>
       </c>
-      <c r="K186" s="63">
+      <c r="K186" s="58">
         <v>1.3536666409200464</v>
       </c>
-      <c r="L186" s="63"/>
-      <c r="M186" s="63">
+      <c r="L186" s="58"/>
+      <c r="M186" s="58">
         <v>1.3536666409200464</v>
       </c>
     </row>
@@ -18503,7 +18563,7 @@
       <c r="F187" s="48">
         <v>42705</v>
       </c>
-      <c r="G187" s="62">
+      <c r="G187" s="57">
         <f t="shared" si="2"/>
         <v>-11.374495690710315</v>
       </c>
@@ -18513,11 +18573,11 @@
       <c r="I187" s="49">
         <v>85.5</v>
       </c>
-      <c r="K187" s="63">
+      <c r="K187" s="58">
         <v>-0.28720735622521865</v>
       </c>
-      <c r="L187" s="63"/>
-      <c r="M187" s="63">
+      <c r="L187" s="58"/>
+      <c r="M187" s="58">
         <v>-0.28720735622521865</v>
       </c>
     </row>
@@ -18525,7 +18585,7 @@
       <c r="F188" s="48">
         <v>42736</v>
       </c>
-      <c r="G188" s="62">
+      <c r="G188" s="57">
         <f t="shared" si="2"/>
         <v>0.90264958459721245</v>
       </c>
@@ -18535,11 +18595,11 @@
       <c r="I188" s="49">
         <v>86.4</v>
       </c>
-      <c r="K188" s="63">
+      <c r="K188" s="58">
         <v>1.4629673518135218</v>
       </c>
-      <c r="L188" s="63"/>
-      <c r="M188" s="63">
+      <c r="L188" s="58"/>
+      <c r="M188" s="58">
         <v>1.4629673518135218</v>
       </c>
     </row>
@@ -18547,7 +18607,7 @@
       <c r="F189" s="48">
         <v>42767</v>
       </c>
-      <c r="G189" s="62">
+      <c r="G189" s="57">
         <f t="shared" si="2"/>
         <v>-2.6009268475118326</v>
       </c>
@@ -18557,11 +18617,11 @@
       <c r="I189" s="49">
         <v>87.4</v>
       </c>
-      <c r="K189" s="63">
+      <c r="K189" s="58">
         <v>0.4821324811203902</v>
       </c>
-      <c r="L189" s="63"/>
-      <c r="M189" s="63">
+      <c r="L189" s="58"/>
+      <c r="M189" s="58">
         <v>0.4821324811203902</v>
       </c>
     </row>
@@ -18569,7 +18629,7 @@
       <c r="F190" s="48">
         <v>42795</v>
       </c>
-      <c r="G190" s="62">
+      <c r="G190" s="57">
         <f t="shared" si="2"/>
         <v>11.792941639294002</v>
       </c>
@@ -18579,11 +18639,11 @@
       <c r="I190" s="49">
         <v>85.6</v>
       </c>
-      <c r="K190" s="63">
+      <c r="K190" s="58">
         <v>1.538898234645492</v>
       </c>
-      <c r="L190" s="63"/>
-      <c r="M190" s="63">
+      <c r="L190" s="58"/>
+      <c r="M190" s="58">
         <v>1.538898234645492</v>
       </c>
     </row>
@@ -18591,7 +18651,7 @@
       <c r="F191" s="48">
         <v>42826</v>
       </c>
-      <c r="G191" s="62">
+      <c r="G191" s="57">
         <f t="shared" si="2"/>
         <v>-7.4107972153721962</v>
       </c>
@@ -18601,11 +18661,11 @@
       <c r="I191" s="49">
         <v>85.9</v>
       </c>
-      <c r="K191" s="63">
+      <c r="K191" s="58">
         <v>-3.3446862834357267</v>
       </c>
-      <c r="L191" s="63"/>
-      <c r="M191" s="63">
+      <c r="L191" s="58"/>
+      <c r="M191" s="58">
         <v>-3.3446862834357267</v>
       </c>
     </row>
@@ -18613,7 +18673,7 @@
       <c r="F192" s="48">
         <v>42856</v>
       </c>
-      <c r="G192" s="62">
+      <c r="G192" s="57">
         <f t="shared" si="2"/>
         <v>12.768203597348998</v>
       </c>
@@ -18623,11 +18683,11 @@
       <c r="I192" s="49">
         <v>86.2</v>
       </c>
-      <c r="K192" s="63">
+      <c r="K192" s="58">
         <v>6.2493674985674144</v>
       </c>
-      <c r="L192" s="63"/>
-      <c r="M192" s="63">
+      <c r="L192" s="58"/>
+      <c r="M192" s="58">
         <v>6.2493674985674144</v>
       </c>
     </row>
@@ -18635,7 +18695,7 @@
       <c r="F193" s="48">
         <v>42887</v>
       </c>
-      <c r="G193" s="62">
+      <c r="G193" s="57">
         <f t="shared" si="2"/>
         <v>-1.9048194970694363</v>
       </c>
@@ -18645,11 +18705,11 @@
       <c r="I193" s="49">
         <v>87</v>
       </c>
-      <c r="K193" s="63">
+      <c r="K193" s="58">
         <v>-0.66242577346402109</v>
       </c>
-      <c r="L193" s="63"/>
-      <c r="M193" s="63">
+      <c r="L193" s="58"/>
+      <c r="M193" s="58">
         <v>-0.66242577346402109</v>
       </c>
     </row>
@@ -18657,7 +18717,7 @@
       <c r="F194" s="48">
         <v>42917</v>
       </c>
-      <c r="G194" s="62">
+      <c r="G194" s="57">
         <f t="shared" si="2"/>
         <v>4.1002973617663265</v>
       </c>
@@ -18667,11 +18727,11 @@
       <c r="I194" s="49">
         <v>87.3</v>
       </c>
-      <c r="K194" s="63">
+      <c r="K194" s="58">
         <v>-1.1298246184627665</v>
       </c>
-      <c r="L194" s="63"/>
-      <c r="M194" s="63">
+      <c r="L194" s="58"/>
+      <c r="M194" s="58">
         <v>-1.1298246184627665</v>
       </c>
     </row>
@@ -18679,7 +18739,7 @@
       <c r="F195" s="48">
         <v>42948</v>
       </c>
-      <c r="G195" s="62">
+      <c r="G195" s="57">
         <f t="shared" si="2"/>
         <v>4.8738459197987503</v>
       </c>
@@ -18689,11 +18749,11 @@
       <c r="I195" s="49">
         <v>87</v>
       </c>
-      <c r="K195" s="63">
+      <c r="K195" s="58">
         <v>2.0700472041562574</v>
       </c>
-      <c r="L195" s="63"/>
-      <c r="M195" s="63">
+      <c r="L195" s="58"/>
+      <c r="M195" s="58">
         <v>2.0700472041562574</v>
       </c>
     </row>
@@ -18701,7 +18761,7 @@
       <c r="F196" s="48">
         <v>42979</v>
       </c>
-      <c r="G196" s="62">
+      <c r="G196" s="57">
         <f t="shared" si="2"/>
         <v>-3.901390930599276</v>
       </c>
@@ -18711,11 +18771,11 @@
       <c r="I196" s="49">
         <v>87.4</v>
       </c>
-      <c r="K196" s="63">
+      <c r="K196" s="58">
         <v>-1.076179891816027</v>
       </c>
-      <c r="L196" s="63"/>
-      <c r="M196" s="63">
+      <c r="L196" s="58"/>
+      <c r="M196" s="58">
         <v>-1.076179891816027</v>
       </c>
     </row>
@@ -18723,7 +18783,7 @@
       <c r="F197" s="48">
         <v>43009</v>
       </c>
-      <c r="G197" s="62">
+      <c r="G197" s="57">
         <f t="shared" si="2"/>
         <v>2.2329476398088577</v>
       </c>
@@ -18733,11 +18793,11 @@
       <c r="I197" s="49">
         <v>88</v>
       </c>
-      <c r="K197" s="63">
+      <c r="K197" s="58">
         <v>-1.3387853511818868</v>
       </c>
-      <c r="L197" s="63"/>
-      <c r="M197" s="63">
+      <c r="L197" s="58"/>
+      <c r="M197" s="58">
         <v>-1.3387853511818868</v>
       </c>
     </row>
@@ -18745,7 +18805,7 @@
       <c r="F198" s="48">
         <v>43040</v>
       </c>
-      <c r="G198" s="62">
+      <c r="G198" s="57">
         <f t="shared" si="2"/>
         <v>-4.8474756502411021</v>
       </c>
@@ -18755,11 +18815,11 @@
       <c r="I198" s="49">
         <v>88.4</v>
       </c>
-      <c r="K198" s="63">
+      <c r="K198" s="58">
         <v>0.69469230375337698</v>
       </c>
-      <c r="L198" s="63"/>
-      <c r="M198" s="63">
+      <c r="L198" s="58"/>
+      <c r="M198" s="58">
         <v>0.69469230375337698</v>
       </c>
     </row>
@@ -18767,7 +18827,7 @@
       <c r="F199" s="48">
         <v>43070</v>
       </c>
-      <c r="G199" s="62">
+      <c r="G199" s="57">
         <f t="shared" si="2"/>
         <v>-11.200505837649487</v>
       </c>
@@ -18777,11 +18837,11 @@
       <c r="I199" s="49">
         <v>91.3</v>
       </c>
-      <c r="K199" s="63">
+      <c r="K199" s="58">
         <v>-0.11321750316439075</v>
       </c>
-      <c r="L199" s="63"/>
-      <c r="M199" s="63">
+      <c r="L199" s="58"/>
+      <c r="M199" s="58">
         <v>-0.11321750316439075</v>
       </c>
     </row>
@@ -18789,7 +18849,7 @@
       <c r="F200" s="48">
         <v>43101</v>
       </c>
-      <c r="G200" s="62">
+      <c r="G200" s="57">
         <f t="shared" si="2"/>
         <v>1.5921953010585257</v>
       </c>
@@ -18799,11 +18859,11 @@
       <c r="I200" s="49">
         <v>88.9</v>
       </c>
-      <c r="K200" s="63">
+      <c r="K200" s="58">
         <v>2.152513068274835</v>
       </c>
-      <c r="L200" s="63"/>
-      <c r="M200" s="63">
+      <c r="L200" s="58"/>
+      <c r="M200" s="58">
         <v>2.152513068274835</v>
       </c>
     </row>
@@ -18811,7 +18871,7 @@
       <c r="F201" s="48">
         <v>43132</v>
       </c>
-      <c r="G201" s="62">
+      <c r="G201" s="57">
         <f t="shared" si="2"/>
         <v>-6.2677152089647858</v>
       </c>
@@ -18821,11 +18881,11 @@
       <c r="I201" s="49">
         <v>88.6</v>
       </c>
-      <c r="K201" s="63">
+      <c r="K201" s="58">
         <v>-3.1846558803325631</v>
       </c>
-      <c r="L201" s="63"/>
-      <c r="M201" s="63">
+      <c r="L201" s="58"/>
+      <c r="M201" s="58">
         <v>-3.1846558803325631</v>
       </c>
     </row>
@@ -18833,7 +18893,7 @@
       <c r="F202" s="48">
         <v>43160</v>
       </c>
-      <c r="G202" s="62">
+      <c r="G202" s="57">
         <f t="shared" ref="G202:G247" si="3">LN(H202/H201)*100</f>
         <v>10.897622207627112</v>
       </c>
@@ -18843,11 +18903,11 @@
       <c r="I202" s="49">
         <v>89.7</v>
       </c>
-      <c r="K202" s="63">
+      <c r="K202" s="58">
         <v>0.64357880297860248</v>
       </c>
-      <c r="L202" s="63"/>
-      <c r="M202" s="63">
+      <c r="L202" s="58"/>
+      <c r="M202" s="58">
         <v>0.64357880297860248</v>
       </c>
     </row>
@@ -18855,7 +18915,7 @@
       <c r="F203" s="48">
         <v>43191</v>
       </c>
-      <c r="G203" s="62">
+      <c r="G203" s="57">
         <f t="shared" si="3"/>
         <v>0.34742362681862726</v>
       </c>
@@ -18865,11 +18925,11 @@
       <c r="I203" s="49">
         <v>90.1</v>
       </c>
-      <c r="K203" s="63">
+      <c r="K203" s="58">
         <v>4.4135345587550967</v>
       </c>
-      <c r="L203" s="63"/>
-      <c r="M203" s="63">
+      <c r="L203" s="58"/>
+      <c r="M203" s="58">
         <v>4.4135345587550967</v>
       </c>
     </row>
@@ -18877,7 +18937,7 @@
       <c r="F204" s="48">
         <v>43221</v>
       </c>
-      <c r="G204" s="62">
+      <c r="G204" s="57">
         <f t="shared" si="3"/>
         <v>-2.4577012335922137</v>
       </c>
@@ -18887,11 +18947,11 @@
       <c r="I204" s="49">
         <v>80.2</v>
       </c>
-      <c r="K204" s="63">
+      <c r="K204" s="58">
         <v>-8.9765373323737983</v>
       </c>
-      <c r="L204" s="63"/>
-      <c r="M204" s="63">
+      <c r="L204" s="58"/>
+      <c r="M204" s="58">
         <v>-8.9765373323737983</v>
       </c>
     </row>
@@ -18899,7 +18959,7 @@
       <c r="F205" s="48">
         <v>43252</v>
       </c>
-      <c r="G205" s="62">
+      <c r="G205" s="57">
         <f t="shared" si="3"/>
         <v>7.6390402664001016</v>
       </c>
@@ -18909,11 +18969,11 @@
       <c r="I205" s="49">
         <v>90.3</v>
       </c>
-      <c r="K205" s="63">
+      <c r="K205" s="58">
         <v>8.881433990005517</v>
       </c>
-      <c r="L205" s="63"/>
-      <c r="M205" s="63">
+      <c r="L205" s="58"/>
+      <c r="M205" s="58">
         <v>8.881433990005517</v>
       </c>
     </row>
@@ -18921,7 +18981,7 @@
       <c r="F206" s="48">
         <v>43282</v>
       </c>
-      <c r="G206" s="62">
+      <c r="G206" s="57">
         <f t="shared" si="3"/>
         <v>5.0304880710902253</v>
       </c>
@@ -18931,11 +18991,11 @@
       <c r="I206" s="49">
         <v>90.1</v>
       </c>
-      <c r="K206" s="63">
+      <c r="K206" s="58">
         <v>-0.19963390913886772</v>
       </c>
-      <c r="L206" s="63"/>
-      <c r="M206" s="63">
+      <c r="L206" s="58"/>
+      <c r="M206" s="58">
         <v>-0.19963390913886772</v>
       </c>
     </row>
@@ -18943,7 +19003,7 @@
       <c r="F207" s="48">
         <v>43313</v>
       </c>
-      <c r="G207" s="62">
+      <c r="G207" s="57">
         <f t="shared" si="3"/>
         <v>2.4743530383605368</v>
       </c>
@@ -18953,11 +19013,11 @@
       <c r="I207" s="49">
         <v>88.9</v>
       </c>
-      <c r="K207" s="63">
+      <c r="K207" s="58">
         <v>-0.32944567728195606</v>
       </c>
-      <c r="L207" s="63"/>
-      <c r="M207" s="63">
+      <c r="L207" s="58"/>
+      <c r="M207" s="58">
         <v>-0.32944567728195606</v>
       </c>
     </row>
@@ -18965,7 +19025,7 @@
       <c r="F208" s="48">
         <v>43344</v>
       </c>
-      <c r="G208" s="62">
+      <c r="G208" s="57">
         <f t="shared" si="3"/>
         <v>-7.9448858239329327</v>
       </c>
@@ -18975,11 +19035,11 @@
       <c r="I208" s="49">
         <v>86.5</v>
       </c>
-      <c r="K208" s="63">
+      <c r="K208" s="58">
         <v>-5.1196747851496838</v>
       </c>
-      <c r="L208" s="63"/>
-      <c r="M208" s="63">
+      <c r="L208" s="58"/>
+      <c r="M208" s="58">
         <v>-5.1196747851496838</v>
       </c>
     </row>
@@ -18987,7 +19047,7 @@
       <c r="F209" s="48">
         <v>43374</v>
       </c>
-      <c r="G209" s="62">
+      <c r="G209" s="57">
         <f t="shared" si="3"/>
         <v>5.4705327855723951</v>
       </c>
@@ -18997,11 +19057,11 @@
       <c r="I209" s="49">
         <v>87.5</v>
       </c>
-      <c r="K209" s="63">
+      <c r="K209" s="58">
         <v>1.8987997945816506</v>
       </c>
-      <c r="L209" s="63"/>
-      <c r="M209" s="63">
+      <c r="L209" s="58"/>
+      <c r="M209" s="58">
         <v>1.8987997945816506</v>
       </c>
     </row>
@@ -19009,7 +19069,7 @@
       <c r="F210" s="48">
         <v>43405</v>
       </c>
-      <c r="G210" s="62">
+      <c r="G210" s="57">
         <f t="shared" si="3"/>
         <v>-6.8024059696005086</v>
       </c>
@@ -19019,11 +19079,11 @@
       <c r="I210" s="49">
         <v>87.5</v>
       </c>
-      <c r="K210" s="63">
+      <c r="K210" s="58">
         <v>-1.2602380156060295</v>
       </c>
-      <c r="L210" s="63"/>
-      <c r="M210" s="63">
+      <c r="L210" s="58"/>
+      <c r="M210" s="58">
         <v>-1.2602380156060295</v>
       </c>
     </row>
@@ -19031,7 +19091,7 @@
       <c r="F211" s="48">
         <v>43435</v>
       </c>
-      <c r="G211" s="62">
+      <c r="G211" s="57">
         <f t="shared" si="3"/>
         <v>-13.752979859121798</v>
       </c>
@@ -19041,11 +19101,11 @@
       <c r="I211" s="49">
         <v>87.8</v>
       </c>
-      <c r="K211" s="63">
+      <c r="K211" s="58">
         <v>-2.665691524636701</v>
       </c>
-      <c r="L211" s="63"/>
-      <c r="M211" s="63">
+      <c r="L211" s="58"/>
+      <c r="M211" s="58">
         <v>-2.665691524636701</v>
       </c>
     </row>
@@ -19053,7 +19113,7 @@
       <c r="F212" s="48">
         <v>43466</v>
       </c>
-      <c r="G212" s="62">
+      <c r="G212" s="57">
         <f t="shared" si="3"/>
         <v>3.402974858631147</v>
       </c>
@@ -19063,11 +19123,11 @@
       <c r="I212" s="49">
         <v>86.9</v>
       </c>
-      <c r="K212" s="63">
+      <c r="K212" s="58">
         <v>3.9632926258474566</v>
       </c>
-      <c r="L212" s="63"/>
-      <c r="M212" s="63">
+      <c r="L212" s="58"/>
+      <c r="M212" s="58">
         <v>3.9632926258474566</v>
       </c>
     </row>
@@ -19075,7 +19135,7 @@
       <c r="F213" s="48">
         <v>43497</v>
       </c>
-      <c r="G213" s="62">
+      <c r="G213" s="57">
         <f t="shared" si="3"/>
         <v>-2.0025700502295027</v>
       </c>
@@ -19085,11 +19145,11 @@
       <c r="I213" s="49">
         <v>87.4</v>
       </c>
-      <c r="K213" s="63">
+      <c r="K213" s="58">
         <v>1.08048927840272</v>
       </c>
-      <c r="L213" s="63"/>
-      <c r="M213" s="63">
+      <c r="L213" s="58"/>
+      <c r="M213" s="58">
         <v>1.08048927840272</v>
       </c>
     </row>
@@ -19097,7 +19157,7 @@
       <c r="F214" s="48">
         <v>43525</v>
       </c>
-      <c r="G214" s="62">
+      <c r="G214" s="57">
         <f t="shared" si="3"/>
         <v>2.3736279898830737</v>
       </c>
@@ -19107,11 +19167,11 @@
       <c r="I214" s="49">
         <v>87.2</v>
       </c>
-      <c r="K214" s="63">
+      <c r="K214" s="58">
         <v>-7.8804154147654355</v>
       </c>
-      <c r="L214" s="63"/>
-      <c r="M214" s="63">
+      <c r="L214" s="58"/>
+      <c r="M214" s="58">
         <v>-7.8804154147654355</v>
       </c>
     </row>
@@ -19119,7 +19179,7 @@
       <c r="F215" s="48">
         <v>43556</v>
       </c>
-      <c r="G215" s="62">
+      <c r="G215" s="57">
         <f t="shared" si="3"/>
         <v>2.799939450035819</v>
       </c>
@@ -19129,11 +19189,11 @@
       <c r="I215" s="49">
         <v>87.5</v>
       </c>
-      <c r="K215" s="63">
+      <c r="K215" s="58">
         <v>6.866050381972288</v>
       </c>
-      <c r="L215" s="63"/>
-      <c r="M215" s="63">
+      <c r="L215" s="58"/>
+      <c r="M215" s="58">
         <v>6.866050381972288</v>
       </c>
     </row>
@@ -19141,7 +19201,7 @@
       <c r="F216" s="48">
         <v>43586</v>
       </c>
-      <c r="G216" s="62">
+      <c r="G216" s="57">
         <f t="shared" si="3"/>
         <v>8.8410957344053145</v>
       </c>
@@ -19151,11 +19211,11 @@
       <c r="I216" s="49">
         <v>87.4</v>
       </c>
-      <c r="K216" s="63">
+      <c r="K216" s="58">
         <v>2.3222596356237304</v>
       </c>
-      <c r="L216" s="63"/>
-      <c r="M216" s="63">
+      <c r="L216" s="58"/>
+      <c r="M216" s="58">
         <v>2.3222596356237304</v>
       </c>
     </row>
@@ -19163,7 +19223,7 @@
       <c r="F217" s="48">
         <v>43617</v>
       </c>
-      <c r="G217" s="62">
+      <c r="G217" s="57">
         <f t="shared" si="3"/>
         <v>-5.8840500022933462</v>
       </c>
@@ -19173,11 +19233,11 @@
       <c r="I217" s="49">
         <v>86.6</v>
       </c>
-      <c r="K217" s="63">
+      <c r="K217" s="58">
         <v>-4.6416562786879307</v>
       </c>
-      <c r="L217" s="63"/>
-      <c r="M217" s="63">
+      <c r="L217" s="58"/>
+      <c r="M217" s="58">
         <v>-4.6416562786879307</v>
       </c>
     </row>
@@ -19185,7 +19245,7 @@
       <c r="F218" s="48">
         <v>43647</v>
       </c>
-      <c r="G218" s="62">
+      <c r="G218" s="57">
         <f t="shared" si="3"/>
         <v>8.4872338740880444</v>
       </c>
@@ -19195,11 +19255,11 @@
       <c r="I218" s="49">
         <v>86</v>
       </c>
-      <c r="K218" s="63">
+      <c r="K218" s="58">
         <v>3.2571118938589514</v>
       </c>
-      <c r="L218" s="63"/>
-      <c r="M218" s="63">
+      <c r="L218" s="58"/>
+      <c r="M218" s="58">
         <v>3.2571118938589514</v>
       </c>
     </row>
@@ -19207,7 +19267,7 @@
       <c r="F219" s="48">
         <v>43678</v>
       </c>
-      <c r="G219" s="62">
+      <c r="G219" s="57">
         <f t="shared" si="3"/>
         <v>2.9538012436863874</v>
       </c>
@@ -19217,11 +19277,11 @@
       <c r="I219" s="49">
         <v>87</v>
       </c>
-      <c r="K219" s="63">
+      <c r="K219" s="58">
         <v>0.15000252804389455</v>
       </c>
-      <c r="L219" s="63"/>
-      <c r="M219" s="63">
+      <c r="L219" s="58"/>
+      <c r="M219" s="58">
         <v>0.15000252804389455</v>
       </c>
     </row>
@@ -19229,7 +19289,7 @@
       <c r="F220" s="48">
         <v>43709</v>
       </c>
-      <c r="G220" s="62">
+      <c r="G220" s="57">
         <f t="shared" si="3"/>
         <v>-4.6817060045216028</v>
       </c>
@@ -19239,11 +19299,11 @@
       <c r="I220" s="49">
         <v>86.9</v>
       </c>
-      <c r="K220" s="63">
+      <c r="K220" s="58">
         <v>-1.8564949657383538</v>
       </c>
-      <c r="L220" s="63"/>
-      <c r="M220" s="63">
+      <c r="L220" s="58"/>
+      <c r="M220" s="58">
         <v>-1.8564949657383538</v>
       </c>
     </row>
@@ -19251,7 +19311,7 @@
       <c r="F221" s="48">
         <v>43739</v>
       </c>
-      <c r="G221" s="62">
+      <c r="G221" s="57">
         <f t="shared" si="3"/>
         <v>5.5098680876938131</v>
       </c>
@@ -19261,11 +19321,11 @@
       <c r="I221" s="49">
         <v>88.6</v>
       </c>
-      <c r="K221" s="63">
+      <c r="K221" s="58">
         <v>1.9381350967030686</v>
       </c>
-      <c r="L221" s="63"/>
-      <c r="M221" s="63">
+      <c r="L221" s="58"/>
+      <c r="M221" s="58">
         <v>1.9381350967030686</v>
       </c>
     </row>
@@ -19273,7 +19333,7 @@
       <c r="F222" s="48">
         <v>43770</v>
       </c>
-      <c r="G222" s="62">
+      <c r="G222" s="57">
         <f t="shared" si="3"/>
         <v>-9.7374164025176366</v>
       </c>
@@ -19283,11 +19343,11 @@
       <c r="I222" s="49">
         <v>86.8</v>
       </c>
-      <c r="K222" s="63">
+      <c r="K222" s="58">
         <v>-4.1952484485231576</v>
       </c>
-      <c r="L222" s="63"/>
-      <c r="M222" s="63">
+      <c r="L222" s="58"/>
+      <c r="M222" s="58">
         <v>-4.1952484485231576</v>
       </c>
     </row>
@@ -19295,7 +19355,7 @@
       <c r="F223" s="48">
         <v>43800</v>
       </c>
-      <c r="G223" s="62">
+      <c r="G223" s="57">
         <f t="shared" si="3"/>
         <v>-13.483093796660814</v>
       </c>
@@ -19305,11 +19365,11 @@
       <c r="I223" s="49">
         <v>85.8</v>
       </c>
-      <c r="K223" s="63">
+      <c r="K223" s="58">
         <v>-2.3958054621757174</v>
       </c>
-      <c r="L223" s="63"/>
-      <c r="M223" s="63">
+      <c r="L223" s="58"/>
+      <c r="M223" s="58">
         <v>-2.3958054621757174</v>
       </c>
     </row>
@@ -19317,7 +19377,7 @@
       <c r="F224" s="48">
         <v>43831</v>
       </c>
-      <c r="G224" s="62">
+      <c r="G224" s="57">
         <f t="shared" si="3"/>
         <v>3.9520758162283198</v>
       </c>
@@ -19327,11 +19387,11 @@
       <c r="I224" s="49">
         <v>86.6</v>
       </c>
-      <c r="K224" s="63">
+      <c r="K224" s="58">
         <v>4.5123935834446289</v>
       </c>
-      <c r="L224" s="63"/>
-      <c r="M224" s="63">
+      <c r="L224" s="58"/>
+      <c r="M224" s="58">
         <v>4.5123935834446289</v>
       </c>
     </row>
@@ -19339,7 +19399,7 @@
       <c r="F225" s="48">
         <v>43862</v>
       </c>
-      <c r="G225" s="62">
+      <c r="G225" s="57">
         <f t="shared" si="3"/>
         <v>-1.3845406822052981</v>
       </c>
@@ -19349,11 +19409,11 @@
       <c r="I225" s="49">
         <v>87.5</v>
       </c>
-      <c r="K225" s="63">
+      <c r="K225" s="58">
         <v>1.6985186464269246</v>
       </c>
-      <c r="L225" s="63"/>
-      <c r="M225" s="63">
+      <c r="L225" s="58"/>
+      <c r="M225" s="58">
         <v>1.6985186464269246</v>
       </c>
     </row>
@@ -19361,7 +19421,7 @@
       <c r="F226" s="48">
         <v>43891</v>
       </c>
-      <c r="G226" s="62">
+      <c r="G226" s="57">
         <f t="shared" si="3"/>
         <v>-1.2755274975126014</v>
       </c>
@@ -19371,11 +19431,11 @@
       <c r="I226" s="49">
         <v>80.7</v>
       </c>
-      <c r="K226" s="63">
+      <c r="K226" s="58">
         <v>-11.529570902161112</v>
       </c>
-      <c r="L226" s="63"/>
-      <c r="M226" s="63">
+      <c r="L226" s="58"/>
+      <c r="M226" s="58">
         <v>-11.529570902161112</v>
       </c>
     </row>
@@ -19383,7 +19443,7 @@
       <c r="F227" s="48">
         <v>43922</v>
       </c>
-      <c r="G227" s="62">
+      <c r="G227" s="57">
         <f t="shared" si="3"/>
         <v>-25.609384914356298</v>
       </c>
@@ -19393,11 +19453,11 @@
       <c r="I227" s="49">
         <v>64.900000000000006</v>
       </c>
-      <c r="K227" s="63">
+      <c r="K227" s="58">
         <v>-21.54327398241983</v>
       </c>
-      <c r="L227" s="63"/>
-      <c r="M227" s="63">
+      <c r="L227" s="58"/>
+      <c r="M227" s="58">
         <v>-21.54327398241983</v>
       </c>
     </row>
@@ -19405,7 +19465,7 @@
       <c r="F228" s="48">
         <v>43952</v>
       </c>
-      <c r="G228" s="62">
+      <c r="G228" s="57">
         <f t="shared" si="3"/>
         <v>16.616071468479046</v>
       </c>
@@ -19415,11 +19475,11 @@
       <c r="I228" s="49">
         <v>70.099999999999994</v>
       </c>
-      <c r="K228" s="63">
+      <c r="K228" s="58">
         <v>10.097235369697461</v>
       </c>
-      <c r="L228" s="63"/>
-      <c r="M228" s="63">
+      <c r="L228" s="58"/>
+      <c r="M228" s="58">
         <v>10.097235369697461</v>
       </c>
     </row>
@@ -19427,7 +19487,7 @@
       <c r="F229" s="48">
         <v>43983</v>
       </c>
-      <c r="G229" s="62">
+      <c r="G229" s="57">
         <f t="shared" si="3"/>
         <v>9.6331108938432113</v>
       </c>
@@ -19437,11 +19497,11 @@
       <c r="I229" s="49">
         <v>76.8</v>
       </c>
-      <c r="K229" s="63">
+      <c r="K229" s="58">
         <v>10.875504617448627</v>
       </c>
-      <c r="L229" s="63"/>
-      <c r="M229" s="63">
+      <c r="L229" s="58"/>
+      <c r="M229" s="58">
         <v>10.875504617448627</v>
       </c>
     </row>
@@ -19449,7 +19509,7 @@
       <c r="F230" s="48">
         <v>44013</v>
       </c>
-      <c r="G230" s="62">
+      <c r="G230" s="57">
         <f t="shared" si="3"/>
         <v>14.903557916048776</v>
       </c>
@@ -19459,11 +19519,11 @@
       <c r="I230" s="49">
         <v>83.9</v>
       </c>
-      <c r="K230" s="63">
+      <c r="K230" s="58">
         <v>9.6734359358196826</v>
       </c>
-      <c r="L230" s="63"/>
-      <c r="M230" s="63">
+      <c r="L230" s="58"/>
+      <c r="M230" s="58">
         <v>9.6734359358196826</v>
       </c>
     </row>
@@ -19471,7 +19531,7 @@
       <c r="F231" s="48">
         <v>44044</v>
       </c>
-      <c r="G231" s="62">
+      <c r="G231" s="57">
         <f t="shared" si="3"/>
         <v>3.1370879697367284</v>
       </c>
@@ -19481,11 +19541,11 @@
       <c r="I231" s="49">
         <v>86.3</v>
       </c>
-      <c r="K231" s="63">
+      <c r="K231" s="58">
         <v>0.3332892540942356</v>
       </c>
-      <c r="L231" s="63"/>
-      <c r="M231" s="63">
+      <c r="L231" s="58"/>
+      <c r="M231" s="58">
         <v>0.3332892540942356</v>
       </c>
     </row>
@@ -19493,7 +19553,7 @@
       <c r="F232" s="48">
         <v>44075</v>
       </c>
-      <c r="G232" s="62">
+      <c r="G232" s="57">
         <f t="shared" si="3"/>
         <v>1.5848192240023713</v>
       </c>
@@ -19503,11 +19563,11 @@
       <c r="I232" s="49">
         <v>88.6</v>
       </c>
-      <c r="K232" s="63">
+      <c r="K232" s="58">
         <v>4.4100302627856198</v>
       </c>
-      <c r="L232" s="63"/>
-      <c r="M232" s="63">
+      <c r="L232" s="58"/>
+      <c r="M232" s="58">
         <v>4.4100302627856198</v>
       </c>
     </row>
@@ -19515,7 +19575,7 @@
       <c r="F233" s="48">
         <v>44105</v>
       </c>
-      <c r="G233" s="62">
+      <c r="G233" s="57">
         <f t="shared" si="3"/>
         <v>1.9720410737718495</v>
       </c>
@@ -19525,11 +19585,11 @@
       <c r="I233" s="49">
         <v>89.6</v>
       </c>
-      <c r="K233" s="63">
+      <c r="K233" s="58">
         <v>-1.599691917218895</v>
       </c>
-      <c r="L233" s="63"/>
-      <c r="M233" s="63">
+      <c r="L233" s="58"/>
+      <c r="M233" s="58">
         <v>-1.599691917218895</v>
       </c>
     </row>
@@ -19537,7 +19597,7 @@
       <c r="F234" s="48">
         <v>44136</v>
       </c>
-      <c r="G234" s="62">
+      <c r="G234" s="57">
         <f t="shared" si="3"/>
         <v>-7.5769562123381347</v>
       </c>
@@ -19547,11 +19607,11 @@
       <c r="I234" s="49">
         <v>90</v>
       </c>
-      <c r="K234" s="63">
+      <c r="K234" s="58">
         <v>-2.0347882583436556</v>
       </c>
-      <c r="L234" s="63"/>
-      <c r="M234" s="63">
+      <c r="L234" s="58"/>
+      <c r="M234" s="58">
         <v>-2.0347882583436556</v>
       </c>
     </row>
@@ -19559,7 +19619,7 @@
       <c r="F235" s="48">
         <v>44166</v>
       </c>
-      <c r="G235" s="62">
+      <c r="G235" s="57">
         <f t="shared" si="3"/>
         <v>-7.9580877895781015</v>
       </c>
@@ -19569,11 +19629,11 @@
       <c r="I235" s="49">
         <v>90.3</v>
       </c>
-      <c r="K235" s="63">
+      <c r="K235" s="58">
         <v>3.1292005449069951</v>
       </c>
-      <c r="L235" s="63"/>
-      <c r="M235" s="63">
+      <c r="L235" s="58"/>
+      <c r="M235" s="58">
         <v>3.1292005449069951</v>
       </c>
     </row>
@@ -19581,7 +19641,7 @@
       <c r="F236" s="48">
         <v>44197</v>
       </c>
-      <c r="G236" s="62">
+      <c r="G236" s="57">
         <f t="shared" si="3"/>
         <v>-1.6949558313773205</v>
       </c>
@@ -19591,11 +19651,11 @@
       <c r="I236" s="49">
         <v>90.7</v>
       </c>
-      <c r="K236" s="63">
+      <c r="K236" s="58">
         <v>-1.1346380641610112</v>
       </c>
-      <c r="L236" s="63"/>
-      <c r="M236" s="63">
+      <c r="L236" s="58"/>
+      <c r="M236" s="58">
         <v>-1.1346380641610112</v>
       </c>
     </row>
@@ -19603,7 +19663,7 @@
       <c r="F237" s="48">
         <v>44228</v>
       </c>
-      <c r="G237" s="62">
+      <c r="G237" s="57">
         <f t="shared" si="3"/>
         <v>-3.4786116085415655</v>
       </c>
@@ -19613,11 +19673,11 @@
       <c r="I237" s="49">
         <v>89.7</v>
       </c>
-      <c r="K237" s="63">
+      <c r="K237" s="58">
         <v>-0.39555227990934272</v>
       </c>
-      <c r="L237" s="63"/>
-      <c r="M237" s="63">
+      <c r="L237" s="58"/>
+      <c r="M237" s="58">
         <v>-0.39555227990934272</v>
       </c>
     </row>
@@ -19625,7 +19685,7 @@
       <c r="F238" s="48">
         <v>44256</v>
       </c>
-      <c r="G238" s="62">
+      <c r="G238" s="57">
         <f t="shared" si="3"/>
         <v>8.4796536660076853</v>
       </c>
@@ -19635,11 +19695,11 @@
       <c r="I238" s="49">
         <v>87.5</v>
       </c>
-      <c r="K238" s="63">
+      <c r="K238" s="58">
         <v>-1.7743897386408243</v>
       </c>
-      <c r="L238" s="63"/>
-      <c r="M238" s="63">
+      <c r="L238" s="58"/>
+      <c r="M238" s="58">
         <v>-1.7743897386408243</v>
       </c>
     </row>
@@ -19647,7 +19707,7 @@
       <c r="F239" s="48">
         <v>44287</v>
       </c>
-      <c r="G239" s="62">
+      <c r="G239" s="57">
         <f t="shared" si="3"/>
         <v>-5.7363394879920193</v>
       </c>
@@ -19657,11 +19717,11 @@
       <c r="I239" s="49">
         <v>86.1</v>
       </c>
-      <c r="K239" s="63">
+      <c r="K239" s="58">
         <v>-1.6702285560555499</v>
       </c>
-      <c r="L239" s="63"/>
-      <c r="M239" s="63">
+      <c r="L239" s="58"/>
+      <c r="M239" s="58">
         <v>-1.6702285560555499</v>
       </c>
     </row>
@@ -19669,7 +19729,7 @@
       <c r="F240" s="48">
         <v>44317</v>
       </c>
-      <c r="G240" s="62">
+      <c r="G240" s="57">
         <f t="shared" si="3"/>
         <v>8.3725953089832981</v>
       </c>
@@ -19679,11 +19739,11 @@
       <c r="I240" s="49">
         <v>87.1</v>
       </c>
-      <c r="K240" s="63">
+      <c r="K240" s="58">
         <v>1.853759210201714</v>
       </c>
-      <c r="L240" s="63"/>
-      <c r="M240" s="63">
+      <c r="L240" s="58"/>
+      <c r="M240" s="58">
         <v>1.853759210201714</v>
       </c>
     </row>
@@ -19691,7 +19751,7 @@
       <c r="F241" s="48">
         <v>44348</v>
       </c>
-      <c r="G241" s="62">
+      <c r="G241" s="57">
         <f t="shared" si="3"/>
         <v>-0.56721649524664175</v>
       </c>
@@ -19701,11 +19761,11 @@
       <c r="I241" s="49">
         <v>86.7</v>
       </c>
-      <c r="K241" s="63">
+      <c r="K241" s="58">
         <v>0.67517722835877347</v>
       </c>
-      <c r="L241" s="63"/>
-      <c r="M241" s="63">
+      <c r="L241" s="58"/>
+      <c r="M241" s="58">
         <v>0.67517722835877347</v>
       </c>
     </row>
@@ -19713,7 +19773,7 @@
       <c r="F242" s="48">
         <v>44378</v>
       </c>
-      <c r="G242" s="62">
+      <c r="G242" s="57">
         <f t="shared" si="3"/>
         <v>4.7760325871416818</v>
       </c>
@@ -19723,11 +19783,11 @@
       <c r="I242" s="49">
         <v>85.4</v>
       </c>
-      <c r="K242" s="63">
+      <c r="K242" s="58">
         <v>-0.45408939308741125</v>
       </c>
-      <c r="L242" s="63"/>
-      <c r="M242" s="63">
+      <c r="L242" s="58"/>
+      <c r="M242" s="58">
         <v>-0.45408939308741125</v>
       </c>
     </row>
@@ -19735,7 +19795,7 @@
       <c r="F243" s="48">
         <v>44409</v>
       </c>
-      <c r="G243" s="62">
+      <c r="G243" s="57">
         <f t="shared" si="3"/>
         <v>1.2931214672248785</v>
       </c>
@@ -19745,11 +19805,11 @@
       <c r="I243" s="49">
         <v>85</v>
       </c>
-      <c r="K243" s="63">
+      <c r="K243" s="58">
         <v>-1.5106772484176143</v>
       </c>
-      <c r="L243" s="63"/>
-      <c r="M243" s="63">
+      <c r="L243" s="58"/>
+      <c r="M243" s="58">
         <v>-1.5106772484176143</v>
       </c>
     </row>
@@ -19757,7 +19817,7 @@
       <c r="F244" s="48">
         <v>44440</v>
       </c>
-      <c r="G244" s="62">
+      <c r="G244" s="57">
         <f t="shared" si="3"/>
         <v>-2.0552372953321347</v>
       </c>
@@ -19767,11 +19827,11 @@
       <c r="I244" s="49">
         <v>84.6</v>
       </c>
-      <c r="K244" s="63">
+      <c r="K244" s="58">
         <v>0.76997374345111425</v>
       </c>
-      <c r="L244" s="63"/>
-      <c r="M244" s="63">
+      <c r="L244" s="58"/>
+      <c r="M244" s="58">
         <v>0.76997374345111425</v>
       </c>
     </row>
@@ -19779,7 +19839,7 @@
       <c r="F245" s="48">
         <v>44470</v>
       </c>
-      <c r="G245" s="62">
+      <c r="G245" s="57">
         <f t="shared" si="3"/>
         <v>-1.9868203216725173</v>
       </c>
@@ -19789,11 +19849,11 @@
       <c r="I245" s="49">
         <v>84.1</v>
       </c>
-      <c r="K245" s="63">
+      <c r="K245" s="58">
         <v>-5.5585533126632622</v>
       </c>
-      <c r="L245" s="63"/>
-      <c r="M245" s="63">
+      <c r="L245" s="58"/>
+      <c r="M245" s="58">
         <v>-5.5585533126632622</v>
       </c>
     </row>
@@ -19801,7 +19861,7 @@
       <c r="F246" s="48">
         <v>44501</v>
       </c>
-      <c r="G246" s="62">
+      <c r="G246" s="57">
         <f t="shared" si="3"/>
         <v>-3.8641170975368224</v>
       </c>
@@ -19811,11 +19871,11 @@
       <c r="I246" s="49">
         <v>84.1</v>
       </c>
-      <c r="K246" s="63">
+      <c r="K246" s="58">
         <v>1.6780508564576566</v>
       </c>
-      <c r="L246" s="63"/>
-      <c r="M246" s="63">
+      <c r="L246" s="58"/>
+      <c r="M246" s="58">
         <v>1.6780508564576566</v>
       </c>
     </row>
@@ -19823,7 +19883,7 @@
       <c r="F247" s="48">
         <v>44531</v>
       </c>
-      <c r="G247" s="62">
+      <c r="G247" s="57">
         <f t="shared" si="3"/>
         <v>-8.5853299269002026</v>
       </c>
@@ -19833,11 +19893,11 @@
       <c r="I247" s="49">
         <v>86.5</v>
       </c>
-      <c r="K247" s="63">
+      <c r="K247" s="58">
         <v>2.501958407584894</v>
       </c>
-      <c r="L247" s="63"/>
-      <c r="M247" s="63">
+      <c r="L247" s="58"/>
+      <c r="M247" s="58">
         <v>2.501958407584894</v>
       </c>
     </row>
@@ -22211,18 +22271,18 @@
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.42578125" style="60" customWidth="1"/>
+    <col min="9" max="11" width="9.42578125" style="55" customWidth="1"/>
     <col min="12" max="20" width="8.85546875" style="16"/>
     <col min="23" max="23" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
+        <v>184</v>
+      </c>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
       <c r="L1" s="15"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
@@ -22235,11 +22295,11 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
+        <v>185</v>
+      </c>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="15"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
@@ -22263,24 +22323,24 @@
         <v>22</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="25" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="59"/>
+      <c r="F7" s="63"/>
       <c r="G7" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -22293,7 +22353,7 @@
       <c r="G8" s="52">
         <v>1</v>
       </c>
-      <c r="I8" s="60" cm="1">
+      <c r="I8" s="55" cm="1">
         <f t="array" ref="I8:K16">_xlfn.LAMBDA(_xlpm.matrix,_xlop.position,
 _xlfn.LET(_xlpm.position, IF( _xlfn.ISOMITTED(_xlpm.position), 1, _xlpm.position),
 IF( OR( _xlpm.position&lt;1, _xlpm.position&gt;COLUMNS(_xlpm.matrix)+1),
@@ -22307,10 +22367,10 @@
 ) )($E$8:$F$16, $G$8)</f>
         <v>1</v>
       </c>
-      <c r="J8" s="60">
-        <v>1</v>
-      </c>
-      <c r="K8" s="60">
+      <c r="J8" s="55">
+        <v>1</v>
+      </c>
+      <c r="K8" s="55">
         <v>2</v>
       </c>
     </row>
@@ -22321,13 +22381,13 @@
       <c r="F9" s="52">
         <v>3</v>
       </c>
-      <c r="I9" s="60">
-        <v>1</v>
-      </c>
-      <c r="J9" s="60">
+      <c r="I9" s="55">
+        <v>1</v>
+      </c>
+      <c r="J9" s="55">
         <v>2</v>
       </c>
-      <c r="K9" s="60">
+      <c r="K9" s="55">
         <v>3</v>
       </c>
     </row>
@@ -22338,13 +22398,13 @@
       <c r="F10" s="52">
         <v>4</v>
       </c>
-      <c r="I10" s="60">
-        <v>1</v>
-      </c>
-      <c r="J10" s="60">
+      <c r="I10" s="55">
+        <v>1</v>
+      </c>
+      <c r="J10" s="55">
         <v>3</v>
       </c>
-      <c r="K10" s="60">
+      <c r="K10" s="55">
         <v>4</v>
       </c>
     </row>
@@ -22355,13 +22415,13 @@
       <c r="F11" s="52">
         <v>5</v>
       </c>
-      <c r="I11" s="60">
-        <v>1</v>
-      </c>
-      <c r="J11" s="60">
+      <c r="I11" s="55">
+        <v>1</v>
+      </c>
+      <c r="J11" s="55">
         <v>4</v>
       </c>
-      <c r="K11" s="60">
+      <c r="K11" s="55">
         <v>5</v>
       </c>
     </row>
@@ -22372,13 +22432,13 @@
       <c r="F12" s="52">
         <v>6</v>
       </c>
-      <c r="I12" s="60">
-        <v>1</v>
-      </c>
-      <c r="J12" s="60">
+      <c r="I12" s="55">
+        <v>1</v>
+      </c>
+      <c r="J12" s="55">
         <v>5</v>
       </c>
-      <c r="K12" s="60">
+      <c r="K12" s="55">
         <v>6</v>
       </c>
     </row>
@@ -22389,13 +22449,13 @@
       <c r="F13" s="52">
         <v>7</v>
       </c>
-      <c r="I13" s="60">
-        <v>1</v>
-      </c>
-      <c r="J13" s="60">
+      <c r="I13" s="55">
+        <v>1</v>
+      </c>
+      <c r="J13" s="55">
         <v>6</v>
       </c>
-      <c r="K13" s="60">
+      <c r="K13" s="55">
         <v>7</v>
       </c>
     </row>
@@ -22406,13 +22466,13 @@
       <c r="F14" s="52">
         <v>8</v>
       </c>
-      <c r="I14" s="60">
-        <v>1</v>
-      </c>
-      <c r="J14" s="60">
+      <c r="I14" s="55">
+        <v>1</v>
+      </c>
+      <c r="J14" s="55">
         <v>7</v>
       </c>
-      <c r="K14" s="60">
+      <c r="K14" s="55">
         <v>8</v>
       </c>
     </row>
@@ -22423,13 +22483,13 @@
       <c r="F15" s="52">
         <v>9</v>
       </c>
-      <c r="I15" s="60">
-        <v>1</v>
-      </c>
-      <c r="J15" s="60">
+      <c r="I15" s="55">
+        <v>1</v>
+      </c>
+      <c r="J15" s="55">
         <v>8</v>
       </c>
-      <c r="K15" s="60">
+      <c r="K15" s="55">
         <v>9</v>
       </c>
     </row>
@@ -22440,23 +22500,23 @@
       <c r="F16" s="52">
         <v>10</v>
       </c>
-      <c r="I16" s="60">
-        <v>1</v>
-      </c>
-      <c r="J16" s="60">
+      <c r="I16" s="55">
+        <v>1</v>
+      </c>
+      <c r="J16" s="55">
         <v>9</v>
       </c>
-      <c r="K16" s="60">
+      <c r="K16" s="55">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="59"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.3">
@@ -22469,14 +22529,14 @@
       <c r="G20" s="52">
         <v>3</v>
       </c>
-      <c r="I20" s="60" cm="1">
+      <c r="I20" s="55" cm="1">
         <f t="array" ref="I20:K28">ADDCONST($E$20:$F$28, $G$20)</f>
         <v>1</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="55">
         <v>2</v>
       </c>
-      <c r="K20" s="60">
+      <c r="K20" s="55">
         <v>1</v>
       </c>
     </row>
@@ -22487,13 +22547,13 @@
       <c r="F21" s="52">
         <v>3</v>
       </c>
-      <c r="I21" s="60">
+      <c r="I21" s="55">
         <v>2</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="55">
         <v>3</v>
       </c>
-      <c r="K21" s="60">
+      <c r="K21" s="55">
         <v>1</v>
       </c>
     </row>
@@ -22504,13 +22564,13 @@
       <c r="F22" s="52">
         <v>4</v>
       </c>
-      <c r="I22" s="60">
+      <c r="I22" s="55">
         <v>3</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="55">
         <v>4</v>
       </c>
-      <c r="K22" s="60">
+      <c r="K22" s="55">
         <v>1</v>
       </c>
     </row>
@@ -22521,13 +22581,13 @@
       <c r="F23" s="52">
         <v>5</v>
       </c>
-      <c r="I23" s="60">
+      <c r="I23" s="55">
         <v>4</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="55">
         <v>5</v>
       </c>
-      <c r="K23" s="60">
+      <c r="K23" s="55">
         <v>1</v>
       </c>
     </row>
@@ -22538,13 +22598,13 @@
       <c r="F24" s="52">
         <v>6</v>
       </c>
-      <c r="I24" s="60">
+      <c r="I24" s="55">
         <v>5</v>
       </c>
-      <c r="J24" s="60">
+      <c r="J24" s="55">
         <v>6</v>
       </c>
-      <c r="K24" s="60">
+      <c r="K24" s="55">
         <v>1</v>
       </c>
     </row>
@@ -22555,13 +22615,13 @@
       <c r="F25" s="52">
         <v>7</v>
       </c>
-      <c r="I25" s="60">
+      <c r="I25" s="55">
         <v>6</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="55">
         <v>7</v>
       </c>
-      <c r="K25" s="60">
+      <c r="K25" s="55">
         <v>1</v>
       </c>
     </row>
@@ -22572,13 +22632,13 @@
       <c r="F26" s="52">
         <v>8</v>
       </c>
-      <c r="I26" s="60">
+      <c r="I26" s="55">
         <v>7</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="55">
         <v>8</v>
       </c>
-      <c r="K26" s="60">
+      <c r="K26" s="55">
         <v>1</v>
       </c>
     </row>
@@ -22589,13 +22649,13 @@
       <c r="F27" s="52">
         <v>9</v>
       </c>
-      <c r="I27" s="60">
+      <c r="I27" s="55">
         <v>8</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="55">
         <v>9</v>
       </c>
-      <c r="K27" s="60">
+      <c r="K27" s="55">
         <v>1</v>
       </c>
     </row>
@@ -22606,13 +22666,13 @@
       <c r="F28" s="52">
         <v>10</v>
       </c>
-      <c r="I28" s="60">
+      <c r="I28" s="55">
         <v>9</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="55">
         <v>10</v>
       </c>
-      <c r="K28" s="60">
+      <c r="K28" s="55">
         <v>1</v>
       </c>
     </row>
@@ -22630,10 +22690,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -22643,20 +22703,19 @@
     <col min="4" max="4" width="4.5703125" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.42578125" style="60" customWidth="1"/>
-    <col min="12" max="20" width="8.85546875" style="16"/>
-    <col min="23" max="23" width="8.85546875" customWidth="1"/>
+    <col min="7" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.42578125" style="55" customWidth="1"/>
+    <col min="13" max="21" width="8.85546875" style="16"/>
+    <col min="24" max="24" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="15"/>
+        <v>190</v>
+      </c>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
@@ -22665,15 +22724,15 @@
       <c r="R1" s="15"/>
       <c r="S1" s="15"/>
       <c r="T1" s="15"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="15"/>
+        <v>191</v>
+      </c>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -22682,8 +22741,9 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
-    </row>
-    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U2" s="15"/>
+    </row>
+    <row r="4" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -22691,368 +22751,390 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="63" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="78.75" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E7" s="58" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E8" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E8" s="52">
+      <c r="F8" s="63"/>
+      <c r="G8" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E9" s="52">
         <v>42</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F9" s="52">
         <v>49</v>
       </c>
-      <c r="G8" s="52">
-        <v>1</v>
-      </c>
-      <c r="I8" s="60" cm="1">
-        <f t="array" ref="I8:K16">_xlfn.LAMBDA(_xlpm.matrix,_xlop.position,
-_xlfn.LET(_xlpm.position, IF( _xlfn.ISOMITTED(_xlpm.position), 1, _xlpm.position),
+      <c r="G9" s="52">
+        <v>1</v>
+      </c>
+      <c r="H9" s="52">
+        <v>1</v>
+      </c>
+      <c r="J9" s="55" cm="1">
+        <f t="array" ref="J9:L17">_xlfn.LAMBDA(_xlpm.matrix,_xlop.position,_xlop.nPower,
+_xlfn.LET(
+_xlpm.position, IF( _xlfn.ISOMITTED(_xlpm.position), 1, _xlpm.position),
+_xlpm.power, IF( _xlfn.ISOMITTED(_xlpm.nPower), 1, _xlpm.nPower),
 IF( OR( _xlpm.position&lt;1, _xlpm.position&gt;COLUMNS(_xlpm.matrix)+1),
 "#position exceeds matrix columns",
 IF(_xlpm.position=1,
-HORZCAT( _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1), SLICE(_xlpm.matrix,0,0,1,-1) ),
+HORZCAT( _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1)^_xlpm.nPower, SLICE(_xlpm.matrix,0,0,1,-1) ),
 IF(_xlpm.position=COLUMNS(_xlpm.matrix)+1,
-HORZCAT(_xlpm.matrix, _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1) ),
-HORZCAT( HORZCAT( SLICE(_xlpm.matrix,0,0,1,_xlpm.position-1), _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1) ), SLICE(_xlpm.matrix,0,0,_xlpm.position,-1) )
+HORZCAT(_xlpm.matrix, _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1)^_xlpm.nPower ),
+HORZCAT( HORZCAT( SLICE(_xlpm.matrix,0,0,1,_xlpm.position-1), _xlfn.SEQUENCE(ROWS(_xlpm.matrix),1)^_xlpm.nPower ), SLICE(_xlpm.matrix,0,0,_xlpm.position,-1) )
 ) ) )
-) )($E$8:$F$16, $G$8)</f>
-        <v>1</v>
-      </c>
-      <c r="J8" s="60">
+) )($E$9:$F$17, $G$9,$H$9)</f>
+        <v>1</v>
+      </c>
+      <c r="K9" s="55">
         <v>42</v>
       </c>
-      <c r="K8" s="60">
+      <c r="L9" s="55">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E9" s="52">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E10" s="52">
         <v>19</v>
       </c>
-      <c r="F9" s="52">
+      <c r="F10" s="52">
         <v>40</v>
       </c>
-      <c r="I9" s="60">
+      <c r="J10" s="55">
         <v>2</v>
       </c>
-      <c r="J9" s="60">
+      <c r="K10" s="55">
         <v>19</v>
       </c>
-      <c r="K9" s="60">
+      <c r="L10" s="55">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E10" s="52">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E11" s="52">
         <v>76</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F11" s="52">
         <v>86</v>
       </c>
-      <c r="I10" s="60">
+      <c r="J11" s="55">
         <v>3</v>
       </c>
-      <c r="J10" s="60">
+      <c r="K11" s="55">
         <v>76</v>
       </c>
-      <c r="K10" s="60">
+      <c r="L11" s="55">
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="52">
+    <row r="12" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="52">
         <v>5</v>
       </c>
-      <c r="F11" s="52">
+      <c r="F12" s="52">
         <v>48</v>
       </c>
-      <c r="I11" s="60">
+      <c r="J12" s="55">
         <v>4</v>
       </c>
-      <c r="J11" s="60">
+      <c r="K12" s="55">
         <v>5</v>
       </c>
-      <c r="K11" s="60">
+      <c r="L12" s="55">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E12" s="52">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E13" s="52">
         <v>94</v>
       </c>
-      <c r="F12" s="52">
+      <c r="F13" s="52">
         <v>15</v>
       </c>
-      <c r="I12" s="60">
+      <c r="J13" s="55">
         <v>5</v>
       </c>
-      <c r="J12" s="60">
+      <c r="K13" s="55">
         <v>94</v>
       </c>
-      <c r="K12" s="60">
+      <c r="L13" s="55">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E13" s="52">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E14" s="52">
         <v>75</v>
       </c>
-      <c r="F13" s="52">
+      <c r="F14" s="52">
         <v>71</v>
       </c>
-      <c r="I13" s="60">
+      <c r="J14" s="55">
         <v>6</v>
       </c>
-      <c r="J13" s="60">
+      <c r="K14" s="55">
         <v>75</v>
       </c>
-      <c r="K13" s="60">
+      <c r="L14" s="55">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E14" s="52">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E15" s="52">
         <v>17</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F15" s="52">
         <v>84</v>
       </c>
-      <c r="I14" s="60">
+      <c r="J15" s="55">
         <v>7</v>
       </c>
-      <c r="J14" s="60">
+      <c r="K15" s="55">
         <v>17</v>
       </c>
-      <c r="K14" s="60">
+      <c r="L15" s="55">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E15" s="52">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E16" s="52">
         <v>21</v>
       </c>
-      <c r="F15" s="52">
+      <c r="F16" s="52">
         <v>68</v>
       </c>
-      <c r="I15" s="60">
+      <c r="J16" s="55">
         <v>8</v>
       </c>
-      <c r="J15" s="60">
+      <c r="K16" s="55">
         <v>21</v>
       </c>
-      <c r="K15" s="60">
+      <c r="L16" s="55">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E16" s="52">
+    <row r="17" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E17" s="52">
         <v>16</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F17" s="52">
         <v>55</v>
       </c>
-      <c r="I16" s="60">
+      <c r="J17" s="55">
         <v>9</v>
       </c>
-      <c r="J16" s="60">
+      <c r="K17" s="55">
         <v>16</v>
       </c>
-      <c r="K16" s="60">
+      <c r="L17" s="55">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E19" s="58" t="s">
+    <row r="20" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E20" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="59"/>
-      <c r="G19" s="53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E20" s="52">
+      <c r="F20" s="63"/>
+      <c r="G20" s="53" t="s">
+        <v>187</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E21" s="52">
         <v>42</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F21" s="52">
         <v>49</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G21" s="52">
         <v>3</v>
       </c>
-      <c r="I20" s="60" cm="1">
-        <f t="array" ref="I20:K28">ADDTREND($E$20:$F$28, $G$20)</f>
+      <c r="H21" s="52">
+        <v>2</v>
+      </c>
+      <c r="J21" s="55" cm="1">
+        <f t="array" ref="J21:L29">ADDTREND($E$21:$F$29, $G$21,$H$21)</f>
         <v>42</v>
       </c>
-      <c r="J20" s="60">
+      <c r="K21" s="55">
         <v>49</v>
       </c>
-      <c r="K20" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E21" s="52">
+      <c r="L21" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E22" s="52">
         <v>19</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F22" s="52">
         <v>40</v>
       </c>
-      <c r="I21" s="60">
+      <c r="J22" s="55">
         <v>19</v>
       </c>
-      <c r="J21" s="60">
+      <c r="K22" s="55">
         <v>40</v>
       </c>
-      <c r="K21" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E22" s="52">
+      <c r="L22" s="55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E23" s="52">
         <v>76</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F23" s="52">
         <v>86</v>
       </c>
-      <c r="I22" s="60">
+      <c r="J23" s="55">
         <v>76</v>
       </c>
-      <c r="J22" s="60">
+      <c r="K23" s="55">
         <v>86</v>
       </c>
-      <c r="K22" s="60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E23" s="52">
+      <c r="L23" s="55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E24" s="52">
         <v>5</v>
       </c>
-      <c r="F23" s="52">
+      <c r="F24" s="52">
         <v>48</v>
       </c>
-      <c r="I23" s="60">
+      <c r="J24" s="55">
         <v>5</v>
       </c>
-      <c r="J23" s="60">
+      <c r="K24" s="55">
         <v>48</v>
       </c>
-      <c r="K23" s="60">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E24" s="52">
+      <c r="L24" s="55">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E25" s="52">
         <v>94</v>
       </c>
-      <c r="F24" s="52">
+      <c r="F25" s="52">
         <v>15</v>
       </c>
-      <c r="I24" s="60">
+      <c r="J25" s="55">
         <v>94</v>
       </c>
-      <c r="J24" s="60">
+      <c r="K25" s="55">
         <v>15</v>
       </c>
-      <c r="K24" s="60">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E25" s="52">
+      <c r="L25" s="55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E26" s="52">
         <v>75</v>
       </c>
-      <c r="F25" s="52">
+      <c r="F26" s="52">
         <v>71</v>
       </c>
-      <c r="I25" s="60">
+      <c r="J26" s="55">
         <v>75</v>
       </c>
-      <c r="J25" s="60">
+      <c r="K26" s="55">
         <v>71</v>
       </c>
-      <c r="K25" s="60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E26" s="52">
+      <c r="L26" s="55">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E27" s="52">
         <v>17</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F27" s="52">
         <v>84</v>
       </c>
-      <c r="I26" s="60">
+      <c r="J27" s="55">
         <v>17</v>
       </c>
-      <c r="J26" s="60">
+      <c r="K27" s="55">
         <v>84</v>
       </c>
-      <c r="K26" s="60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E27" s="52">
+      <c r="L27" s="55">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E28" s="52">
         <v>21</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F28" s="52">
         <v>68</v>
       </c>
-      <c r="I27" s="60">
+      <c r="J28" s="55">
         <v>21</v>
       </c>
-      <c r="J27" s="60">
+      <c r="K28" s="55">
         <v>68</v>
       </c>
-      <c r="K27" s="60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E28" s="52">
+      <c r="L28" s="55">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="5:12" x14ac:dyDescent="0.3">
+      <c r="E29" s="52">
         <v>16</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F29" s="52">
         <v>55</v>
       </c>
-      <c r="I28" s="60">
+      <c r="J29" s="55">
         <v>16</v>
       </c>
-      <c r="J28" s="60">
+      <c r="K29" s="55">
         <v>55</v>
       </c>
-      <c r="K28" s="60">
-        <v>9</v>
+      <c r="L29" s="55">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
